--- a/Resource/Mcoc.xlsx
+++ b/Resource/Mcoc.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Cloud\Projs\GitHub\_Resource\WebApiIntegrations\Resource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Cloud\Projs\GitHub\_myASP.Net\WebApiAspNetCore\Resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA7C54B-87B6-468E-B1B0-73F1117CFA26}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612F82B8-5B58-4E69-A790-1E031C549E1E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{7AD03304-C680-49F6-964C-561BDBB7D657}"/>
   </bookViews>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6525" uniqueCount="2621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6532" uniqueCount="2622">
   <si>
     <t>Abomination</t>
   </si>
@@ -8025,13 +8025,16 @@
     <t>S A</t>
   </si>
   <si>
-    <t>96</t>
-  </si>
-  <si>
     <t>14</t>
   </si>
   <si>
     <t>77</t>
+  </si>
+  <si>
+    <t>https://www.mcoc-guide.com/champions-tier-list-for-offense-god-tier-demi-god-meh-etc/</t>
+  </si>
+  <si>
+    <t>98</t>
   </si>
 </sst>
 </file>
@@ -8531,7 +8534,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
@@ -8983,6 +8986,9 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -9328,10 +9334,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DC9F4605-1C00-4742-93D7-8D98A80A1410}" name="Tabela4" displayName="Tabela4" ref="A2:Q36" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="A2:Q36" xr:uid="{AE73083C-743F-430D-8D83-35B94A58BF67}"/>
-  <sortState ref="A3:Q36">
-    <sortCondition descending="1" ref="G2:G36"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DC9F4605-1C00-4742-93D7-8D98A80A1410}" name="Tabela4" displayName="Tabela4" ref="A2:Q37" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A2:Q37" xr:uid="{AE73083C-743F-430D-8D83-35B94A58BF67}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:Q37">
+    <sortCondition descending="1" ref="G2:G37"/>
   </sortState>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{3FD809B2-36BB-490F-B6AB-C3C0CB4BBF3D}" name="class" dataDxfId="17"/>
@@ -9679,7 +9685,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9709,6 +9715,8 @@
     <col min="30" max="30" width="91" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="32.5703125" customWidth="1"/>
+    <col min="34" max="34" width="23" customWidth="1"/>
     <col min="37" max="37" width="6.85546875" customWidth="1"/>
     <col min="38" max="42" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="82.140625" bestFit="1" customWidth="1"/>
@@ -9909,7 +9917,7 @@
       <c r="I2" s="8">
         <v>148</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="9" t="s">
         <v>120</v>
       </c>
       <c r="K2" s="9">
@@ -14011,7 +14019,7 @@
       </c>
       <c r="BA35" s="1"/>
     </row>
-    <row r="36" spans="1:53" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:53" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="29" t="s">
         <v>577</v>
       </c>
@@ -36089,10 +36097,10 @@
   <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I29" sqref="I29"/>
+      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36278,7 +36286,7 @@
         <v>2569</v>
       </c>
       <c r="E5" s="83">
-        <v>7750</v>
+        <v>7867</v>
       </c>
       <c r="F5" s="83">
         <v>21976</v>
@@ -36287,7 +36295,7 @@
         <v>1861</v>
       </c>
       <c r="H5" s="80">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="I5" s="79"/>
       <c r="J5" s="81"/>
@@ -36349,144 +36357,146 @@
       <c r="Q6" s="78"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="70">
-        <v>4</v>
-      </c>
-      <c r="B7" s="77" t="s">
-        <v>2602</v>
-      </c>
-      <c r="C7" s="78">
+      <c r="A7" s="71">
+        <v>2</v>
+      </c>
+      <c r="B7" s="65" t="s">
+        <v>192</v>
+      </c>
+      <c r="C7" s="62">
         <v>5</v>
       </c>
-      <c r="D7" s="79" t="s">
+      <c r="D7" s="64" t="s">
         <v>2564</v>
       </c>
       <c r="E7" s="83">
-        <v>5573</v>
+        <v>5806</v>
       </c>
       <c r="F7" s="83">
-        <v>15524</v>
+        <v>18845</v>
       </c>
       <c r="G7" s="83">
-        <v>1463</v>
-      </c>
-      <c r="H7" s="80" t="s">
+        <v>1490</v>
+      </c>
+      <c r="H7" s="155" t="s">
         <v>2603</v>
       </c>
-      <c r="I7" s="79" t="s">
+      <c r="I7" s="155" t="s">
         <v>2590</v>
       </c>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81" t="s">
-        <v>2587</v>
-      </c>
-      <c r="L7" s="77" t="s">
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="61" t="s">
         <v>2573</v>
       </c>
-      <c r="M7" s="81"/>
-      <c r="N7" s="77" t="s">
+      <c r="M7" s="75"/>
+      <c r="N7" s="61" t="s">
         <v>2595</v>
       </c>
-      <c r="O7" s="61"/>
-      <c r="P7" s="78">
-        <v>6</v>
-      </c>
-      <c r="Q7" s="78">
-        <v>7</v>
+      <c r="O7" s="63"/>
+      <c r="P7" s="62"/>
+      <c r="Q7" s="62">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="67">
-        <v>0</v>
-      </c>
-      <c r="B8" s="65" t="s">
-        <v>2581</v>
-      </c>
-      <c r="C8" s="62">
+      <c r="A8" s="70">
         <v>4</v>
       </c>
-      <c r="D8" s="64" t="s">
-        <v>2572</v>
-      </c>
-      <c r="E8" s="82">
-        <v>5374</v>
-      </c>
-      <c r="F8" s="82">
-        <v>12079</v>
-      </c>
-      <c r="G8" s="82">
-        <v>1438</v>
-      </c>
-      <c r="H8" s="87">
-        <v>43</v>
-      </c>
-      <c r="I8" s="87"/>
-      <c r="J8" s="63" t="s">
-        <v>2562</v>
-      </c>
-      <c r="K8" s="63"/>
-      <c r="L8" s="61" t="s">
-        <v>2574</v>
-      </c>
-      <c r="M8" s="88" t="s">
-        <v>2598</v>
-      </c>
-      <c r="N8" s="61" t="s">
-        <v>2574</v>
+      <c r="B8" s="77" t="s">
+        <v>2602</v>
+      </c>
+      <c r="C8" s="78">
+        <v>5</v>
+      </c>
+      <c r="D8" s="79" t="s">
+        <v>2564</v>
+      </c>
+      <c r="E8" s="83">
+        <v>5573</v>
+      </c>
+      <c r="F8" s="83">
+        <v>15524</v>
+      </c>
+      <c r="G8" s="83">
+        <v>1463</v>
+      </c>
+      <c r="H8" s="80" t="s">
+        <v>2603</v>
+      </c>
+      <c r="I8" s="79" t="s">
+        <v>2590</v>
+      </c>
+      <c r="J8" s="81"/>
+      <c r="K8" s="81" t="s">
+        <v>2587</v>
+      </c>
+      <c r="L8" s="77" t="s">
+        <v>2573</v>
+      </c>
+      <c r="M8" s="81"/>
+      <c r="N8" s="77" t="s">
+        <v>2595</v>
       </c>
       <c r="O8" s="61"/>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="62">
+      <c r="P8" s="78">
         <v>6</v>
+      </c>
+      <c r="Q8" s="78">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="67">
         <v>0</v>
       </c>
-      <c r="B9" s="77" t="s">
-        <v>960</v>
-      </c>
-      <c r="C9" s="78">
-        <v>5</v>
-      </c>
-      <c r="D9" s="79" t="s">
-        <v>2564</v>
-      </c>
-      <c r="E9" s="83">
-        <v>6203</v>
-      </c>
-      <c r="F9" s="83">
-        <v>14417</v>
-      </c>
-      <c r="G9" s="83">
-        <v>1436</v>
-      </c>
-      <c r="H9" s="80">
-        <v>22</v>
-      </c>
-      <c r="I9" s="79"/>
-      <c r="J9" s="81"/>
-      <c r="K9" s="81"/>
-      <c r="L9" s="77" t="s">
+      <c r="B9" s="65" t="s">
+        <v>2581</v>
+      </c>
+      <c r="C9" s="62">
+        <v>4</v>
+      </c>
+      <c r="D9" s="64" t="s">
+        <v>2572</v>
+      </c>
+      <c r="E9" s="82">
+        <v>5374</v>
+      </c>
+      <c r="F9" s="82">
+        <v>12079</v>
+      </c>
+      <c r="G9" s="82">
+        <v>1438</v>
+      </c>
+      <c r="H9" s="87">
+        <v>43</v>
+      </c>
+      <c r="I9" s="87"/>
+      <c r="J9" s="63" t="s">
+        <v>2562</v>
+      </c>
+      <c r="K9" s="63"/>
+      <c r="L9" s="61" t="s">
         <v>2574</v>
       </c>
-      <c r="M9" s="81"/>
-      <c r="N9" s="77" t="s">
-        <v>2592</v>
+      <c r="M9" s="88" t="s">
+        <v>2598</v>
+      </c>
+      <c r="N9" s="61" t="s">
+        <v>2574</v>
       </c>
       <c r="O9" s="61"/>
-      <c r="P9" s="78">
-        <v>10</v>
-      </c>
-      <c r="Q9" s="78"/>
+      <c r="P9" s="62"/>
+      <c r="Q9" s="62">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="66">
-        <v>1</v>
+      <c r="A10" s="67">
+        <v>0</v>
       </c>
       <c r="B10" s="77" t="s">
-        <v>44</v>
+        <v>960</v>
       </c>
       <c r="C10" s="78">
         <v>5</v>
@@ -36495,45 +36505,39 @@
         <v>2564</v>
       </c>
       <c r="E10" s="83">
-        <v>5978</v>
+        <v>6203</v>
       </c>
       <c r="F10" s="83">
-        <v>16631</v>
+        <v>14417</v>
       </c>
       <c r="G10" s="83">
-        <v>1422</v>
+        <v>1436</v>
       </c>
       <c r="H10" s="80">
-        <v>0</v>
-      </c>
-      <c r="I10" s="79" t="s">
-        <v>2590</v>
-      </c>
-      <c r="J10" s="81" t="s">
-        <v>2562</v>
-      </c>
-      <c r="K10" s="81" t="s">
-        <v>2587</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="I10" s="79"/>
+      <c r="J10" s="81"/>
+      <c r="K10" s="81"/>
       <c r="L10" s="77" t="s">
-        <v>2576</v>
+        <v>2574</v>
       </c>
       <c r="M10" s="81"/>
       <c r="N10" s="77" t="s">
-        <v>2596</v>
+        <v>2592</v>
       </c>
       <c r="O10" s="61"/>
-      <c r="P10" s="78"/>
-      <c r="Q10" s="78">
-        <v>3</v>
-      </c>
+      <c r="P10" s="78">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="78"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="70">
-        <v>4</v>
+      <c r="A11" s="66">
+        <v>1</v>
       </c>
       <c r="B11" s="77" t="s">
-        <v>2570</v>
+        <v>44</v>
       </c>
       <c r="C11" s="78">
         <v>5</v>
@@ -36542,13 +36546,13 @@
         <v>2564</v>
       </c>
       <c r="E11" s="83">
-        <v>5943</v>
+        <v>5978</v>
       </c>
       <c r="F11" s="83">
-        <v>19399</v>
+        <v>16631</v>
       </c>
       <c r="G11" s="83">
-        <v>1409</v>
+        <v>1422</v>
       </c>
       <c r="H11" s="80">
         <v>0</v>
@@ -36563,157 +36567,161 @@
         <v>2587</v>
       </c>
       <c r="L11" s="77" t="s">
-        <v>2574</v>
+        <v>2576</v>
       </c>
       <c r="M11" s="81"/>
       <c r="N11" s="77" t="s">
-        <v>2595</v>
+        <v>2596</v>
       </c>
       <c r="O11" s="61"/>
       <c r="P11" s="78"/>
       <c r="Q11" s="78">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="71">
-        <v>2</v>
-      </c>
-      <c r="B12" s="65" t="s">
-        <v>470</v>
-      </c>
-      <c r="C12" s="62">
+      <c r="A12" s="70">
         <v>4</v>
       </c>
-      <c r="D12" s="64" t="s">
-        <v>2572</v>
-      </c>
-      <c r="E12" s="82">
-        <v>5824</v>
-      </c>
-      <c r="F12" s="82">
-        <v>14577</v>
-      </c>
-      <c r="G12" s="82">
-        <v>1371</v>
-      </c>
-      <c r="H12" s="87" t="s">
-        <v>2619</v>
-      </c>
-      <c r="I12" s="87"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="61" t="s">
-        <v>2575</v>
-      </c>
-      <c r="M12" s="75"/>
-      <c r="N12" s="61" t="s">
+      <c r="B12" s="77" t="s">
+        <v>2570</v>
+      </c>
+      <c r="C12" s="78">
+        <v>5</v>
+      </c>
+      <c r="D12" s="79" t="s">
+        <v>2564</v>
+      </c>
+      <c r="E12" s="83">
+        <v>5943</v>
+      </c>
+      <c r="F12" s="83">
+        <v>19399</v>
+      </c>
+      <c r="G12" s="83">
+        <v>1409</v>
+      </c>
+      <c r="H12" s="80">
+        <v>0</v>
+      </c>
+      <c r="I12" s="79" t="s">
+        <v>2590</v>
+      </c>
+      <c r="J12" s="81" t="s">
+        <v>2562</v>
+      </c>
+      <c r="K12" s="81" t="s">
+        <v>2587</v>
+      </c>
+      <c r="L12" s="77" t="s">
+        <v>2574</v>
+      </c>
+      <c r="M12" s="81"/>
+      <c r="N12" s="77" t="s">
         <v>2595</v>
       </c>
       <c r="O12" s="61"/>
-      <c r="P12" s="62">
+      <c r="P12" s="78"/>
+      <c r="Q12" s="78">
         <v>1</v>
-      </c>
-      <c r="Q12" s="62">
-        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="69">
-        <v>5</v>
-      </c>
-      <c r="B13" s="77" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="78">
-        <v>5</v>
-      </c>
-      <c r="D13" s="79" t="s">
-        <v>2564</v>
-      </c>
-      <c r="E13" s="83">
-        <v>5826</v>
-      </c>
-      <c r="F13" s="83">
-        <v>17739</v>
-      </c>
-      <c r="G13" s="83">
-        <v>1342</v>
-      </c>
-      <c r="H13" s="80">
-        <v>27</v>
-      </c>
-      <c r="I13" s="79"/>
-      <c r="J13" s="81"/>
-      <c r="K13" s="81" t="s">
-        <v>2587</v>
-      </c>
-      <c r="L13" s="77" t="s">
-        <v>2574</v>
-      </c>
-      <c r="M13" s="74"/>
-      <c r="N13" s="77" t="s">
+      <c r="A13" s="71">
+        <v>2</v>
+      </c>
+      <c r="B13" s="65" t="s">
+        <v>470</v>
+      </c>
+      <c r="C13" s="62">
+        <v>4</v>
+      </c>
+      <c r="D13" s="64" t="s">
+        <v>2572</v>
+      </c>
+      <c r="E13" s="82">
+        <v>5824</v>
+      </c>
+      <c r="F13" s="82">
+        <v>14577</v>
+      </c>
+      <c r="G13" s="82">
+        <v>1371</v>
+      </c>
+      <c r="H13" s="87" t="s">
+        <v>2618</v>
+      </c>
+      <c r="I13" s="87"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="61" t="s">
+        <v>2575</v>
+      </c>
+      <c r="M13" s="75"/>
+      <c r="N13" s="61" t="s">
         <v>2595</v>
       </c>
-      <c r="O13" s="74" t="s">
-        <v>2599</v>
-      </c>
-      <c r="P13" s="78">
-        <v>8</v>
-      </c>
-      <c r="Q13" s="78">
-        <v>2</v>
+      <c r="O13" s="61"/>
+      <c r="P13" s="62">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="62">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="68">
-        <v>3</v>
-      </c>
-      <c r="B14" s="65" t="s">
-        <v>1828</v>
-      </c>
-      <c r="C14" s="62">
-        <v>4</v>
-      </c>
-      <c r="D14" s="64" t="s">
-        <v>2572</v>
-      </c>
-      <c r="E14" s="82">
-        <v>5678</v>
-      </c>
-      <c r="F14" s="82">
-        <v>13802</v>
-      </c>
-      <c r="G14" s="82">
-        <v>1329</v>
-      </c>
-      <c r="H14" s="76">
-        <v>86</v>
-      </c>
-      <c r="I14" s="64"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="61" t="s">
-        <v>2573</v>
-      </c>
-      <c r="M14" s="75" t="s">
+      <c r="A14" s="69">
+        <v>5</v>
+      </c>
+      <c r="B14" s="77" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="78">
+        <v>5</v>
+      </c>
+      <c r="D14" s="79" t="s">
+        <v>2564</v>
+      </c>
+      <c r="E14" s="83">
+        <v>5835</v>
+      </c>
+      <c r="F14" s="83">
+        <v>17739</v>
+      </c>
+      <c r="G14" s="83">
+        <v>1342</v>
+      </c>
+      <c r="H14" s="80">
+        <v>28</v>
+      </c>
+      <c r="I14" s="79"/>
+      <c r="J14" s="81"/>
+      <c r="K14" s="81" t="s">
+        <v>2587</v>
+      </c>
+      <c r="L14" s="77" t="s">
+        <v>2574</v>
+      </c>
+      <c r="M14" s="74"/>
+      <c r="N14" s="77" t="s">
+        <v>2595</v>
+      </c>
+      <c r="O14" s="74" t="s">
         <v>2599</v>
       </c>
-      <c r="N14" s="61" t="s">
-        <v>2574</v>
-      </c>
-      <c r="O14" s="74" t="s">
-        <v>2567</v>
-      </c>
-      <c r="P14" s="63"/>
-      <c r="Q14" s="74"/>
+      <c r="P14" s="78">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="78">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="69">
-        <v>5</v>
+      <c r="A15" s="68">
+        <v>3</v>
       </c>
       <c r="B15" s="65" t="s">
-        <v>27</v>
+        <v>1828</v>
       </c>
       <c r="C15" s="62">
         <v>4</v>
@@ -36722,41 +36730,41 @@
         <v>2572</v>
       </c>
       <c r="E15" s="82">
-        <v>5610</v>
+        <v>5678</v>
       </c>
       <c r="F15" s="82">
-        <v>13659</v>
+        <v>13802</v>
       </c>
       <c r="G15" s="82">
         <v>1329</v>
       </c>
       <c r="H15" s="76">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="I15" s="64"/>
-      <c r="J15" s="63" t="s">
-        <v>2562</v>
-      </c>
+      <c r="J15" s="63"/>
       <c r="K15" s="63"/>
       <c r="L15" s="61" t="s">
+        <v>2573</v>
+      </c>
+      <c r="M15" s="75" t="s">
+        <v>2599</v>
+      </c>
+      <c r="N15" s="61" t="s">
         <v>2574</v>
       </c>
-      <c r="M15" s="63"/>
-      <c r="N15" s="61" t="s">
-        <v>2592</v>
-      </c>
-      <c r="O15" s="74"/>
-      <c r="P15" s="63">
-        <v>9</v>
-      </c>
-      <c r="Q15" s="63"/>
+      <c r="O15" s="74" t="s">
+        <v>2567</v>
+      </c>
+      <c r="P15" s="63"/>
+      <c r="Q15" s="74"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="68">
-        <v>3</v>
+      <c r="A16" s="69">
+        <v>5</v>
       </c>
       <c r="B16" s="65" t="s">
-        <v>1369</v>
+        <v>27</v>
       </c>
       <c r="C16" s="62">
         <v>4</v>
@@ -36765,37 +36773,41 @@
         <v>2572</v>
       </c>
       <c r="E16" s="82">
-        <v>5795</v>
+        <v>5610</v>
       </c>
       <c r="F16" s="82">
-        <v>15954</v>
+        <v>13659</v>
       </c>
       <c r="G16" s="82">
-        <v>1285</v>
+        <v>1329</v>
       </c>
       <c r="H16" s="76">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="I16" s="64"/>
-      <c r="J16" s="63"/>
+      <c r="J16" s="63" t="s">
+        <v>2562</v>
+      </c>
       <c r="K16" s="63"/>
       <c r="L16" s="61" t="s">
         <v>2574</v>
       </c>
       <c r="M16" s="63"/>
       <c r="N16" s="61" t="s">
-        <v>2574</v>
-      </c>
-      <c r="O16" s="61"/>
-      <c r="P16" s="63"/>
+        <v>2592</v>
+      </c>
+      <c r="O16" s="74"/>
+      <c r="P16" s="63">
+        <v>9</v>
+      </c>
       <c r="Q16" s="63"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="69">
-        <v>5</v>
+      <c r="A17" s="68">
+        <v>3</v>
       </c>
       <c r="B17" s="65" t="s">
-        <v>32</v>
+        <v>1369</v>
       </c>
       <c r="C17" s="62">
         <v>4</v>
@@ -36804,47 +36816,37 @@
         <v>2572</v>
       </c>
       <c r="E17" s="82">
-        <v>6227</v>
+        <v>5795</v>
       </c>
       <c r="F17" s="82">
-        <v>14663</v>
+        <v>15954</v>
       </c>
       <c r="G17" s="82">
-        <v>1255</v>
+        <v>1285</v>
       </c>
       <c r="H17" s="76">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="I17" s="64"/>
-      <c r="J17" s="63" t="s">
-        <v>2562</v>
-      </c>
-      <c r="K17" s="63" t="s">
-        <v>2587</v>
-      </c>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
       <c r="L17" s="61" t="s">
         <v>2574</v>
       </c>
-      <c r="M17" s="74" t="s">
-        <v>2567</v>
-      </c>
+      <c r="M17" s="63"/>
       <c r="N17" s="61" t="s">
-        <v>2596</v>
-      </c>
-      <c r="O17" s="74" t="s">
-        <v>2567</v>
-      </c>
+        <v>2574</v>
+      </c>
+      <c r="O17" s="61"/>
       <c r="P17" s="63"/>
-      <c r="Q17" s="63">
-        <v>1</v>
-      </c>
+      <c r="Q17" s="63"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="68">
-        <v>3</v>
+      <c r="A18" s="69">
+        <v>5</v>
       </c>
       <c r="B18" s="65" t="s">
-        <v>2563</v>
+        <v>32</v>
       </c>
       <c r="C18" s="62">
         <v>4</v>
@@ -36853,43 +36855,47 @@
         <v>2572</v>
       </c>
       <c r="E18" s="82">
-        <v>6002</v>
+        <v>6227</v>
       </c>
       <c r="F18" s="82">
-        <v>16241</v>
+        <v>14663</v>
       </c>
       <c r="G18" s="82">
         <v>1255</v>
       </c>
       <c r="H18" s="76">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="I18" s="64"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="63"/>
+      <c r="J18" s="63" t="s">
+        <v>2562</v>
+      </c>
+      <c r="K18" s="63" t="s">
+        <v>2587</v>
+      </c>
       <c r="L18" s="61" t="s">
-        <v>2573</v>
-      </c>
-      <c r="M18" s="63"/>
+        <v>2574</v>
+      </c>
+      <c r="M18" s="74" t="s">
+        <v>2567</v>
+      </c>
       <c r="N18" s="61" t="s">
         <v>2596</v>
       </c>
       <c r="O18" s="74" t="s">
         <v>2567</v>
       </c>
-      <c r="P18" s="63">
-        <v>8</v>
-      </c>
+      <c r="P18" s="63"/>
       <c r="Q18" s="63">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="71">
-        <v>2</v>
+      <c r="A19" s="68">
+        <v>3</v>
       </c>
       <c r="B19" s="65" t="s">
-        <v>1012</v>
+        <v>2563</v>
       </c>
       <c r="C19" s="62">
         <v>4</v>
@@ -36898,41 +36904,43 @@
         <v>2572</v>
       </c>
       <c r="E19" s="82">
-        <v>5846</v>
+        <v>6009</v>
       </c>
       <c r="F19" s="82">
-        <v>14699</v>
+        <v>16241</v>
       </c>
       <c r="G19" s="82">
         <v>1255</v>
       </c>
       <c r="H19" s="76">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="I19" s="64"/>
       <c r="J19" s="63"/>
       <c r="K19" s="63"/>
       <c r="L19" s="61" t="s">
-        <v>2575</v>
-      </c>
-      <c r="M19" s="74" t="s">
+        <v>2573</v>
+      </c>
+      <c r="M19" s="63"/>
+      <c r="N19" s="61" t="s">
+        <v>2596</v>
+      </c>
+      <c r="O19" s="74" t="s">
         <v>2567</v>
       </c>
-      <c r="N19" s="61" t="s">
-        <v>2576</v>
-      </c>
-      <c r="O19" s="61"/>
-      <c r="P19" s="62">
+      <c r="P19" s="63">
+        <v>8</v>
+      </c>
+      <c r="Q19" s="63">
         <v>2</v>
       </c>
-      <c r="Q19" s="62"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="66">
-        <v>1</v>
+      <c r="A20" s="71">
+        <v>2</v>
       </c>
       <c r="B20" s="65" t="s">
-        <v>59</v>
+        <v>1012</v>
       </c>
       <c r="C20" s="62">
         <v>4</v>
@@ -36941,32 +36949,32 @@
         <v>2572</v>
       </c>
       <c r="E20" s="82">
-        <v>5263</v>
+        <v>5846</v>
       </c>
       <c r="F20" s="82">
-        <v>14807</v>
+        <v>14699</v>
       </c>
       <c r="G20" s="82">
         <v>1255</v>
       </c>
-      <c r="H20" s="87" t="s">
-        <v>2620</v>
-      </c>
-      <c r="I20" s="87"/>
+      <c r="H20" s="76">
+        <v>11</v>
+      </c>
+      <c r="I20" s="64"/>
       <c r="J20" s="63"/>
       <c r="K20" s="63"/>
       <c r="L20" s="61" t="s">
-        <v>2573</v>
+        <v>2575</v>
       </c>
       <c r="M20" s="74" t="s">
         <v>2567</v>
       </c>
       <c r="N20" s="61" t="s">
-        <v>2592</v>
+        <v>2576</v>
       </c>
       <c r="O20" s="61"/>
       <c r="P20" s="62">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="Q20" s="62"/>
     </row>
@@ -36975,7 +36983,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="65" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C21" s="62">
         <v>4</v>
@@ -36984,7 +36992,7 @@
         <v>2572</v>
       </c>
       <c r="E21" s="82">
-        <v>5243</v>
+        <v>5263</v>
       </c>
       <c r="F21" s="82">
         <v>14807</v>
@@ -36992,14 +37000,14 @@
       <c r="G21" s="82">
         <v>1255</v>
       </c>
-      <c r="H21" s="87">
-        <v>35</v>
+      <c r="H21" s="87" t="s">
+        <v>2619</v>
       </c>
       <c r="I21" s="87"/>
       <c r="J21" s="63"/>
       <c r="K21" s="63"/>
       <c r="L21" s="61" t="s">
-        <v>2575</v>
+        <v>2573</v>
       </c>
       <c r="M21" s="74" t="s">
         <v>2567</v>
@@ -37009,16 +37017,16 @@
       </c>
       <c r="O21" s="61"/>
       <c r="P21" s="62">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q21" s="62"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="67">
-        <v>0</v>
+      <c r="A22" s="66">
+        <v>1</v>
       </c>
       <c r="B22" s="65" t="s">
-        <v>1116</v>
+        <v>57</v>
       </c>
       <c r="C22" s="62">
         <v>4</v>
@@ -37027,16 +37035,16 @@
         <v>2572</v>
       </c>
       <c r="E22" s="82">
-        <v>5959</v>
+        <v>5243</v>
       </c>
       <c r="F22" s="82">
-        <v>15847</v>
+        <v>14807</v>
       </c>
       <c r="G22" s="82">
-        <v>1206</v>
-      </c>
-      <c r="H22" s="87" t="s">
-        <v>2618</v>
+        <v>1255</v>
+      </c>
+      <c r="H22" s="87">
+        <v>35</v>
       </c>
       <c r="I22" s="87"/>
       <c r="J22" s="63"/>
@@ -37048,24 +37056,20 @@
         <v>2567</v>
       </c>
       <c r="N22" s="61" t="s">
-        <v>2596</v>
-      </c>
-      <c r="O22" s="74" t="s">
-        <v>2567</v>
-      </c>
+        <v>2592</v>
+      </c>
+      <c r="O22" s="61"/>
       <c r="P22" s="62">
         <v>4</v>
       </c>
-      <c r="Q22" s="62">
-        <v>2</v>
-      </c>
+      <c r="Q22" s="62"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="71">
-        <v>2</v>
+      <c r="A23" s="67">
+        <v>0</v>
       </c>
       <c r="B23" s="65" t="s">
-        <v>562</v>
+        <v>1116</v>
       </c>
       <c r="C23" s="62">
         <v>4</v>
@@ -37074,35 +37078,37 @@
         <v>2572</v>
       </c>
       <c r="E23" s="82">
-        <v>6203</v>
+        <v>5963</v>
       </c>
       <c r="F23" s="82">
-        <v>15667</v>
+        <v>15847</v>
       </c>
       <c r="G23" s="82">
-        <v>1145</v>
-      </c>
-      <c r="H23" s="76">
-        <v>32</v>
-      </c>
-      <c r="I23" s="64"/>
+        <v>1206</v>
+      </c>
+      <c r="H23" s="87" t="s">
+        <v>2621</v>
+      </c>
+      <c r="I23" s="87"/>
       <c r="J23" s="63"/>
       <c r="K23" s="63"/>
       <c r="L23" s="61" t="s">
-        <v>2573</v>
-      </c>
-      <c r="M23" s="63"/>
+        <v>2575</v>
+      </c>
+      <c r="M23" s="74" t="s">
+        <v>2567</v>
+      </c>
       <c r="N23" s="61" t="s">
-        <v>2574</v>
+        <v>2596</v>
       </c>
       <c r="O23" s="74" t="s">
         <v>2567</v>
       </c>
       <c r="P23" s="62">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q23" s="62">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
@@ -37110,7 +37116,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="65" t="s">
-        <v>1954</v>
+        <v>562</v>
       </c>
       <c r="C24" s="62">
         <v>4</v>
@@ -37119,16 +37125,16 @@
         <v>2572</v>
       </c>
       <c r="E24" s="82">
-        <v>5077</v>
+        <v>6203</v>
       </c>
       <c r="F24" s="82">
-        <v>12510</v>
+        <v>15667</v>
       </c>
       <c r="G24" s="82">
         <v>1145</v>
       </c>
       <c r="H24" s="76">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="I24" s="64"/>
       <c r="J24" s="63"/>
@@ -37136,65 +37142,67 @@
       <c r="L24" s="61" t="s">
         <v>2573</v>
       </c>
-      <c r="M24" s="74" t="s">
+      <c r="M24" s="63"/>
+      <c r="N24" s="61" t="s">
+        <v>2574</v>
+      </c>
+      <c r="O24" s="74" t="s">
         <v>2567</v>
       </c>
-      <c r="N24" s="61" t="s">
-        <v>2592</v>
-      </c>
-      <c r="O24" s="61"/>
-      <c r="P24" s="62"/>
-      <c r="Q24" s="62"/>
+      <c r="P24" s="62">
+        <v>8</v>
+      </c>
+      <c r="Q24" s="62">
+        <v>5</v>
+      </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="69">
-        <v>5</v>
-      </c>
-      <c r="B25" s="77" t="s">
-        <v>2579</v>
-      </c>
-      <c r="C25" s="78">
-        <v>5</v>
-      </c>
-      <c r="D25" s="79" t="s">
-        <v>2571</v>
-      </c>
-      <c r="E25" s="83">
-        <v>3948</v>
-      </c>
-      <c r="F25" s="83">
-        <v>12016</v>
-      </c>
-      <c r="G25" s="83">
-        <v>990</v>
-      </c>
-      <c r="H25" s="80">
-        <v>0</v>
-      </c>
-      <c r="I25" s="79" t="s">
-        <v>2590</v>
-      </c>
-      <c r="J25" s="81"/>
-      <c r="K25" s="81"/>
-      <c r="L25" s="77" t="s">
-        <v>2577</v>
+      <c r="A25" s="71">
+        <v>2</v>
+      </c>
+      <c r="B25" s="65" t="s">
+        <v>1954</v>
+      </c>
+      <c r="C25" s="62">
+        <v>4</v>
+      </c>
+      <c r="D25" s="64" t="s">
+        <v>2572</v>
+      </c>
+      <c r="E25" s="82">
+        <v>5077</v>
+      </c>
+      <c r="F25" s="82">
+        <v>12510</v>
+      </c>
+      <c r="G25" s="82">
+        <v>1145</v>
+      </c>
+      <c r="H25" s="76">
+        <v>99</v>
+      </c>
+      <c r="I25" s="64"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="61" t="s">
+        <v>2573</v>
       </c>
       <c r="M25" s="74" t="s">
         <v>2567</v>
       </c>
-      <c r="N25" s="77" t="s">
+      <c r="N25" s="61" t="s">
         <v>2592</v>
       </c>
       <c r="O25" s="61"/>
-      <c r="P25" s="78"/>
-      <c r="Q25" s="78"/>
+      <c r="P25" s="62"/>
+      <c r="Q25" s="62"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="68">
-        <v>3</v>
+      <c r="A26" s="69">
+        <v>5</v>
       </c>
       <c r="B26" s="77" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="C26" s="78">
         <v>5</v>
@@ -37203,10 +37211,10 @@
         <v>2571</v>
       </c>
       <c r="E26" s="83">
-        <v>3774</v>
+        <v>3948</v>
       </c>
       <c r="F26" s="83">
-        <v>11677</v>
+        <v>12016</v>
       </c>
       <c r="G26" s="83">
         <v>990</v>
@@ -37229,54 +37237,58 @@
         <v>2592</v>
       </c>
       <c r="O26" s="61"/>
-      <c r="P26" s="81"/>
-      <c r="Q26" s="63"/>
+      <c r="P26" s="78"/>
+      <c r="Q26" s="78"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="67">
+      <c r="A27" s="68">
+        <v>3</v>
+      </c>
+      <c r="B27" s="77" t="s">
+        <v>2580</v>
+      </c>
+      <c r="C27" s="78">
+        <v>5</v>
+      </c>
+      <c r="D27" s="79" t="s">
+        <v>2571</v>
+      </c>
+      <c r="E27" s="83">
+        <v>3774</v>
+      </c>
+      <c r="F27" s="83">
+        <v>11677</v>
+      </c>
+      <c r="G27" s="83">
+        <v>990</v>
+      </c>
+      <c r="H27" s="80">
         <v>0</v>
       </c>
-      <c r="B27" s="65" t="s">
-        <v>524</v>
-      </c>
-      <c r="C27" s="62">
-        <v>4</v>
-      </c>
-      <c r="D27" s="64" t="s">
-        <v>2606</v>
-      </c>
-      <c r="E27" s="82">
-        <v>4683</v>
-      </c>
-      <c r="F27" s="82"/>
-      <c r="G27" s="82"/>
-      <c r="H27" s="87" t="s">
-        <v>2609</v>
-      </c>
-      <c r="I27" s="87"/>
-      <c r="J27" s="63"/>
-      <c r="K27" s="63"/>
-      <c r="L27" s="61" t="s">
-        <v>2575</v>
-      </c>
-      <c r="M27" s="75"/>
-      <c r="N27" s="61" t="s">
-        <v>2574</v>
+      <c r="I27" s="79" t="s">
+        <v>2590</v>
+      </c>
+      <c r="J27" s="81"/>
+      <c r="K27" s="81"/>
+      <c r="L27" s="77" t="s">
+        <v>2577</v>
+      </c>
+      <c r="M27" s="74" t="s">
+        <v>2567</v>
+      </c>
+      <c r="N27" s="77" t="s">
+        <v>2592</v>
       </c>
       <c r="O27" s="61"/>
-      <c r="P27" s="62">
-        <v>2</v>
-      </c>
-      <c r="Q27" s="62">
-        <v>7</v>
-      </c>
+      <c r="P27" s="81"/>
+      <c r="Q27" s="63"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="70">
-        <v>4</v>
+      <c r="A28" s="67">
+        <v>0</v>
       </c>
       <c r="B28" s="65" t="s">
-        <v>19</v>
+        <v>524</v>
       </c>
       <c r="C28" s="62">
         <v>4</v>
@@ -37285,37 +37297,37 @@
         <v>2606</v>
       </c>
       <c r="E28" s="82">
-        <v>4372</v>
+        <v>4683</v>
       </c>
       <c r="F28" s="82"/>
       <c r="G28" s="82"/>
-      <c r="H28" s="76">
-        <v>33</v>
-      </c>
-      <c r="I28" s="64"/>
+      <c r="H28" s="87" t="s">
+        <v>2609</v>
+      </c>
+      <c r="I28" s="87"/>
       <c r="J28" s="63"/>
       <c r="K28" s="63"/>
       <c r="L28" s="61" t="s">
         <v>2575</v>
       </c>
-      <c r="M28" s="63"/>
+      <c r="M28" s="75"/>
       <c r="N28" s="61" t="s">
-        <v>2595</v>
-      </c>
-      <c r="O28" s="74"/>
-      <c r="P28" s="63">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="63">
-        <v>4</v>
+        <v>2574</v>
+      </c>
+      <c r="O28" s="61"/>
+      <c r="P28" s="62">
+        <v>2</v>
+      </c>
+      <c r="Q28" s="62">
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="66">
-        <v>1</v>
+      <c r="A29" s="70">
+        <v>4</v>
       </c>
       <c r="B29" s="65" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="C29" s="62">
         <v>4</v>
@@ -37324,76 +37336,76 @@
         <v>2606</v>
       </c>
       <c r="E29" s="82">
-        <v>3962</v>
-      </c>
-      <c r="F29" s="85"/>
-      <c r="G29" s="85"/>
-      <c r="H29" s="87" t="s">
-        <v>2603</v>
-      </c>
-      <c r="I29" s="87" t="s">
-        <v>2590</v>
-      </c>
+        <v>4372</v>
+      </c>
+      <c r="F29" s="82"/>
+      <c r="G29" s="82"/>
+      <c r="H29" s="76">
+        <v>33</v>
+      </c>
+      <c r="I29" s="64"/>
       <c r="J29" s="63"/>
       <c r="K29" s="63"/>
       <c r="L29" s="61" t="s">
         <v>2575</v>
       </c>
-      <c r="M29" s="75"/>
+      <c r="M29" s="63"/>
       <c r="N29" s="61" t="s">
-        <v>2576</v>
-      </c>
-      <c r="O29" s="61"/>
-      <c r="P29" s="62">
+        <v>2595</v>
+      </c>
+      <c r="O29" s="74"/>
+      <c r="P29" s="63">
         <v>1</v>
       </c>
-      <c r="Q29" s="62"/>
+      <c r="Q29" s="63">
+        <v>4</v>
+      </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="70">
-        <v>4</v>
+      <c r="A30" s="66">
+        <v>1</v>
       </c>
       <c r="B30" s="65" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="C30" s="62">
         <v>4</v>
       </c>
       <c r="D30" s="64" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="E30" s="82">
-        <v>3663</v>
-      </c>
-      <c r="F30" s="82"/>
-      <c r="G30" s="82"/>
-      <c r="H30" s="76" t="s">
-        <v>2610</v>
-      </c>
-      <c r="I30" s="64"/>
+        <v>3962</v>
+      </c>
+      <c r="F30" s="85"/>
+      <c r="G30" s="85"/>
+      <c r="H30" s="87" t="s">
+        <v>2603</v>
+      </c>
+      <c r="I30" s="87" t="s">
+        <v>2590</v>
+      </c>
       <c r="J30" s="63"/>
       <c r="K30" s="63"/>
       <c r="L30" s="61" t="s">
-        <v>2574</v>
-      </c>
-      <c r="M30" s="63"/>
+        <v>2575</v>
+      </c>
+      <c r="M30" s="75"/>
       <c r="N30" s="61" t="s">
-        <v>2595</v>
-      </c>
-      <c r="O30" s="74" t="s">
-        <v>2567</v>
-      </c>
-      <c r="P30" s="63"/>
-      <c r="Q30" s="63">
-        <v>5</v>
-      </c>
+        <v>2576</v>
+      </c>
+      <c r="O30" s="61"/>
+      <c r="P30" s="62">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="62"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="69">
-        <v>5</v>
+      <c r="A31" s="70">
+        <v>4</v>
       </c>
       <c r="B31" s="65" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C31" s="62">
         <v>4</v>
@@ -37402,68 +37414,72 @@
         <v>2607</v>
       </c>
       <c r="E31" s="82">
-        <v>3560</v>
+        <v>3663</v>
       </c>
       <c r="F31" s="82"/>
       <c r="G31" s="82"/>
-      <c r="H31" s="76">
-        <v>40</v>
+      <c r="H31" s="76" t="s">
+        <v>2610</v>
       </c>
       <c r="I31" s="64"/>
       <c r="J31" s="63"/>
       <c r="K31" s="63"/>
       <c r="L31" s="61" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="M31" s="63"/>
-      <c r="N31" s="61"/>
-      <c r="O31" s="74"/>
-      <c r="P31" s="63">
-        <v>3</v>
-      </c>
-      <c r="Q31" s="63"/>
+      <c r="N31" s="61" t="s">
+        <v>2595</v>
+      </c>
+      <c r="O31" s="74" t="s">
+        <v>2567</v>
+      </c>
+      <c r="P31" s="63"/>
+      <c r="Q31" s="63">
+        <v>5</v>
+      </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="67">
-        <v>0</v>
-      </c>
-      <c r="B32" s="77" t="s">
-        <v>389</v>
-      </c>
-      <c r="C32" s="78">
+      <c r="A32" s="69">
         <v>5</v>
       </c>
-      <c r="D32" s="79" t="s">
-        <v>2608</v>
-      </c>
-      <c r="E32" s="83"/>
-      <c r="F32" s="83"/>
-      <c r="G32" s="83"/>
-      <c r="H32" s="80" t="s">
-        <v>2603</v>
-      </c>
-      <c r="I32" s="79"/>
-      <c r="J32" s="81"/>
-      <c r="K32" s="81"/>
-      <c r="L32" s="77" t="s">
-        <v>2574</v>
-      </c>
-      <c r="M32" s="81"/>
-      <c r="N32" s="77" t="s">
-        <v>2574</v>
-      </c>
-      <c r="O32" s="61"/>
-      <c r="P32" s="78"/>
-      <c r="Q32" s="78">
-        <v>9</v>
-      </c>
+      <c r="B32" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="62">
+        <v>4</v>
+      </c>
+      <c r="D32" s="64" t="s">
+        <v>2607</v>
+      </c>
+      <c r="E32" s="82">
+        <v>3560</v>
+      </c>
+      <c r="F32" s="82"/>
+      <c r="G32" s="82"/>
+      <c r="H32" s="76">
+        <v>40</v>
+      </c>
+      <c r="I32" s="64"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="63"/>
+      <c r="L32" s="61" t="s">
+        <v>2575</v>
+      </c>
+      <c r="M32" s="63"/>
+      <c r="N32" s="61"/>
+      <c r="O32" s="74"/>
+      <c r="P32" s="63">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="63"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="67">
         <v>0</v>
       </c>
       <c r="B33" s="77" t="s">
-        <v>2039</v>
+        <v>389</v>
       </c>
       <c r="C33" s="78">
         <v>5</v>
@@ -37481,22 +37497,24 @@
       <c r="J33" s="81"/>
       <c r="K33" s="81"/>
       <c r="L33" s="77" t="s">
-        <v>2577</v>
+        <v>2574</v>
       </c>
       <c r="M33" s="81"/>
       <c r="N33" s="77" t="s">
-        <v>2592</v>
+        <v>2574</v>
       </c>
       <c r="O33" s="61"/>
       <c r="P33" s="78"/>
-      <c r="Q33" s="78"/>
+      <c r="Q33" s="78">
+        <v>9</v>
+      </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="70">
-        <v>4</v>
+      <c r="A34" s="67">
+        <v>0</v>
       </c>
       <c r="B34" s="77" t="s">
-        <v>13</v>
+        <v>2039</v>
       </c>
       <c r="C34" s="78">
         <v>5</v>
@@ -37514,22 +37532,22 @@
       <c r="J34" s="81"/>
       <c r="K34" s="81"/>
       <c r="L34" s="77" t="s">
-        <v>2593</v>
+        <v>2577</v>
       </c>
       <c r="M34" s="81"/>
       <c r="N34" s="77" t="s">
-        <v>2574</v>
+        <v>2592</v>
       </c>
       <c r="O34" s="61"/>
       <c r="P34" s="78"/>
       <c r="Q34" s="78"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="67">
-        <v>0</v>
+      <c r="A35" s="70">
+        <v>4</v>
       </c>
       <c r="B35" s="77" t="s">
-        <v>1086</v>
+        <v>13</v>
       </c>
       <c r="C35" s="78">
         <v>5</v>
@@ -37551,18 +37569,18 @@
       </c>
       <c r="M35" s="81"/>
       <c r="N35" s="77" t="s">
-        <v>2576</v>
+        <v>2574</v>
       </c>
       <c r="O35" s="61"/>
       <c r="P35" s="78"/>
       <c r="Q35" s="78"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="66">
-        <v>1</v>
+      <c r="A36" s="67">
+        <v>0</v>
       </c>
       <c r="B36" s="77" t="s">
-        <v>54</v>
+        <v>1086</v>
       </c>
       <c r="C36" s="78">
         <v>5</v>
@@ -37573,7 +37591,9 @@
       <c r="E36" s="83"/>
       <c r="F36" s="83"/>
       <c r="G36" s="83"/>
-      <c r="H36" s="80"/>
+      <c r="H36" s="80" t="s">
+        <v>2603</v>
+      </c>
       <c r="I36" s="79"/>
       <c r="J36" s="81"/>
       <c r="K36" s="81"/>
@@ -37589,7 +37609,37 @@
       <c r="Q36" s="78"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="O37" s="74"/>
+      <c r="A37" s="66">
+        <v>1</v>
+      </c>
+      <c r="B37" s="77" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="78">
+        <v>5</v>
+      </c>
+      <c r="D37" s="79" t="s">
+        <v>2608</v>
+      </c>
+      <c r="E37" s="83"/>
+      <c r="F37" s="83"/>
+      <c r="G37" s="83"/>
+      <c r="H37" s="80">
+        <v>0</v>
+      </c>
+      <c r="I37" s="79"/>
+      <c r="J37" s="81"/>
+      <c r="K37" s="81"/>
+      <c r="L37" s="77" t="s">
+        <v>2593</v>
+      </c>
+      <c r="M37" s="81"/>
+      <c r="N37" s="77" t="s">
+        <v>2576</v>
+      </c>
+      <c r="O37" s="61"/>
+      <c r="P37" s="78"/>
+      <c r="Q37" s="78"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -37611,13 +37661,13 @@
           <x14:formula1>
             <xm:f>Config!$A$2:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>L3:L36</xm:sqref>
+          <xm:sqref>L3:L37</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{730E1450-3BFA-4B45-B65F-811EF192FACA}">
           <x14:formula1>
             <xm:f>Config!$C$2:$C$7</xm:f>
           </x14:formula1>
-          <xm:sqref>N3:N36</xm:sqref>
+          <xm:sqref>N3:N37</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -37630,7 +37680,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37716,6 +37766,11 @@
       <c r="B12" s="154"/>
       <c r="C12" s="154"/>
     </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="84" t="s">
+        <v>2620</v>
+      </c>
+    </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="84" t="s">
         <v>2605</v>
@@ -37735,11 +37790,12 @@
   <hyperlinks>
     <hyperlink ref="A17" r:id="rId1" xr:uid="{907E4A9C-E2A5-4205-9980-BE9865A3B6E6}"/>
     <hyperlink ref="A19" r:id="rId2" xr:uid="{D7B6E36B-690C-4F4E-9394-AE851FDFB93B}"/>
+    <hyperlink ref="A15" r:id="rId3" xr:uid="{FC1BE9FD-AB6F-4FF7-9760-AE05995E4A50}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <tableParts count="2">
-    <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Resource/Mcoc.xlsx
+++ b/Resource/Mcoc.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Cloud\Projs\GitHub\_myASP.Net\WebApiAspNetCore\Resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612F82B8-5B58-4E69-A790-1E031C549E1E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{452B4102-EE1B-47AC-B9A8-03B42121CD9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{7AD03304-C680-49F6-964C-561BDBB7D657}"/>
   </bookViews>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6532" uniqueCount="2622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6533" uniqueCount="2617">
   <si>
     <t>Abomination</t>
   </si>
@@ -7980,9 +7980,6 @@
     <t>Gwen-Aranha</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>def.</t>
   </si>
   <si>
@@ -7998,12 +7995,6 @@
     <t>1/25</t>
   </si>
   <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
     <t>https://www.mcoc-guide.com/alliance-war-defender-suggestion-defensive-tier-list/</t>
   </si>
   <si>
@@ -8025,16 +8016,10 @@
     <t>S A</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
     <t>https://www.mcoc-guide.com/champions-tier-list-for-offense-god-tier-demi-god-meh-etc/</t>
   </si>
   <si>
-    <t>98</t>
+    <t>99</t>
   </si>
 </sst>
 </file>
@@ -8534,7 +8519,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
@@ -8753,17 +8738,11 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -8787,6 +8766,12 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
@@ -8986,9 +8971,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -9141,7 +9123,7 @@
     <dxf>
       <font>
         <b/>
-        <i/>
+        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
@@ -9155,7 +9137,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -9334,10 +9316,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DC9F4605-1C00-4742-93D7-8D98A80A1410}" name="Tabela4" displayName="Tabela4" ref="A2:Q37" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="A2:Q37" xr:uid="{AE73083C-743F-430D-8D83-35B94A58BF67}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:Q37">
-    <sortCondition descending="1" ref="G2:G37"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DC9F4605-1C00-4742-93D7-8D98A80A1410}" name="Tabela4" displayName="Tabela4" ref="A2:Q38" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A2:Q38" xr:uid="{AE73083C-743F-430D-8D83-35B94A58BF67}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:Q38">
+    <sortCondition descending="1" ref="E2:E38"/>
   </sortState>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{3FD809B2-36BB-490F-B6AB-C3C0CB4BBF3D}" name="class" dataDxfId="17"/>
@@ -36094,13 +36076,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B414A73-F4A7-4442-8822-44D8077F8FDE}">
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomRight" activeCell="H6" sqref="H6:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36122,11 +36104,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="P1" s="86" t="s">
-        <v>2612</v>
-      </c>
-      <c r="Q1" s="86" t="s">
-        <v>2612</v>
+      <c r="P1" s="84" t="s">
+        <v>2609</v>
+      </c>
+      <c r="Q1" s="84" t="s">
+        <v>2609</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -36140,10 +36122,10 @@
         <v>2565</v>
       </c>
       <c r="D2" s="73" t="s">
-        <v>2615</v>
+        <v>2612</v>
       </c>
       <c r="E2" s="73" t="s">
-        <v>2616</v>
+        <v>2613</v>
       </c>
       <c r="F2" s="73" t="s">
         <v>2600</v>
@@ -36152,7 +36134,7 @@
         <v>2601</v>
       </c>
       <c r="H2" s="73" t="s">
-        <v>2617</v>
+        <v>2614</v>
       </c>
       <c r="I2" s="73" t="s">
         <v>2589</v>
@@ -36173,465 +36155,461 @@
         <v>2594</v>
       </c>
       <c r="O2" s="61" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="P2" s="62" t="s">
-        <v>2614</v>
+        <v>2611</v>
       </c>
       <c r="Q2" s="62" t="s">
-        <v>2613</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="67">
         <v>0</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="76" t="s">
         <v>689</v>
       </c>
-      <c r="C3" s="78">
+      <c r="C3" s="77">
         <v>5</v>
       </c>
-      <c r="D3" s="79" t="s">
+      <c r="D3" s="78" t="s">
         <v>2569</v>
       </c>
-      <c r="E3" s="83">
-        <v>7941</v>
-      </c>
-      <c r="F3" s="83">
+      <c r="E3" s="81">
+        <v>8241</v>
+      </c>
+      <c r="F3" s="81">
         <v>20910</v>
       </c>
-      <c r="G3" s="83">
+      <c r="G3" s="81">
         <v>1932</v>
       </c>
-      <c r="H3" s="80">
-        <v>0</v>
-      </c>
-      <c r="I3" s="79" t="s">
-        <v>2590</v>
-      </c>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81" t="s">
+      <c r="H3" s="88">
+        <v>1</v>
+      </c>
+      <c r="I3" s="78"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79" t="s">
         <v>2588</v>
       </c>
-      <c r="L3" s="77" t="s">
+      <c r="L3" s="76" t="s">
         <v>2573</v>
       </c>
-      <c r="M3" s="81"/>
-      <c r="N3" s="77" t="s">
+      <c r="M3" s="79"/>
+      <c r="N3" s="76" t="s">
         <v>2574</v>
       </c>
       <c r="O3" s="61"/>
-      <c r="P3" s="78"/>
-      <c r="Q3" s="78"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="69">
         <v>5</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="78">
+      <c r="C4" s="77">
         <v>5</v>
       </c>
-      <c r="D4" s="79" t="s">
+      <c r="D4" s="78" t="s">
         <v>2569</v>
       </c>
-      <c r="E4" s="83">
-        <v>7923</v>
-      </c>
-      <c r="F4" s="83">
+      <c r="E4" s="81">
+        <v>7951</v>
+      </c>
+      <c r="F4" s="81">
         <v>20378</v>
       </c>
-      <c r="G4" s="83">
+      <c r="G4" s="81">
         <v>1861</v>
       </c>
-      <c r="H4" s="80">
+      <c r="H4" s="88">
         <v>0</v>
       </c>
-      <c r="I4" s="79" t="s">
+      <c r="I4" s="78" t="s">
         <v>2590</v>
       </c>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81" t="s">
+      <c r="J4" s="79"/>
+      <c r="K4" s="79" t="s">
         <v>2588</v>
       </c>
-      <c r="L4" s="77" t="s">
+      <c r="L4" s="76" t="s">
         <v>2575</v>
       </c>
       <c r="M4" s="74" t="s">
         <v>2567</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="76" t="s">
         <v>2592</v>
       </c>
       <c r="O4" s="61"/>
-      <c r="P4" s="78">
+      <c r="P4" s="77">
         <v>1</v>
       </c>
-      <c r="Q4" s="78"/>
+      <c r="Q4" s="77"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="70">
         <v>4</v>
       </c>
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="78">
+      <c r="C5" s="77">
         <v>5</v>
       </c>
-      <c r="D5" s="79" t="s">
+      <c r="D5" s="78" t="s">
         <v>2569</v>
       </c>
-      <c r="E5" s="83">
-        <v>7867</v>
-      </c>
-      <c r="F5" s="83">
+      <c r="E5" s="81">
+        <v>7896</v>
+      </c>
+      <c r="F5" s="81">
         <v>21976</v>
       </c>
-      <c r="G5" s="83">
+      <c r="G5" s="81">
         <v>1861</v>
       </c>
-      <c r="H5" s="80">
+      <c r="H5" s="88">
         <v>76</v>
       </c>
-      <c r="I5" s="79"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81" t="s">
+      <c r="I5" s="78"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79" t="s">
         <v>2588</v>
       </c>
-      <c r="L5" s="77" t="s">
+      <c r="L5" s="76" t="s">
         <v>2576</v>
       </c>
-      <c r="M5" s="81"/>
-      <c r="N5" s="77" t="s">
+      <c r="M5" s="79"/>
+      <c r="N5" s="76" t="s">
         <v>2592</v>
       </c>
       <c r="O5" s="61"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="78"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="77"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="70">
-        <v>4</v>
-      </c>
-      <c r="B6" s="77" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="78">
+      <c r="A6" s="71">
+        <v>2</v>
+      </c>
+      <c r="B6" s="65" t="s">
+        <v>192</v>
+      </c>
+      <c r="C6" s="62">
         <v>5</v>
       </c>
-      <c r="D6" s="79" t="s">
-        <v>2564</v>
-      </c>
-      <c r="E6" s="83">
-        <v>5993</v>
-      </c>
-      <c r="F6" s="83">
-        <v>15208</v>
-      </c>
-      <c r="G6" s="83">
-        <v>1571</v>
-      </c>
-      <c r="H6" s="80">
+      <c r="D6" s="64" t="s">
+        <v>2569</v>
+      </c>
+      <c r="E6" s="81">
+        <v>7830</v>
+      </c>
+      <c r="F6" s="81">
+        <v>25387</v>
+      </c>
+      <c r="G6" s="81">
+        <v>2005</v>
+      </c>
+      <c r="H6" s="88">
         <v>0</v>
       </c>
-      <c r="I6" s="79" t="s">
+      <c r="I6" s="87" t="s">
         <v>2590</v>
       </c>
-      <c r="J6" s="81"/>
-      <c r="K6" s="81"/>
-      <c r="L6" s="77" t="s">
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="61" t="s">
         <v>2573</v>
       </c>
-      <c r="M6" s="81"/>
-      <c r="N6" s="77" t="s">
-        <v>2574</v>
-      </c>
-      <c r="O6" s="61"/>
-      <c r="P6" s="78">
-        <v>3</v>
-      </c>
-      <c r="Q6" s="78"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="61" t="s">
+        <v>2595</v>
+      </c>
+      <c r="O6" s="63"/>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="62">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="71">
-        <v>2</v>
-      </c>
-      <c r="B7" s="65" t="s">
-        <v>192</v>
-      </c>
-      <c r="C7" s="62">
+      <c r="A7" s="66">
+        <v>1</v>
+      </c>
+      <c r="B7" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="77">
         <v>5</v>
       </c>
-      <c r="D7" s="64" t="s">
+      <c r="D7" s="78" t="s">
         <v>2564</v>
       </c>
-      <c r="E7" s="83">
-        <v>5806</v>
-      </c>
-      <c r="F7" s="83">
-        <v>18845</v>
-      </c>
-      <c r="G7" s="83">
-        <v>1490</v>
-      </c>
-      <c r="H7" s="155" t="s">
-        <v>2603</v>
-      </c>
-      <c r="I7" s="155" t="s">
-        <v>2590</v>
-      </c>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
-      <c r="L7" s="61" t="s">
-        <v>2573</v>
-      </c>
-      <c r="M7" s="75"/>
-      <c r="N7" s="61" t="s">
-        <v>2595</v>
-      </c>
-      <c r="O7" s="63"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="62">
-        <v>1</v>
+      <c r="E7" s="81">
+        <v>6451</v>
+      </c>
+      <c r="F7" s="81">
+        <v>16631</v>
+      </c>
+      <c r="G7" s="81">
+        <v>1422</v>
+      </c>
+      <c r="H7" s="88">
+        <v>24</v>
+      </c>
+      <c r="I7" s="78"/>
+      <c r="J7" s="79" t="s">
+        <v>2562</v>
+      </c>
+      <c r="K7" s="79" t="s">
+        <v>2587</v>
+      </c>
+      <c r="L7" s="76" t="s">
+        <v>2576</v>
+      </c>
+      <c r="M7" s="79"/>
+      <c r="N7" s="76" t="s">
+        <v>2596</v>
+      </c>
+      <c r="O7" s="61"/>
+      <c r="P7" s="77"/>
+      <c r="Q7" s="77">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="70">
+      <c r="A8" s="69">
+        <v>5</v>
+      </c>
+      <c r="B8" s="65" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="62">
         <v>4</v>
       </c>
-      <c r="B8" s="77" t="s">
-        <v>2602</v>
-      </c>
-      <c r="C8" s="78">
-        <v>5</v>
-      </c>
-      <c r="D8" s="79" t="s">
-        <v>2564</v>
-      </c>
-      <c r="E8" s="83">
-        <v>5573</v>
-      </c>
-      <c r="F8" s="83">
-        <v>15524</v>
-      </c>
-      <c r="G8" s="83">
-        <v>1463</v>
-      </c>
-      <c r="H8" s="80" t="s">
-        <v>2603</v>
-      </c>
-      <c r="I8" s="79" t="s">
-        <v>2590</v>
-      </c>
-      <c r="J8" s="81"/>
-      <c r="K8" s="81" t="s">
+      <c r="D8" s="64" t="s">
+        <v>2572</v>
+      </c>
+      <c r="E8" s="80">
+        <v>6261</v>
+      </c>
+      <c r="F8" s="80">
+        <v>14663</v>
+      </c>
+      <c r="G8" s="80">
+        <v>1255</v>
+      </c>
+      <c r="H8" s="88">
+        <v>63</v>
+      </c>
+      <c r="I8" s="64"/>
+      <c r="J8" s="63" t="s">
+        <v>2562</v>
+      </c>
+      <c r="K8" s="63" t="s">
         <v>2587</v>
       </c>
-      <c r="L8" s="77" t="s">
-        <v>2573</v>
-      </c>
-      <c r="M8" s="81"/>
-      <c r="N8" s="77" t="s">
-        <v>2595</v>
-      </c>
-      <c r="O8" s="61"/>
-      <c r="P8" s="78">
-        <v>6</v>
-      </c>
-      <c r="Q8" s="78">
-        <v>7</v>
+      <c r="L8" s="61" t="s">
+        <v>2574</v>
+      </c>
+      <c r="M8" s="74" t="s">
+        <v>2567</v>
+      </c>
+      <c r="N8" s="61" t="s">
+        <v>2596</v>
+      </c>
+      <c r="O8" s="74" t="s">
+        <v>2567</v>
+      </c>
+      <c r="P8" s="63"/>
+      <c r="Q8" s="63">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="67">
         <v>0</v>
       </c>
-      <c r="B9" s="65" t="s">
-        <v>2581</v>
-      </c>
-      <c r="C9" s="62">
-        <v>4</v>
-      </c>
-      <c r="D9" s="64" t="s">
-        <v>2572</v>
-      </c>
-      <c r="E9" s="82">
-        <v>5374</v>
-      </c>
-      <c r="F9" s="82">
-        <v>12079</v>
-      </c>
-      <c r="G9" s="82">
-        <v>1438</v>
-      </c>
-      <c r="H9" s="87">
-        <v>43</v>
-      </c>
-      <c r="I9" s="87"/>
-      <c r="J9" s="63" t="s">
-        <v>2562</v>
-      </c>
-      <c r="K9" s="63"/>
-      <c r="L9" s="61" t="s">
+      <c r="B9" s="76" t="s">
+        <v>960</v>
+      </c>
+      <c r="C9" s="77">
+        <v>5</v>
+      </c>
+      <c r="D9" s="78" t="s">
+        <v>2564</v>
+      </c>
+      <c r="E9" s="81">
+        <v>6221</v>
+      </c>
+      <c r="F9" s="81">
+        <v>14417</v>
+      </c>
+      <c r="G9" s="81">
+        <v>1436</v>
+      </c>
+      <c r="H9" s="88">
+        <v>22</v>
+      </c>
+      <c r="I9" s="78"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="79"/>
+      <c r="L9" s="76" t="s">
         <v>2574</v>
       </c>
-      <c r="M9" s="88" t="s">
-        <v>2598</v>
-      </c>
-      <c r="N9" s="61" t="s">
-        <v>2574</v>
+      <c r="M9" s="79"/>
+      <c r="N9" s="76" t="s">
+        <v>2592</v>
       </c>
       <c r="O9" s="61"/>
-      <c r="P9" s="62"/>
-      <c r="Q9" s="62">
-        <v>6</v>
-      </c>
+      <c r="P9" s="77">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="77"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="67">
-        <v>0</v>
-      </c>
-      <c r="B10" s="77" t="s">
-        <v>960</v>
-      </c>
-      <c r="C10" s="78">
+      <c r="A10" s="71">
+        <v>2</v>
+      </c>
+      <c r="B10" s="65" t="s">
+        <v>562</v>
+      </c>
+      <c r="C10" s="62">
+        <v>4</v>
+      </c>
+      <c r="D10" s="64" t="s">
+        <v>2572</v>
+      </c>
+      <c r="E10" s="80">
+        <v>6219</v>
+      </c>
+      <c r="F10" s="80">
+        <v>15667</v>
+      </c>
+      <c r="G10" s="80">
+        <v>1145</v>
+      </c>
+      <c r="H10" s="88">
+        <v>32</v>
+      </c>
+      <c r="I10" s="64"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="61" t="s">
+        <v>2573</v>
+      </c>
+      <c r="M10" s="63"/>
+      <c r="N10" s="61" t="s">
+        <v>2574</v>
+      </c>
+      <c r="O10" s="74" t="s">
+        <v>2567</v>
+      </c>
+      <c r="P10" s="62">
+        <v>8</v>
+      </c>
+      <c r="Q10" s="62">
         <v>5</v>
       </c>
-      <c r="D10" s="79" t="s">
-        <v>2564</v>
-      </c>
-      <c r="E10" s="83">
-        <v>6203</v>
-      </c>
-      <c r="F10" s="83">
-        <v>14417</v>
-      </c>
-      <c r="G10" s="83">
-        <v>1436</v>
-      </c>
-      <c r="H10" s="80">
-        <v>22</v>
-      </c>
-      <c r="I10" s="79"/>
-      <c r="J10" s="81"/>
-      <c r="K10" s="81"/>
-      <c r="L10" s="77" t="s">
-        <v>2574</v>
-      </c>
-      <c r="M10" s="81"/>
-      <c r="N10" s="77" t="s">
-        <v>2592</v>
-      </c>
-      <c r="O10" s="61"/>
-      <c r="P10" s="78">
-        <v>10</v>
-      </c>
-      <c r="Q10" s="78"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="66">
-        <v>1</v>
-      </c>
-      <c r="B11" s="77" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="78">
-        <v>5</v>
-      </c>
-      <c r="D11" s="79" t="s">
-        <v>2564</v>
-      </c>
-      <c r="E11" s="83">
-        <v>5978</v>
-      </c>
-      <c r="F11" s="83">
-        <v>16631</v>
-      </c>
-      <c r="G11" s="83">
-        <v>1422</v>
-      </c>
-      <c r="H11" s="80">
-        <v>0</v>
-      </c>
-      <c r="I11" s="79" t="s">
-        <v>2590</v>
-      </c>
-      <c r="J11" s="81" t="s">
-        <v>2562</v>
-      </c>
-      <c r="K11" s="81" t="s">
-        <v>2587</v>
-      </c>
-      <c r="L11" s="77" t="s">
-        <v>2576</v>
-      </c>
-      <c r="M11" s="81"/>
-      <c r="N11" s="77" t="s">
+      <c r="A11" s="68">
+        <v>3</v>
+      </c>
+      <c r="B11" s="65" t="s">
+        <v>2563</v>
+      </c>
+      <c r="C11" s="62">
+        <v>4</v>
+      </c>
+      <c r="D11" s="64" t="s">
+        <v>2572</v>
+      </c>
+      <c r="E11" s="80">
+        <v>6043</v>
+      </c>
+      <c r="F11" s="80">
+        <v>16241</v>
+      </c>
+      <c r="G11" s="80">
+        <v>1255</v>
+      </c>
+      <c r="H11" s="88">
+        <v>54</v>
+      </c>
+      <c r="I11" s="64"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="61" t="s">
+        <v>2573</v>
+      </c>
+      <c r="M11" s="63"/>
+      <c r="N11" s="61" t="s">
         <v>2596</v>
       </c>
-      <c r="O11" s="61"/>
-      <c r="P11" s="78"/>
-      <c r="Q11" s="78">
-        <v>3</v>
+      <c r="O11" s="74" t="s">
+        <v>2567</v>
+      </c>
+      <c r="P11" s="63">
+        <v>8</v>
+      </c>
+      <c r="Q11" s="63">
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="70">
         <v>4</v>
       </c>
-      <c r="B12" s="77" t="s">
-        <v>2570</v>
-      </c>
-      <c r="C12" s="78">
+      <c r="B12" s="76" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="77">
         <v>5</v>
       </c>
-      <c r="D12" s="79" t="s">
+      <c r="D12" s="78" t="s">
         <v>2564</v>
       </c>
-      <c r="E12" s="83">
-        <v>5943</v>
-      </c>
-      <c r="F12" s="83">
-        <v>19399</v>
-      </c>
-      <c r="G12" s="83">
-        <v>1409</v>
-      </c>
-      <c r="H12" s="80">
+      <c r="E12" s="81">
+        <v>6010</v>
+      </c>
+      <c r="F12" s="81">
+        <v>15208</v>
+      </c>
+      <c r="G12" s="81">
+        <v>1571</v>
+      </c>
+      <c r="H12" s="88">
         <v>0</v>
       </c>
-      <c r="I12" s="79" t="s">
+      <c r="I12" s="78" t="s">
         <v>2590</v>
       </c>
-      <c r="J12" s="81" t="s">
-        <v>2562</v>
-      </c>
-      <c r="K12" s="81" t="s">
-        <v>2587</v>
-      </c>
-      <c r="L12" s="77" t="s">
+      <c r="J12" s="79"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="76" t="s">
+        <v>2573</v>
+      </c>
+      <c r="M12" s="79"/>
+      <c r="N12" s="76" t="s">
         <v>2574</v>
       </c>
-      <c r="M12" s="81"/>
-      <c r="N12" s="77" t="s">
-        <v>2595</v>
-      </c>
       <c r="O12" s="61"/>
-      <c r="P12" s="78"/>
-      <c r="Q12" s="78">
-        <v>1</v>
-      </c>
+      <c r="P12" s="77">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="77"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="71">
-        <v>2</v>
+      <c r="A13" s="67">
+        <v>0</v>
       </c>
       <c r="B13" s="65" t="s">
-        <v>470</v>
+        <v>1116</v>
       </c>
       <c r="C13" s="62">
         <v>4</v>
@@ -36639,132 +36617,140 @@
       <c r="D13" s="64" t="s">
         <v>2572</v>
       </c>
-      <c r="E13" s="82">
-        <v>5824</v>
-      </c>
-      <c r="F13" s="82">
-        <v>14577</v>
-      </c>
-      <c r="G13" s="82">
-        <v>1371</v>
-      </c>
-      <c r="H13" s="87" t="s">
-        <v>2618</v>
-      </c>
-      <c r="I13" s="87"/>
+      <c r="E13" s="80">
+        <v>5984</v>
+      </c>
+      <c r="F13" s="80">
+        <v>15847</v>
+      </c>
+      <c r="G13" s="80">
+        <v>1206</v>
+      </c>
+      <c r="H13" s="88" t="s">
+        <v>2616</v>
+      </c>
+      <c r="I13" s="85"/>
       <c r="J13" s="63"/>
       <c r="K13" s="63"/>
       <c r="L13" s="61" t="s">
         <v>2575</v>
       </c>
-      <c r="M13" s="75"/>
+      <c r="M13" s="74" t="s">
+        <v>2567</v>
+      </c>
       <c r="N13" s="61" t="s">
-        <v>2595</v>
-      </c>
-      <c r="O13" s="61"/>
+        <v>2596</v>
+      </c>
+      <c r="O13" s="74" t="s">
+        <v>2567</v>
+      </c>
       <c r="P13" s="62">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q13" s="62">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="69">
+      <c r="A14" s="70">
+        <v>4</v>
+      </c>
+      <c r="B14" s="76" t="s">
+        <v>2570</v>
+      </c>
+      <c r="C14" s="77">
         <v>5</v>
       </c>
-      <c r="B14" s="77" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="78">
-        <v>5</v>
-      </c>
-      <c r="D14" s="79" t="s">
+      <c r="D14" s="78" t="s">
         <v>2564</v>
       </c>
-      <c r="E14" s="83">
-        <v>5835</v>
-      </c>
-      <c r="F14" s="83">
-        <v>17739</v>
-      </c>
-      <c r="G14" s="83">
-        <v>1342</v>
-      </c>
-      <c r="H14" s="80">
-        <v>28</v>
-      </c>
-      <c r="I14" s="79"/>
-      <c r="J14" s="81"/>
-      <c r="K14" s="81" t="s">
+      <c r="E14" s="81">
+        <v>5968</v>
+      </c>
+      <c r="F14" s="81">
+        <v>19399</v>
+      </c>
+      <c r="G14" s="81">
+        <v>1409</v>
+      </c>
+      <c r="H14" s="88">
+        <v>0</v>
+      </c>
+      <c r="I14" s="78" t="s">
+        <v>2590</v>
+      </c>
+      <c r="J14" s="79" t="s">
+        <v>2562</v>
+      </c>
+      <c r="K14" s="79" t="s">
         <v>2587</v>
       </c>
-      <c r="L14" s="77" t="s">
+      <c r="L14" s="76" t="s">
         <v>2574</v>
       </c>
-      <c r="M14" s="74"/>
-      <c r="N14" s="77" t="s">
+      <c r="M14" s="79"/>
+      <c r="N14" s="76" t="s">
         <v>2595</v>
       </c>
-      <c r="O14" s="74" t="s">
-        <v>2599</v>
-      </c>
-      <c r="P14" s="78">
-        <v>8</v>
-      </c>
-      <c r="Q14" s="78">
-        <v>2</v>
+      <c r="O14" s="61"/>
+      <c r="P14" s="77"/>
+      <c r="Q14" s="77">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="68">
-        <v>3</v>
+      <c r="A15" s="69">
+        <v>5</v>
       </c>
       <c r="B15" s="65" t="s">
-        <v>1828</v>
+        <v>32</v>
       </c>
       <c r="C15" s="62">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" s="64" t="s">
-        <v>2572</v>
-      </c>
-      <c r="E15" s="82">
-        <v>5678</v>
-      </c>
-      <c r="F15" s="82">
-        <v>13802</v>
-      </c>
-      <c r="G15" s="82">
-        <v>1329</v>
-      </c>
-      <c r="H15" s="76">
-        <v>86</v>
-      </c>
-      <c r="I15" s="64"/>
+        <v>2564</v>
+      </c>
+      <c r="E15" s="80">
+        <v>5921</v>
+      </c>
+      <c r="F15" s="80">
+        <v>1656</v>
+      </c>
+      <c r="G15" s="80">
+        <v>1382</v>
+      </c>
+      <c r="H15" s="88">
+        <v>0</v>
+      </c>
+      <c r="I15" s="64" t="s">
+        <v>2590</v>
+      </c>
       <c r="J15" s="63"/>
       <c r="K15" s="63"/>
       <c r="L15" s="61" t="s">
-        <v>2573</v>
-      </c>
-      <c r="M15" s="75" t="s">
-        <v>2599</v>
+        <v>2574</v>
+      </c>
+      <c r="M15" s="74" t="s">
+        <v>2567</v>
       </c>
       <c r="N15" s="61" t="s">
-        <v>2574</v>
+        <v>2596</v>
       </c>
       <c r="O15" s="74" t="s">
         <v>2567</v>
       </c>
       <c r="P15" s="63"/>
-      <c r="Q15" s="74"/>
+      <c r="Q15" s="63">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="69">
-        <v>5</v>
+      <c r="A16" s="71">
+        <v>2</v>
       </c>
       <c r="B16" s="65" t="s">
-        <v>27</v>
+        <v>1012</v>
       </c>
       <c r="C16" s="62">
         <v>4</v>
@@ -36772,42 +36758,42 @@
       <c r="D16" s="64" t="s">
         <v>2572</v>
       </c>
-      <c r="E16" s="82">
-        <v>5610</v>
-      </c>
-      <c r="F16" s="82">
-        <v>13659</v>
-      </c>
-      <c r="G16" s="82">
-        <v>1329</v>
-      </c>
-      <c r="H16" s="76">
-        <v>99</v>
+      <c r="E16" s="80">
+        <v>5861</v>
+      </c>
+      <c r="F16" s="80">
+        <v>14699</v>
+      </c>
+      <c r="G16" s="80">
+        <v>1255</v>
+      </c>
+      <c r="H16" s="88">
+        <v>11</v>
       </c>
       <c r="I16" s="64"/>
-      <c r="J16" s="63" t="s">
-        <v>2562</v>
-      </c>
+      <c r="J16" s="63"/>
       <c r="K16" s="63"/>
       <c r="L16" s="61" t="s">
-        <v>2574</v>
-      </c>
-      <c r="M16" s="63"/>
+        <v>2575</v>
+      </c>
+      <c r="M16" s="74" t="s">
+        <v>2567</v>
+      </c>
       <c r="N16" s="61" t="s">
-        <v>2592</v>
-      </c>
-      <c r="O16" s="74"/>
-      <c r="P16" s="63">
-        <v>9</v>
-      </c>
-      <c r="Q16" s="63"/>
+        <v>2576</v>
+      </c>
+      <c r="O16" s="61"/>
+      <c r="P16" s="62">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="62"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="68">
-        <v>3</v>
+      <c r="A17" s="71">
+        <v>2</v>
       </c>
       <c r="B17" s="65" t="s">
-        <v>1369</v>
+        <v>470</v>
       </c>
       <c r="C17" s="62">
         <v>4</v>
@@ -36815,79 +36801,81 @@
       <c r="D17" s="64" t="s">
         <v>2572</v>
       </c>
-      <c r="E17" s="82">
-        <v>5795</v>
-      </c>
-      <c r="F17" s="82">
-        <v>15954</v>
-      </c>
-      <c r="G17" s="82">
-        <v>1285</v>
-      </c>
-      <c r="H17" s="76">
-        <v>42</v>
-      </c>
-      <c r="I17" s="64"/>
+      <c r="E17" s="80">
+        <v>5861</v>
+      </c>
+      <c r="F17" s="80">
+        <v>14577</v>
+      </c>
+      <c r="G17" s="80">
+        <v>1371</v>
+      </c>
+      <c r="H17" s="88">
+        <v>17</v>
+      </c>
+      <c r="I17" s="85"/>
       <c r="J17" s="63"/>
       <c r="K17" s="63"/>
       <c r="L17" s="61" t="s">
-        <v>2574</v>
-      </c>
-      <c r="M17" s="63"/>
+        <v>2575</v>
+      </c>
+      <c r="M17" s="75"/>
       <c r="N17" s="61" t="s">
-        <v>2574</v>
+        <v>2595</v>
       </c>
       <c r="O17" s="61"/>
-      <c r="P17" s="63"/>
-      <c r="Q17" s="63"/>
+      <c r="P17" s="62">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="62">
+        <v>4</v>
+      </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="69">
         <v>5</v>
       </c>
-      <c r="B18" s="65" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="62">
-        <v>4</v>
-      </c>
-      <c r="D18" s="64" t="s">
-        <v>2572</v>
-      </c>
-      <c r="E18" s="82">
-        <v>6227</v>
-      </c>
-      <c r="F18" s="82">
-        <v>14663</v>
-      </c>
-      <c r="G18" s="82">
-        <v>1255</v>
-      </c>
-      <c r="H18" s="76">
-        <v>58</v>
-      </c>
-      <c r="I18" s="64"/>
-      <c r="J18" s="63" t="s">
-        <v>2562</v>
-      </c>
-      <c r="K18" s="63" t="s">
+      <c r="B18" s="76" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="77">
+        <v>5</v>
+      </c>
+      <c r="D18" s="78" t="s">
+        <v>2564</v>
+      </c>
+      <c r="E18" s="81">
+        <v>5858</v>
+      </c>
+      <c r="F18" s="81">
+        <v>17739</v>
+      </c>
+      <c r="G18" s="81">
+        <v>1342</v>
+      </c>
+      <c r="H18" s="88">
+        <v>28</v>
+      </c>
+      <c r="I18" s="78"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="79" t="s">
         <v>2587</v>
       </c>
-      <c r="L18" s="61" t="s">
+      <c r="L18" s="76" t="s">
         <v>2574</v>
       </c>
-      <c r="M18" s="74" t="s">
-        <v>2567</v>
-      </c>
-      <c r="N18" s="61" t="s">
-        <v>2596</v>
+      <c r="M18" s="74"/>
+      <c r="N18" s="76" t="s">
+        <v>2595</v>
       </c>
       <c r="O18" s="74" t="s">
-        <v>2567</v>
-      </c>
-      <c r="P18" s="63"/>
-      <c r="Q18" s="63">
-        <v>1</v>
+        <v>2599</v>
+      </c>
+      <c r="P18" s="77">
+        <v>8</v>
+      </c>
+      <c r="Q18" s="77">
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -36895,7 +36883,7 @@
         <v>3</v>
       </c>
       <c r="B19" s="65" t="s">
-        <v>2563</v>
+        <v>1369</v>
       </c>
       <c r="C19" s="62">
         <v>4</v>
@@ -36903,44 +36891,38 @@
       <c r="D19" s="64" t="s">
         <v>2572</v>
       </c>
-      <c r="E19" s="82">
-        <v>6009</v>
-      </c>
-      <c r="F19" s="82">
-        <v>16241</v>
-      </c>
-      <c r="G19" s="82">
-        <v>1255</v>
-      </c>
-      <c r="H19" s="76">
-        <v>50</v>
+      <c r="E19" s="80">
+        <v>5813</v>
+      </c>
+      <c r="F19" s="80">
+        <v>15954</v>
+      </c>
+      <c r="G19" s="80">
+        <v>1285</v>
+      </c>
+      <c r="H19" s="88">
+        <v>42</v>
       </c>
       <c r="I19" s="64"/>
       <c r="J19" s="63"/>
       <c r="K19" s="63"/>
       <c r="L19" s="61" t="s">
-        <v>2573</v>
+        <v>2574</v>
       </c>
       <c r="M19" s="63"/>
       <c r="N19" s="61" t="s">
-        <v>2596</v>
-      </c>
-      <c r="O19" s="74" t="s">
-        <v>2567</v>
-      </c>
-      <c r="P19" s="63">
-        <v>8</v>
-      </c>
-      <c r="Q19" s="63">
-        <v>2</v>
-      </c>
+        <v>2574</v>
+      </c>
+      <c r="O19" s="61"/>
+      <c r="P19" s="63"/>
+      <c r="Q19" s="63"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="71">
-        <v>2</v>
+      <c r="A20" s="68">
+        <v>3</v>
       </c>
       <c r="B20" s="65" t="s">
-        <v>1012</v>
+        <v>1828</v>
       </c>
       <c r="C20" s="62">
         <v>4</v>
@@ -36948,42 +36930,42 @@
       <c r="D20" s="64" t="s">
         <v>2572</v>
       </c>
-      <c r="E20" s="82">
-        <v>5846</v>
-      </c>
-      <c r="F20" s="82">
-        <v>14699</v>
-      </c>
-      <c r="G20" s="82">
-        <v>1255</v>
-      </c>
-      <c r="H20" s="76">
-        <v>11</v>
+      <c r="E20" s="80">
+        <v>5692</v>
+      </c>
+      <c r="F20" s="80">
+        <v>13802</v>
+      </c>
+      <c r="G20" s="80">
+        <v>1329</v>
+      </c>
+      <c r="H20" s="88">
+        <v>86</v>
       </c>
       <c r="I20" s="64"/>
       <c r="J20" s="63"/>
       <c r="K20" s="63"/>
       <c r="L20" s="61" t="s">
-        <v>2575</v>
-      </c>
-      <c r="M20" s="74" t="s">
+        <v>2573</v>
+      </c>
+      <c r="M20" s="75" t="s">
+        <v>2599</v>
+      </c>
+      <c r="N20" s="61" t="s">
+        <v>2574</v>
+      </c>
+      <c r="O20" s="74" t="s">
         <v>2567</v>
       </c>
-      <c r="N20" s="61" t="s">
-        <v>2576</v>
-      </c>
-      <c r="O20" s="61"/>
-      <c r="P20" s="62">
-        <v>2</v>
-      </c>
-      <c r="Q20" s="62"/>
+      <c r="P20" s="63"/>
+      <c r="Q20" s="74"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="66">
-        <v>1</v>
+      <c r="A21" s="69">
+        <v>5</v>
       </c>
       <c r="B21" s="65" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="C21" s="62">
         <v>4</v>
@@ -36991,85 +36973,89 @@
       <c r="D21" s="64" t="s">
         <v>2572</v>
       </c>
-      <c r="E21" s="82">
-        <v>5263</v>
-      </c>
-      <c r="F21" s="82">
-        <v>14807</v>
-      </c>
-      <c r="G21" s="82">
-        <v>1255</v>
-      </c>
-      <c r="H21" s="87" t="s">
-        <v>2619</v>
-      </c>
-      <c r="I21" s="87"/>
-      <c r="J21" s="63"/>
+      <c r="E21" s="80">
+        <v>5625</v>
+      </c>
+      <c r="F21" s="80">
+        <v>13659</v>
+      </c>
+      <c r="G21" s="80">
+        <v>1329</v>
+      </c>
+      <c r="H21" s="88" t="s">
+        <v>2616</v>
+      </c>
+      <c r="I21" s="64"/>
+      <c r="J21" s="63" t="s">
+        <v>2562</v>
+      </c>
       <c r="K21" s="63"/>
       <c r="L21" s="61" t="s">
-        <v>2573</v>
-      </c>
-      <c r="M21" s="74" t="s">
-        <v>2567</v>
-      </c>
+        <v>2574</v>
+      </c>
+      <c r="M21" s="63"/>
       <c r="N21" s="61" t="s">
         <v>2592</v>
       </c>
-      <c r="O21" s="61"/>
-      <c r="P21" s="62">
-        <v>7</v>
-      </c>
-      <c r="Q21" s="62"/>
+      <c r="O21" s="74"/>
+      <c r="P21" s="63">
+        <v>9</v>
+      </c>
+      <c r="Q21" s="63"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="66">
-        <v>1</v>
-      </c>
-      <c r="B22" s="65" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="62">
+      <c r="A22" s="70">
         <v>4</v>
       </c>
-      <c r="D22" s="64" t="s">
-        <v>2572</v>
-      </c>
-      <c r="E22" s="82">
-        <v>5243</v>
-      </c>
-      <c r="F22" s="82">
-        <v>14807</v>
-      </c>
-      <c r="G22" s="82">
-        <v>1255</v>
-      </c>
-      <c r="H22" s="87">
-        <v>35</v>
-      </c>
-      <c r="I22" s="87"/>
-      <c r="J22" s="63"/>
-      <c r="K22" s="63"/>
-      <c r="L22" s="61" t="s">
-        <v>2575</v>
-      </c>
-      <c r="M22" s="74" t="s">
-        <v>2567</v>
-      </c>
-      <c r="N22" s="61" t="s">
-        <v>2592</v>
+      <c r="B22" s="76" t="s">
+        <v>2602</v>
+      </c>
+      <c r="C22" s="77">
+        <v>5</v>
+      </c>
+      <c r="D22" s="78" t="s">
+        <v>2564</v>
+      </c>
+      <c r="E22" s="81">
+        <v>5591</v>
+      </c>
+      <c r="F22" s="81">
+        <v>15524</v>
+      </c>
+      <c r="G22" s="81">
+        <v>1463</v>
+      </c>
+      <c r="H22" s="88">
+        <v>0</v>
+      </c>
+      <c r="I22" s="78" t="s">
+        <v>2590</v>
+      </c>
+      <c r="J22" s="79"/>
+      <c r="K22" s="79" t="s">
+        <v>2587</v>
+      </c>
+      <c r="L22" s="76" t="s">
+        <v>2573</v>
+      </c>
+      <c r="M22" s="79"/>
+      <c r="N22" s="76" t="s">
+        <v>2595</v>
       </c>
       <c r="O22" s="61"/>
-      <c r="P22" s="62">
-        <v>4</v>
-      </c>
-      <c r="Q22" s="62"/>
+      <c r="P22" s="77">
+        <v>6</v>
+      </c>
+      <c r="Q22" s="77">
+        <v>7</v>
+      </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="67">
         <v>0</v>
       </c>
       <c r="B23" s="65" t="s">
-        <v>1116</v>
+        <v>2581</v>
       </c>
       <c r="C23" s="62">
         <v>4</v>
@@ -37077,46 +37063,44 @@
       <c r="D23" s="64" t="s">
         <v>2572</v>
       </c>
-      <c r="E23" s="82">
-        <v>5963</v>
-      </c>
-      <c r="F23" s="82">
-        <v>15847</v>
-      </c>
-      <c r="G23" s="82">
-        <v>1206</v>
-      </c>
-      <c r="H23" s="87" t="s">
-        <v>2621</v>
-      </c>
-      <c r="I23" s="87"/>
-      <c r="J23" s="63"/>
+      <c r="E23" s="80">
+        <v>5431</v>
+      </c>
+      <c r="F23" s="80">
+        <v>12079</v>
+      </c>
+      <c r="G23" s="80">
+        <v>1438</v>
+      </c>
+      <c r="H23" s="88">
+        <v>67</v>
+      </c>
+      <c r="I23" s="85"/>
+      <c r="J23" s="63" t="s">
+        <v>2562</v>
+      </c>
       <c r="K23" s="63"/>
       <c r="L23" s="61" t="s">
-        <v>2575</v>
-      </c>
-      <c r="M23" s="74" t="s">
-        <v>2567</v>
+        <v>2574</v>
+      </c>
+      <c r="M23" s="86" t="s">
+        <v>2598</v>
       </c>
       <c r="N23" s="61" t="s">
-        <v>2596</v>
-      </c>
-      <c r="O23" s="74" t="s">
-        <v>2567</v>
-      </c>
-      <c r="P23" s="62">
-        <v>4</v>
-      </c>
+        <v>2574</v>
+      </c>
+      <c r="O23" s="61"/>
+      <c r="P23" s="62"/>
       <c r="Q23" s="62">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="71">
-        <v>2</v>
+      <c r="A24" s="66">
+        <v>1</v>
       </c>
       <c r="B24" s="65" t="s">
-        <v>562</v>
+        <v>59</v>
       </c>
       <c r="C24" s="62">
         <v>4</v>
@@ -37124,44 +37108,42 @@
       <c r="D24" s="64" t="s">
         <v>2572</v>
       </c>
-      <c r="E24" s="82">
-        <v>6203</v>
-      </c>
-      <c r="F24" s="82">
-        <v>15667</v>
-      </c>
-      <c r="G24" s="82">
-        <v>1145</v>
-      </c>
-      <c r="H24" s="76">
-        <v>32</v>
-      </c>
-      <c r="I24" s="64"/>
+      <c r="E24" s="80">
+        <v>5273</v>
+      </c>
+      <c r="F24" s="80">
+        <v>14807</v>
+      </c>
+      <c r="G24" s="80">
+        <v>1255</v>
+      </c>
+      <c r="H24" s="88">
+        <v>84</v>
+      </c>
+      <c r="I24" s="85"/>
       <c r="J24" s="63"/>
       <c r="K24" s="63"/>
       <c r="L24" s="61" t="s">
         <v>2573</v>
       </c>
-      <c r="M24" s="63"/>
+      <c r="M24" s="74" t="s">
+        <v>2567</v>
+      </c>
       <c r="N24" s="61" t="s">
-        <v>2574</v>
-      </c>
-      <c r="O24" s="74" t="s">
-        <v>2567</v>
-      </c>
+        <v>2592</v>
+      </c>
+      <c r="O24" s="61"/>
       <c r="P24" s="62">
-        <v>8</v>
-      </c>
-      <c r="Q24" s="62">
-        <v>5</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="Q24" s="62"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="71">
-        <v>2</v>
+      <c r="A25" s="66">
+        <v>1</v>
       </c>
       <c r="B25" s="65" t="s">
-        <v>1954</v>
+        <v>57</v>
       </c>
       <c r="C25" s="62">
         <v>4</v>
@@ -37169,23 +37151,23 @@
       <c r="D25" s="64" t="s">
         <v>2572</v>
       </c>
-      <c r="E25" s="82">
-        <v>5077</v>
-      </c>
-      <c r="F25" s="82">
-        <v>12510</v>
-      </c>
-      <c r="G25" s="82">
-        <v>1145</v>
-      </c>
-      <c r="H25" s="76">
-        <v>99</v>
-      </c>
-      <c r="I25" s="64"/>
+      <c r="E25" s="80">
+        <v>5258</v>
+      </c>
+      <c r="F25" s="80">
+        <v>14807</v>
+      </c>
+      <c r="G25" s="80">
+        <v>1255</v>
+      </c>
+      <c r="H25" s="88">
+        <v>35</v>
+      </c>
+      <c r="I25" s="85"/>
       <c r="J25" s="63"/>
       <c r="K25" s="63"/>
       <c r="L25" s="61" t="s">
-        <v>2573</v>
+        <v>2575</v>
       </c>
       <c r="M25" s="74" t="s">
         <v>2567</v>
@@ -37194,101 +37176,97 @@
         <v>2592</v>
       </c>
       <c r="O25" s="61"/>
-      <c r="P25" s="62"/>
+      <c r="P25" s="62">
+        <v>4</v>
+      </c>
       <c r="Q25" s="62"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="69">
-        <v>5</v>
-      </c>
-      <c r="B26" s="77" t="s">
-        <v>2579</v>
-      </c>
-      <c r="C26" s="78">
-        <v>5</v>
-      </c>
-      <c r="D26" s="79" t="s">
-        <v>2571</v>
-      </c>
-      <c r="E26" s="83">
-        <v>3948</v>
-      </c>
-      <c r="F26" s="83">
-        <v>12016</v>
-      </c>
-      <c r="G26" s="83">
-        <v>990</v>
-      </c>
-      <c r="H26" s="80">
-        <v>0</v>
-      </c>
-      <c r="I26" s="79" t="s">
-        <v>2590</v>
-      </c>
-      <c r="J26" s="81"/>
-      <c r="K26" s="81"/>
-      <c r="L26" s="77" t="s">
-        <v>2577</v>
+      <c r="A26" s="71">
+        <v>2</v>
+      </c>
+      <c r="B26" s="65" t="s">
+        <v>1954</v>
+      </c>
+      <c r="C26" s="62">
+        <v>4</v>
+      </c>
+      <c r="D26" s="64" t="s">
+        <v>2572</v>
+      </c>
+      <c r="E26" s="80">
+        <v>5095</v>
+      </c>
+      <c r="F26" s="80">
+        <v>12510</v>
+      </c>
+      <c r="G26" s="80">
+        <v>1145</v>
+      </c>
+      <c r="H26" s="88" t="s">
+        <v>2616</v>
+      </c>
+      <c r="I26" s="64"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="61" t="s">
+        <v>2573</v>
       </c>
       <c r="M26" s="74" t="s">
         <v>2567</v>
       </c>
-      <c r="N26" s="77" t="s">
+      <c r="N26" s="61" t="s">
         <v>2592</v>
       </c>
       <c r="O26" s="61"/>
-      <c r="P26" s="78"/>
-      <c r="Q26" s="78"/>
+      <c r="P26" s="62"/>
+      <c r="Q26" s="62"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="68">
-        <v>3</v>
-      </c>
-      <c r="B27" s="77" t="s">
-        <v>2580</v>
-      </c>
-      <c r="C27" s="78">
-        <v>5</v>
-      </c>
-      <c r="D27" s="79" t="s">
-        <v>2571</v>
-      </c>
-      <c r="E27" s="83">
-        <v>3774</v>
-      </c>
-      <c r="F27" s="83">
-        <v>11677</v>
-      </c>
-      <c r="G27" s="83">
-        <v>990</v>
-      </c>
-      <c r="H27" s="80">
+      <c r="A27" s="67">
         <v>0</v>
       </c>
-      <c r="I27" s="79" t="s">
-        <v>2590</v>
-      </c>
-      <c r="J27" s="81"/>
-      <c r="K27" s="81"/>
-      <c r="L27" s="77" t="s">
-        <v>2577</v>
-      </c>
-      <c r="M27" s="74" t="s">
-        <v>2567</v>
-      </c>
-      <c r="N27" s="77" t="s">
-        <v>2592</v>
+      <c r="B27" s="65" t="s">
+        <v>524</v>
+      </c>
+      <c r="C27" s="62">
+        <v>4</v>
+      </c>
+      <c r="D27" s="64" t="s">
+        <v>2605</v>
+      </c>
+      <c r="E27" s="80">
+        <v>4736</v>
+      </c>
+      <c r="F27" s="80"/>
+      <c r="G27" s="80"/>
+      <c r="H27" s="88">
+        <v>60</v>
+      </c>
+      <c r="I27" s="85"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="61" t="s">
+        <v>2575</v>
+      </c>
+      <c r="M27" s="75"/>
+      <c r="N27" s="61" t="s">
+        <v>2574</v>
       </c>
       <c r="O27" s="61"/>
-      <c r="P27" s="81"/>
-      <c r="Q27" s="63"/>
+      <c r="P27" s="62">
+        <v>2</v>
+      </c>
+      <c r="Q27" s="62">
+        <v>7</v>
+      </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="67">
-        <v>0</v>
+      <c r="A28" s="69">
+        <v>5</v>
       </c>
       <c r="B28" s="65" t="s">
-        <v>524</v>
+        <v>36</v>
       </c>
       <c r="C28" s="62">
         <v>4</v>
@@ -37296,31 +37274,27 @@
       <c r="D28" s="64" t="s">
         <v>2606</v>
       </c>
-      <c r="E28" s="82">
-        <v>4683</v>
-      </c>
-      <c r="F28" s="82"/>
-      <c r="G28" s="82"/>
-      <c r="H28" s="87" t="s">
-        <v>2609</v>
-      </c>
-      <c r="I28" s="87"/>
+      <c r="E28" s="80">
+        <v>4700</v>
+      </c>
+      <c r="F28" s="80"/>
+      <c r="G28" s="80"/>
+      <c r="H28" s="88">
+        <v>40</v>
+      </c>
+      <c r="I28" s="64"/>
       <c r="J28" s="63"/>
       <c r="K28" s="63"/>
       <c r="L28" s="61" t="s">
         <v>2575</v>
       </c>
-      <c r="M28" s="75"/>
-      <c r="N28" s="61" t="s">
-        <v>2574</v>
-      </c>
-      <c r="O28" s="61"/>
-      <c r="P28" s="62">
-        <v>2</v>
-      </c>
-      <c r="Q28" s="62">
-        <v>7</v>
-      </c>
+      <c r="M28" s="63"/>
+      <c r="N28" s="61"/>
+      <c r="O28" s="74"/>
+      <c r="P28" s="63">
+        <v>3</v>
+      </c>
+      <c r="Q28" s="63"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="70">
@@ -37333,15 +37307,15 @@
         <v>4</v>
       </c>
       <c r="D29" s="64" t="s">
-        <v>2606</v>
-      </c>
-      <c r="E29" s="82">
-        <v>4372</v>
-      </c>
-      <c r="F29" s="82"/>
-      <c r="G29" s="82"/>
-      <c r="H29" s="76">
-        <v>33</v>
+        <v>2605</v>
+      </c>
+      <c r="E29" s="80">
+        <v>4399</v>
+      </c>
+      <c r="F29" s="80"/>
+      <c r="G29" s="80"/>
+      <c r="H29" s="88">
+        <v>37</v>
       </c>
       <c r="I29" s="64"/>
       <c r="J29" s="63"/>
@@ -37372,17 +37346,17 @@
         <v>4</v>
       </c>
       <c r="D30" s="64" t="s">
-        <v>2606</v>
-      </c>
-      <c r="E30" s="82">
-        <v>3962</v>
-      </c>
-      <c r="F30" s="85"/>
-      <c r="G30" s="85"/>
-      <c r="H30" s="87" t="s">
-        <v>2603</v>
-      </c>
-      <c r="I30" s="87" t="s">
+        <v>2605</v>
+      </c>
+      <c r="E30" s="80">
+        <v>3975</v>
+      </c>
+      <c r="F30" s="83"/>
+      <c r="G30" s="83"/>
+      <c r="H30" s="88">
+        <v>0</v>
+      </c>
+      <c r="I30" s="85" t="s">
         <v>2590</v>
       </c>
       <c r="J30" s="63"/>
@@ -37401,245 +37375,306 @@
       <c r="Q30" s="62"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="70">
-        <v>4</v>
-      </c>
-      <c r="B31" s="65" t="s">
-        <v>20</v>
-      </c>
-      <c r="C31" s="62">
-        <v>4</v>
-      </c>
-      <c r="D31" s="64" t="s">
-        <v>2607</v>
-      </c>
-      <c r="E31" s="82">
-        <v>3663</v>
-      </c>
-      <c r="F31" s="82"/>
-      <c r="G31" s="82"/>
-      <c r="H31" s="76" t="s">
-        <v>2610</v>
-      </c>
-      <c r="I31" s="64"/>
-      <c r="J31" s="63"/>
-      <c r="K31" s="63"/>
-      <c r="L31" s="61" t="s">
-        <v>2574</v>
-      </c>
-      <c r="M31" s="63"/>
-      <c r="N31" s="61" t="s">
-        <v>2595</v>
-      </c>
-      <c r="O31" s="74" t="s">
+      <c r="A31" s="69">
+        <v>5</v>
+      </c>
+      <c r="B31" s="76" t="s">
+        <v>2579</v>
+      </c>
+      <c r="C31" s="77">
+        <v>5</v>
+      </c>
+      <c r="D31" s="78" t="s">
+        <v>2571</v>
+      </c>
+      <c r="E31" s="81">
+        <v>3948</v>
+      </c>
+      <c r="F31" s="81">
+        <v>12016</v>
+      </c>
+      <c r="G31" s="81">
+        <v>990</v>
+      </c>
+      <c r="H31" s="88">
+        <v>0</v>
+      </c>
+      <c r="I31" s="78" t="s">
+        <v>2590</v>
+      </c>
+      <c r="J31" s="79"/>
+      <c r="K31" s="79"/>
+      <c r="L31" s="76" t="s">
+        <v>2577</v>
+      </c>
+      <c r="M31" s="74" t="s">
         <v>2567</v>
       </c>
-      <c r="P31" s="63"/>
-      <c r="Q31" s="63">
-        <v>5</v>
-      </c>
+      <c r="N31" s="76" t="s">
+        <v>2592</v>
+      </c>
+      <c r="O31" s="61"/>
+      <c r="P31" s="77"/>
+      <c r="Q31" s="77"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="69">
+      <c r="A32" s="68">
+        <v>3</v>
+      </c>
+      <c r="B32" s="76" t="s">
+        <v>2580</v>
+      </c>
+      <c r="C32" s="77">
         <v>5</v>
       </c>
-      <c r="B32" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="62">
-        <v>4</v>
-      </c>
-      <c r="D32" s="64" t="s">
-        <v>2607</v>
-      </c>
-      <c r="E32" s="82">
-        <v>3560</v>
-      </c>
-      <c r="F32" s="82"/>
-      <c r="G32" s="82"/>
-      <c r="H32" s="76">
-        <v>40</v>
-      </c>
-      <c r="I32" s="64"/>
-      <c r="J32" s="63"/>
-      <c r="K32" s="63"/>
-      <c r="L32" s="61" t="s">
-        <v>2575</v>
-      </c>
-      <c r="M32" s="63"/>
-      <c r="N32" s="61"/>
-      <c r="O32" s="74"/>
-      <c r="P32" s="63">
-        <v>3</v>
-      </c>
+      <c r="D32" s="78" t="s">
+        <v>2571</v>
+      </c>
+      <c r="E32" s="81">
+        <v>3774</v>
+      </c>
+      <c r="F32" s="81">
+        <v>11677</v>
+      </c>
+      <c r="G32" s="81">
+        <v>990</v>
+      </c>
+      <c r="H32" s="88">
+        <v>0</v>
+      </c>
+      <c r="I32" s="78" t="s">
+        <v>2590</v>
+      </c>
+      <c r="J32" s="79"/>
+      <c r="K32" s="79"/>
+      <c r="L32" s="76" t="s">
+        <v>2577</v>
+      </c>
+      <c r="M32" s="74" t="s">
+        <v>2567</v>
+      </c>
+      <c r="N32" s="76" t="s">
+        <v>2592</v>
+      </c>
+      <c r="O32" s="61"/>
+      <c r="P32" s="79"/>
       <c r="Q32" s="63"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="67">
-        <v>0</v>
-      </c>
-      <c r="B33" s="77" t="s">
-        <v>389</v>
-      </c>
-      <c r="C33" s="78">
+      <c r="A33" s="70">
+        <v>4</v>
+      </c>
+      <c r="B33" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="62">
+        <v>4</v>
+      </c>
+      <c r="D33" s="64" t="s">
+        <v>2606</v>
+      </c>
+      <c r="E33" s="80">
+        <v>3671</v>
+      </c>
+      <c r="F33" s="80"/>
+      <c r="G33" s="80"/>
+      <c r="H33" s="88">
+        <v>43</v>
+      </c>
+      <c r="I33" s="64"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="63"/>
+      <c r="L33" s="61" t="s">
+        <v>2574</v>
+      </c>
+      <c r="M33" s="63"/>
+      <c r="N33" s="61" t="s">
+        <v>2595</v>
+      </c>
+      <c r="O33" s="74" t="s">
+        <v>2567</v>
+      </c>
+      <c r="P33" s="63"/>
+      <c r="Q33" s="63">
         <v>5</v>
-      </c>
-      <c r="D33" s="79" t="s">
-        <v>2608</v>
-      </c>
-      <c r="E33" s="83"/>
-      <c r="F33" s="83"/>
-      <c r="G33" s="83"/>
-      <c r="H33" s="80" t="s">
-        <v>2603</v>
-      </c>
-      <c r="I33" s="79"/>
-      <c r="J33" s="81"/>
-      <c r="K33" s="81"/>
-      <c r="L33" s="77" t="s">
-        <v>2574</v>
-      </c>
-      <c r="M33" s="81"/>
-      <c r="N33" s="77" t="s">
-        <v>2574</v>
-      </c>
-      <c r="O33" s="61"/>
-      <c r="P33" s="78"/>
-      <c r="Q33" s="78">
-        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="67">
         <v>0</v>
       </c>
-      <c r="B34" s="77" t="s">
-        <v>2039</v>
-      </c>
-      <c r="C34" s="78">
+      <c r="B34" s="76" t="s">
+        <v>389</v>
+      </c>
+      <c r="C34" s="77">
         <v>5</v>
       </c>
-      <c r="D34" s="79" t="s">
-        <v>2608</v>
-      </c>
-      <c r="E34" s="83"/>
-      <c r="F34" s="83"/>
-      <c r="G34" s="83"/>
-      <c r="H34" s="80" t="s">
-        <v>2603</v>
-      </c>
-      <c r="I34" s="79"/>
-      <c r="J34" s="81"/>
-      <c r="K34" s="81"/>
-      <c r="L34" s="77" t="s">
-        <v>2577</v>
-      </c>
-      <c r="M34" s="81"/>
-      <c r="N34" s="77" t="s">
-        <v>2592</v>
+      <c r="D34" s="78" t="s">
+        <v>2607</v>
+      </c>
+      <c r="E34" s="81"/>
+      <c r="F34" s="81"/>
+      <c r="G34" s="81"/>
+      <c r="H34" s="88">
+        <v>0</v>
+      </c>
+      <c r="I34" s="78" t="s">
+        <v>2590</v>
+      </c>
+      <c r="J34" s="79"/>
+      <c r="K34" s="79"/>
+      <c r="L34" s="76" t="s">
+        <v>2574</v>
+      </c>
+      <c r="M34" s="79"/>
+      <c r="N34" s="76" t="s">
+        <v>2574</v>
       </c>
       <c r="O34" s="61"/>
-      <c r="P34" s="78"/>
-      <c r="Q34" s="78"/>
+      <c r="P34" s="77"/>
+      <c r="Q34" s="77">
+        <v>9</v>
+      </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="70">
-        <v>4</v>
-      </c>
-      <c r="B35" s="77" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" s="78">
+      <c r="A35" s="66">
+        <v>1</v>
+      </c>
+      <c r="B35" s="76" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="77">
         <v>5</v>
       </c>
-      <c r="D35" s="79" t="s">
-        <v>2608</v>
-      </c>
-      <c r="E35" s="83"/>
-      <c r="F35" s="83"/>
-      <c r="G35" s="83"/>
-      <c r="H35" s="80" t="s">
-        <v>2603</v>
-      </c>
-      <c r="I35" s="79"/>
-      <c r="J35" s="81"/>
-      <c r="K35" s="81"/>
-      <c r="L35" s="77" t="s">
+      <c r="D35" s="78" t="s">
+        <v>2607</v>
+      </c>
+      <c r="E35" s="81"/>
+      <c r="F35" s="81"/>
+      <c r="G35" s="81"/>
+      <c r="H35" s="88">
+        <v>0</v>
+      </c>
+      <c r="I35" s="78" t="s">
+        <v>2590</v>
+      </c>
+      <c r="J35" s="79"/>
+      <c r="K35" s="79"/>
+      <c r="L35" s="76" t="s">
         <v>2593</v>
       </c>
-      <c r="M35" s="81"/>
-      <c r="N35" s="77" t="s">
-        <v>2574</v>
+      <c r="M35" s="79"/>
+      <c r="N35" s="76" t="s">
+        <v>2576</v>
       </c>
       <c r="O35" s="61"/>
-      <c r="P35" s="78"/>
-      <c r="Q35" s="78"/>
+      <c r="P35" s="77"/>
+      <c r="Q35" s="77"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="67">
         <v>0</v>
       </c>
-      <c r="B36" s="77" t="s">
-        <v>1086</v>
-      </c>
-      <c r="C36" s="78">
+      <c r="B36" s="76" t="s">
+        <v>2039</v>
+      </c>
+      <c r="C36" s="77">
         <v>5</v>
       </c>
-      <c r="D36" s="79" t="s">
-        <v>2608</v>
-      </c>
-      <c r="E36" s="83"/>
-      <c r="F36" s="83"/>
-      <c r="G36" s="83"/>
-      <c r="H36" s="80" t="s">
-        <v>2603</v>
-      </c>
-      <c r="I36" s="79"/>
-      <c r="J36" s="81"/>
-      <c r="K36" s="81"/>
-      <c r="L36" s="77" t="s">
-        <v>2593</v>
-      </c>
-      <c r="M36" s="81"/>
-      <c r="N36" s="77" t="s">
-        <v>2576</v>
+      <c r="D36" s="78" t="s">
+        <v>2607</v>
+      </c>
+      <c r="E36" s="81"/>
+      <c r="F36" s="81"/>
+      <c r="G36" s="81"/>
+      <c r="H36" s="88">
+        <v>0</v>
+      </c>
+      <c r="I36" s="78" t="s">
+        <v>2590</v>
+      </c>
+      <c r="J36" s="79"/>
+      <c r="K36" s="79"/>
+      <c r="L36" s="76" t="s">
+        <v>2577</v>
+      </c>
+      <c r="M36" s="79"/>
+      <c r="N36" s="76" t="s">
+        <v>2592</v>
       </c>
       <c r="O36" s="61"/>
-      <c r="P36" s="78"/>
-      <c r="Q36" s="78"/>
+      <c r="P36" s="77"/>
+      <c r="Q36" s="77"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="66">
-        <v>1</v>
-      </c>
-      <c r="B37" s="77" t="s">
-        <v>54</v>
-      </c>
-      <c r="C37" s="78">
+      <c r="A37" s="70">
+        <v>4</v>
+      </c>
+      <c r="B37" s="76" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="77">
         <v>5</v>
       </c>
-      <c r="D37" s="79" t="s">
-        <v>2608</v>
-      </c>
-      <c r="E37" s="83"/>
-      <c r="F37" s="83"/>
-      <c r="G37" s="83"/>
-      <c r="H37" s="80">
+      <c r="D37" s="78" t="s">
+        <v>2607</v>
+      </c>
+      <c r="E37" s="81"/>
+      <c r="F37" s="81"/>
+      <c r="G37" s="81"/>
+      <c r="H37" s="88">
         <v>0</v>
       </c>
-      <c r="I37" s="79"/>
-      <c r="J37" s="81"/>
-      <c r="K37" s="81"/>
-      <c r="L37" s="77" t="s">
+      <c r="I37" s="78" t="s">
+        <v>2590</v>
+      </c>
+      <c r="J37" s="79"/>
+      <c r="K37" s="79"/>
+      <c r="L37" s="76" t="s">
         <v>2593</v>
       </c>
-      <c r="M37" s="81"/>
-      <c r="N37" s="77" t="s">
+      <c r="M37" s="79"/>
+      <c r="N37" s="76" t="s">
+        <v>2574</v>
+      </c>
+      <c r="O37" s="61"/>
+      <c r="P37" s="77"/>
+      <c r="Q37" s="77"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="67">
+        <v>0</v>
+      </c>
+      <c r="B38" s="76" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C38" s="77">
+        <v>5</v>
+      </c>
+      <c r="D38" s="78" t="s">
+        <v>2607</v>
+      </c>
+      <c r="E38" s="81"/>
+      <c r="F38" s="81"/>
+      <c r="G38" s="81"/>
+      <c r="H38" s="88">
+        <v>0</v>
+      </c>
+      <c r="I38" s="78" t="s">
+        <v>2590</v>
+      </c>
+      <c r="J38" s="79"/>
+      <c r="K38" s="79"/>
+      <c r="L38" s="76" t="s">
+        <v>2593</v>
+      </c>
+      <c r="M38" s="79"/>
+      <c r="N38" s="76" t="s">
         <v>2576</v>
       </c>
-      <c r="O37" s="61"/>
-      <c r="P37" s="78"/>
-      <c r="Q37" s="78"/>
+      <c r="O38" s="61"/>
+      <c r="P38" s="77"/>
+      <c r="Q38" s="77"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -37661,13 +37696,13 @@
           <x14:formula1>
             <xm:f>Config!$A$2:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>L3:L37</xm:sqref>
+          <xm:sqref>L3:L38</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{730E1450-3BFA-4B45-B65F-811EF192FACA}">
           <x14:formula1>
             <xm:f>Config!$C$2:$C$7</xm:f>
           </x14:formula1>
-          <xm:sqref>N3:N37</xm:sqref>
+          <xm:sqref>N3:N38</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -37767,18 +37802,18 @@
       <c r="C12" s="154"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="84" t="s">
-        <v>2620</v>
+      <c r="A15" s="82" t="s">
+        <v>2615</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="84" t="s">
-        <v>2605</v>
+      <c r="A17" s="82" t="s">
+        <v>2604</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="84" t="s">
-        <v>2611</v>
+      <c r="A19" s="82" t="s">
+        <v>2608</v>
       </c>
     </row>
   </sheetData>

--- a/Resource/Mcoc.xlsx
+++ b/Resource/Mcoc.xlsx
@@ -18,10 +18,10 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1582733427" val="974" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1582733427" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1582733427" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1582733427"/>
+      <pm:revision xmlns:pm="smNativeData" day="1583539609" val="974" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1583539609" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1583539609" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1583539609"/>
     </ext>
   </extLst>
 </workbook>
@@ -45,7 +45,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1582733427">
+                <pm:charSpec xmlns:pm="smNativeData" id="1583539609">
                   <pm:latin face="Segoe UI" sz="180" weight="bold" i="0"/>
                   <pm:cs face="Segoe UI" sz="180" weight="bold"/>
                   <pm:ea face="Segoe UI" sz="180" weight="bold"/>
@@ -65,7 +65,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1582733427">
+                <pm:charSpec xmlns:pm="smNativeData" id="1583539609">
                   <pm:latin face="Segoe UI" sz="180" weight="normal" i="0"/>
                   <pm:cs sz="220" weight="normal"/>
                   <pm:ea sz="220" weight="normal"/>
@@ -91,7 +91,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1582733427">
+                <pm:charSpec xmlns:pm="smNativeData" id="1583539609">
                   <pm:latin face="Segoe UI" sz="180" weight="bold" i="0"/>
                   <pm:cs face="Segoe UI" sz="180" weight="bold"/>
                   <pm:ea face="Segoe UI" sz="180" weight="bold"/>
@@ -111,7 +111,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1582733427">
+                <pm:charSpec xmlns:pm="smNativeData" id="1583539609">
                   <pm:latin face="Segoe UI" sz="180" weight="normal" i="0"/>
                   <pm:cs sz="220" weight="normal"/>
                   <pm:ea sz="220" weight="normal"/>
@@ -137,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6598" uniqueCount="2620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6597" uniqueCount="2620">
   <si>
     <t>champ</t>
   </si>
@@ -7882,71 +7882,41 @@
     <t>x</t>
   </si>
   <si>
+    <t>def</t>
+  </si>
+  <si>
     <t>2-Better</t>
   </si>
   <si>
+    <t>1-Boss Suggestion</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>1-God/Best</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Gwen-Aranha</t>
+  </si>
+  <si>
+    <t>3/45</t>
+  </si>
+  <si>
+    <t>M.O.D.O.K</t>
+  </si>
+  <si>
+    <t>AW</t>
+  </si>
+  <si>
     <t>3-Good</t>
   </si>
   <si>
-    <t>1-Boss Suggestion</t>
-  </si>
-  <si>
-    <t>att</t>
-  </si>
-  <si>
-    <t>1-God/Best</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>5-Meh</t>
-  </si>
-  <si>
-    <t>4-Okay</t>
-  </si>
-  <si>
-    <t>Warlock</t>
-  </si>
-  <si>
-    <t>2-Mini-Boss Suggestion</t>
-  </si>
-  <si>
-    <t>Black Widow (Claire Voyant)</t>
-  </si>
-  <si>
-    <t>3/45</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>AW</t>
-  </si>
-  <si>
-    <t>def</t>
-  </si>
-  <si>
-    <t>Gwen-Aranha</t>
-  </si>
-  <si>
-    <t>D+S</t>
-  </si>
-  <si>
-    <t>Killlmonger</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>M.O.D.O.K</t>
-  </si>
-  <si>
     <r>
-      <t>D</t>
-    </r>
-    <r>
-      <t>+</t>
+      <t>D+</t>
     </r>
     <r>
       <rPr>
@@ -7959,7 +7929,7 @@
         <color rgb="FF99CC00"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="99CC00">
+            <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="99CC00">
               <pm:latin face="Verdana" sz="200" weight="normal" i="1"/>
               <pm:cs/>
               <pm:ea/>
@@ -7971,34 +7941,61 @@
     </r>
   </si>
   <si>
+    <t>4/40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spider-Man (Classic) </t>
+  </si>
+  <si>
+    <t>1/25</t>
+  </si>
+  <si>
+    <t>5-Badluck</t>
+  </si>
+  <si>
+    <t>D+S</t>
+  </si>
+  <si>
+    <t>Warlock</t>
+  </si>
+  <si>
+    <t>2-Mini-Boss Suggestion</t>
+  </si>
+  <si>
+    <t>Black Widow (Claire Voyant)</t>
+  </si>
+  <si>
+    <t>Killlmonger</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>4-Okay</t>
+  </si>
+  <si>
+    <t>2/35</t>
+  </si>
+  <si>
+    <t>att</t>
+  </si>
+  <si>
     <t xml:space="preserve">Spider-Man Symbiote </t>
   </si>
   <si>
     <t>T</t>
   </si>
   <si>
-    <t>4/40</t>
-  </si>
-  <si>
-    <t>2/35</t>
+    <t>6-Meh</t>
+  </si>
+  <si>
+    <t>5-Meh</t>
   </si>
   <si>
     <t>Thor (Jane Foster) </t>
   </si>
   <si>
-    <t>5-Badluck</t>
-  </si>
-  <si>
     <t>Daredevil (Netflix)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spider-Man (Classic) </t>
-  </si>
-  <si>
-    <t>1/25</t>
-  </si>
-  <si>
-    <t>6-Meh</t>
   </si>
   <si>
     <t>Offense Tier</t>
@@ -8021,7 +8018,7 @@
         <color rgb="FFA0AEBA"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="A0AEBA">
+            <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="A0AEBA">
               <pm:latin face="Arial" sz="240" weight="normal" i="1"/>
               <pm:cs/>
               <pm:ea/>
@@ -8047,7 +8044,7 @@
         <color rgb="FFA0AEBA"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="A0AEBA">
+            <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="A0AEBA">
               <pm:latin face="Arial" sz="240" weight="normal" i="1"/>
               <pm:cs/>
               <pm:ea/>
@@ -8073,7 +8070,7 @@
         <color rgb="FFA0AEBA"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="A0AEBA">
+            <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="A0AEBA">
               <pm:latin face="Arial" sz="240" weight="normal" i="1"/>
               <pm:cs/>
               <pm:ea/>
@@ -8122,7 +8119,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -8137,7 +8134,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -8153,7 +8150,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -8169,7 +8166,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -8184,7 +8181,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="FFFFFF" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="FFFFFF" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -8199,7 +8196,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="FFFFFF" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="FFFFFF" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -8214,7 +8211,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -8229,7 +8226,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="444444" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="444444" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -8245,7 +8242,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="200" lang="default" weight="bold"/>
@@ -8261,7 +8258,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="FFFFFF" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="FFFFFF" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="200" lang="default" weight="bold"/>
@@ -8277,7 +8274,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="FFFFFF" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="FFFFFF" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -8293,7 +8290,7 @@
       <sz val="12"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="A0AEBA" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="A0AEBA" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="240" lang="default" i="1"/>
             <pm:cs face="Times New Roman" sz="240" lang="default" i="1"/>
             <pm:ea face="SimSun" sz="240" lang="default" i="1"/>
@@ -8309,7 +8306,7 @@
       <sz val="12"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="FF6600" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="FF6600" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="240" lang="default" i="1"/>
             <pm:cs face="Times New Roman" sz="240" lang="default" i="1"/>
             <pm:ea face="SimSun" sz="240" lang="default" i="1"/>
@@ -8325,7 +8322,7 @@
       <sz val="12"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="99CC00" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="99CC00" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="240" lang="default" i="1"/>
             <pm:cs face="Times New Roman" sz="240" lang="default" i="1"/>
             <pm:ea face="SimSun" sz="240" lang="default" i="1"/>
@@ -8341,7 +8338,7 @@
       <sz val="12"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="3366FF" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="3366FF" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="240" lang="default" i="1"/>
             <pm:cs face="Times New Roman" sz="240" lang="default" i="1"/>
             <pm:ea face="SimSun" sz="240" lang="default" i="1"/>
@@ -8356,7 +8353,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" ulstyle="none" kern="1">
             <pm:latin face="Verdana" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -8372,7 +8369,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="A0AEBA" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="A0AEBA" ulstyle="none" kern="1">
             <pm:latin face="Verdana" sz="200" lang="default" i="1"/>
             <pm:cs face="Times New Roman" sz="200" lang="default" i="1"/>
             <pm:ea face="SimSun" sz="200" lang="default" i="1"/>
@@ -8388,7 +8385,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="FF6600" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="FF6600" ulstyle="none" kern="1">
             <pm:latin face="Verdana" sz="200" lang="default" i="1"/>
             <pm:cs face="Times New Roman" sz="200" lang="default" i="1"/>
             <pm:ea face="SimSun" sz="200" lang="default" i="1"/>
@@ -8404,7 +8401,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="99CC00" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="99CC00" ulstyle="none" kern="1">
             <pm:latin face="Verdana" sz="200" lang="default" i="1"/>
             <pm:cs face="Times New Roman" sz="200" lang="default" i="1"/>
             <pm:ea face="SimSun" sz="200" lang="default" i="1"/>
@@ -8421,7 +8418,7 @@
       <sz val="9"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="1F4E78" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="1F4E78" ulstyle="none" kern="1">
             <pm:latin face="Verdana" sz="180" lang="default" weight="bold" i="1"/>
             <pm:cs face="Times New Roman" sz="180" lang="default" weight="bold" i="1"/>
             <pm:ea face="SimSun" sz="180" lang="default" weight="bold" i="1"/>
@@ -8438,7 +8435,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" ulstyle="none" kern="1">
             <pm:latin face="Verdana" sz="200" lang="default" weight="bold" i="1"/>
             <pm:cs face="Times New Roman" sz="200" lang="default" weight="bold" i="1"/>
             <pm:ea face="SimSun" sz="200" lang="default" weight="bold" i="1"/>
@@ -8453,7 +8450,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="FFFFFF" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="FFFFFF" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -8469,7 +8466,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" ulstyle="none" kern="1">
             <pm:latin face="Verdana" sz="200" lang="default" i="1"/>
             <pm:cs face="Times New Roman" sz="200" lang="default" i="1"/>
             <pm:ea face="SimSun" sz="200" lang="default" i="1"/>
@@ -8485,7 +8482,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0070C0" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0070C0" ulstyle="none" kern="1">
             <pm:latin face="Verdana" sz="200" lang="default" i="1"/>
             <pm:cs face="Times New Roman" sz="200" lang="default" i="1"/>
             <pm:ea face="SimSun" sz="200" lang="default" i="1"/>
@@ -8501,7 +8498,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -8518,7 +8515,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -8535,7 +8532,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -8552,7 +8549,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -8569,7 +8566,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -8586,7 +8583,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -8603,7 +8600,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -8620,7 +8617,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -8637,7 +8634,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -8654,7 +8651,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -8671,7 +8668,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -8688,7 +8685,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -8705,7 +8702,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -8722,7 +8719,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -8739,7 +8736,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -8756,7 +8753,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -8773,7 +8770,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -8790,7 +8787,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -8807,7 +8804,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -8824,7 +8821,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -8841,7 +8838,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -8858,7 +8855,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -8875,7 +8872,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -8892,7 +8889,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -8909,7 +8906,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -8926,7 +8923,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -8943,7 +8940,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -8960,7 +8957,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -8977,7 +8974,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -8994,7 +8991,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -9011,7 +9008,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -9028,7 +9025,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -9045,7 +9042,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -9062,7 +9059,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -9079,7 +9076,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -9096,7 +9093,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -9113,7 +9110,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -9130,7 +9127,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -9147,7 +9144,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -9164,7 +9161,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -9181,7 +9178,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -9198,7 +9195,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -9215,7 +9212,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -9232,7 +9229,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -9249,7 +9246,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -9266,7 +9263,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -9283,7 +9280,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -9300,7 +9297,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -9317,7 +9314,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -9334,7 +9331,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -9351,7 +9348,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -9368,7 +9365,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -9385,7 +9382,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -9402,7 +9399,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -9419,7 +9416,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -9436,7 +9433,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -9453,7 +9450,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -9470,7 +9467,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -9487,7 +9484,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -9504,7 +9501,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -9521,7 +9518,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -9538,7 +9535,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -9555,7 +9552,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -9572,7 +9569,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -9589,7 +9586,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -9606,7 +9603,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -9623,7 +9620,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -9640,7 +9637,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -9657,7 +9654,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -9674,7 +9671,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -9691,7 +9688,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -9708,7 +9705,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -9725,7 +9722,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -9742,7 +9739,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -9759,7 +9756,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -9776,7 +9773,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -9793,7 +9790,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -9810,7 +9807,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -9827,7 +9824,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -9844,7 +9841,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -9861,7 +9858,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -9878,7 +9875,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -9895,7 +9892,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -9912,7 +9909,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -9929,7 +9926,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -9946,7 +9943,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -9963,7 +9960,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -9980,7 +9977,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -9997,7 +9994,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -10014,7 +10011,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -10031,7 +10028,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -10048,7 +10045,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -10065,7 +10062,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -10082,7 +10079,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -10099,7 +10096,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -10116,7 +10113,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -10133,7 +10130,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -10150,7 +10147,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -10167,7 +10164,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -10184,7 +10181,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -10201,7 +10198,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -10218,7 +10215,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -10235,7 +10232,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -10252,7 +10249,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -10269,7 +10266,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -10286,7 +10283,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -10303,7 +10300,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -10320,7 +10317,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -10337,7 +10334,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -10354,7 +10351,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -10371,7 +10368,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -10388,7 +10385,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -10405,7 +10402,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -10422,7 +10419,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -10439,7 +10436,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -10456,7 +10453,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -10473,7 +10470,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -10490,7 +10487,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -10507,7 +10504,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -10524,7 +10521,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -10541,7 +10538,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -10558,7 +10555,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -10575,7 +10572,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -10592,7 +10589,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -10609,7 +10606,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -10626,7 +10623,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -10643,7 +10640,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -10660,7 +10657,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -10677,7 +10674,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -10694,7 +10691,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -10711,7 +10708,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -10728,7 +10725,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -10745,7 +10742,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -10762,7 +10759,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -10779,7 +10776,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -10796,7 +10793,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -10813,7 +10810,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -10830,7 +10827,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -10847,7 +10844,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -10864,7 +10861,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -10881,7 +10878,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -10898,7 +10895,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -10915,7 +10912,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -10932,7 +10929,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -10949,7 +10946,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -10966,7 +10963,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -10983,7 +10980,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -11000,7 +10997,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -11017,7 +11014,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -11034,7 +11031,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -11051,7 +11048,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -11068,7 +11065,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -11085,7 +11082,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -11102,7 +11099,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -11119,7 +11116,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -11136,7 +11133,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -11153,7 +11150,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -11170,7 +11167,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -11187,7 +11184,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -11204,7 +11201,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -11221,7 +11218,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -11238,7 +11235,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -11255,7 +11252,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -11272,7 +11269,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -11289,7 +11286,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -11306,7 +11303,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -11323,7 +11320,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -11340,7 +11337,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -11357,7 +11354,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -11374,7 +11371,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -11391,7 +11388,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -11408,7 +11405,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -11425,7 +11422,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -11442,7 +11439,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -11459,7 +11456,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -11476,7 +11473,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -11493,7 +11490,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -11510,7 +11507,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -11527,7 +11524,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -11544,7 +11541,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -11561,7 +11558,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -11578,7 +11575,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -11595,7 +11592,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -11612,7 +11609,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -11629,7 +11626,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -11646,7 +11643,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -11663,7 +11660,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -11680,7 +11677,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -11697,7 +11694,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -11714,7 +11711,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582733427" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583539609" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -11737,7 +11734,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1582733427" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1583539609" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -11748,7 +11745,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1582733427" type="1" fgLvl="100" fgClr="00F4C7C3" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1583539609" type="1" fgLvl="100" fgClr="00F4C7C3" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -11759,7 +11756,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1582733427" type="1" fgLvl="100" fgClr="00000000" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1583539609" type="1" fgLvl="100" fgClr="00000000" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -11770,7 +11767,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1582733427" type="1" fgLvl="100" fgClr="0000FF00" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1583539609" type="1" fgLvl="100" fgClr="0000FF00" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -11781,7 +11778,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1582733427" type="1" fgLvl="100" fgClr="00FFFF00" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1583539609" type="1" fgLvl="100" fgClr="00FFFF00" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -11792,7 +11789,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1582733427" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1583539609" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -11803,7 +11800,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1582733427" type="1" fgLvl="100" fgClr="00B7E1CD" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1583539609" type="1" fgLvl="100" fgClr="00B7E1CD" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -11814,7 +11811,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1582733427" type="1" fgLvl="100" fgClr="00FCE8B2" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1583539609" type="1" fgLvl="100" fgClr="00FCE8B2" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -11825,7 +11822,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1582733427" type="1" fgLvl="100" fgClr="0000FFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1583539609" type="1" fgLvl="100" fgClr="0000FFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -11836,7 +11833,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1582733427" type="1" fgLvl="100" fgClr="00980000" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1583539609" type="1" fgLvl="100" fgClr="00980000" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -11847,7 +11844,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1582733427" type="1" fgLvl="100" fgClr="00351C75" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1583539609" type="1" fgLvl="100" fgClr="00351C75" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -11858,7 +11855,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1582733427" type="1" fgLvl="100" fgClr="000000FF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1583539609" type="1" fgLvl="100" fgClr="000000FF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -11869,7 +11866,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1582733427" type="1" fgLvl="100" fgClr="00FFFF00" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1583539609" type="1" fgLvl="100" fgClr="00FFFF00" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -11880,7 +11877,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1582733427" type="1" fgLvl="100" fgClr="00FF9900" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1583539609" type="1" fgLvl="100" fgClr="00FF9900" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -11891,7 +11888,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1582733427" type="1" fgLvl="100" fgClr="00FCE8B2" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1583539609" type="1" fgLvl="100" fgClr="00FCE8B2" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -11902,7 +11899,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1582733427" type="1" fgLvl="100" fgClr="00F9CB9C" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1583539609" type="1" fgLvl="100" fgClr="00F9CB9C" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -11913,7 +11910,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1582733427" type="1" fgLvl="100" fgClr="001F4E78" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1583539609" type="1" fgLvl="100" fgClr="001F4E78" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -11924,7 +11921,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1582733427" type="1" fgLvl="100" fgClr="009BC2E6" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1583539609" type="1" fgLvl="100" fgClr="009BC2E6" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -11935,7 +11932,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1582733427" type="1" fgLvl="100" fgClr="00FF0000" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1583539609" type="1" fgLvl="100" fgClr="00FF0000" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -11946,7 +11943,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1582733427" type="1" fgLvl="100" fgClr="00660033" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1583539609" type="1" fgLvl="100" fgClr="00660033" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -11957,7 +11954,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1582733427" type="1" fgLvl="100" fgClr="0000B050" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1583539609" type="1" fgLvl="100" fgClr="0000B050" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -11968,7 +11965,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1582733427" type="1" fgLvl="100" fgClr="00FFC000" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1583539609" type="1" fgLvl="100" fgClr="00FFC000" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -11979,7 +11976,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1582733427" type="1" fgLvl="100" fgClr="00002060" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1583539609" type="1" fgLvl="100" fgClr="00002060" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -11990,7 +11987,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1582733427" type="1" fgLvl="100" fgClr="00FFFF00" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1583539609" type="1" fgLvl="100" fgClr="00FFFF00" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -12001,7 +11998,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1582733427" type="1" fgLvl="100" fgClr="00FFFF00" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1583539609" type="1" fgLvl="100" fgClr="00FFFF00" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -12012,7 +12009,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1582733427" type="1" fgLvl="100" fgClr="00FFFF00" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1583539609" type="1" fgLvl="100" fgClr="00FFFF00" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -12023,7 +12020,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1582733427" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1583539609" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -12034,7 +12031,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1582733427" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1583539609" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -12045,7 +12042,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1582733427" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1583539609" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -12056,7 +12053,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1582733427" type="1" fgLvl="100" fgClr="00F4C7C3" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1583539609" type="1" fgLvl="100" fgClr="00F4C7C3" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -12067,7 +12064,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1582733427" type="1" fgLvl="100" fgClr="00F4C7C3" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1583539609" type="1" fgLvl="100" fgClr="00F4C7C3" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -12078,7 +12075,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1582733427" type="1" fgLvl="100" fgClr="00FFFF00" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1583539609" type="1" fgLvl="100" fgClr="00FFFF00" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -12089,7 +12086,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1582733427" type="1" fgLvl="100" fgClr="00FFFF00" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1583539609" type="1" fgLvl="100" fgClr="00FFFF00" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -12100,7 +12097,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1582733427" type="1" fgLvl="100" fgClr="00FFFF00" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1583539609" type="1" fgLvl="100" fgClr="00FFFF00" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -12111,7 +12108,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1582733427" type="1" fgLvl="100" fgClr="00000000" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1583539609" type="1" fgLvl="100" fgClr="00000000" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -12122,7 +12119,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1582733427" type="1" fgLvl="100" fgClr="00000000" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1583539609" type="1" fgLvl="100" fgClr="00000000" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -12133,7 +12130,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1582733427" type="1" fgLvl="100" fgClr="00000000" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1583539609" type="1" fgLvl="100" fgClr="00000000" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -12144,7 +12141,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1582733427" type="1" fgLvl="100" fgClr="00B7E1CD" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1583539609" type="1" fgLvl="100" fgClr="00B7E1CD" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -12155,7 +12152,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1582733427" type="1" fgLvl="100" fgClr="00B7E1CD" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1583539609" type="1" fgLvl="100" fgClr="00B7E1CD" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -12166,7 +12163,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1582733427" type="1" fgLvl="100" fgClr="00B7E1CD" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1583539609" type="1" fgLvl="100" fgClr="00B7E1CD" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -12177,7 +12174,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1582733427" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1583539609" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -12188,7 +12185,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1582733427" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1583539609" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -12199,7 +12196,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1582733427" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1583539609" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -12210,7 +12207,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1582733427" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1583539609" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -12221,7 +12218,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1582733427" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1583539609" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -12232,7 +12229,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1582733427" type="1" fgLvl="100" fgClr="00F4C7C3" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1583539609" type="1" fgLvl="100" fgClr="00F4C7C3" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -12243,7 +12240,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1582733427" type="1" fgLvl="100" fgClr="00F4C7C3" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1583539609" type="1" fgLvl="100" fgClr="00F4C7C3" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -12254,7 +12251,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1582733427" type="1" fgLvl="100" fgClr="00F4C7C3" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1583539609" type="1" fgLvl="100" fgClr="00F4C7C3" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -12265,7 +12262,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1582733427" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1583539609" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -12276,7 +12273,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1582733427" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1583539609" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -12287,7 +12284,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1582733427" type="1" fgLvl="100" fgClr="00FCE8B2" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1583539609" type="1" fgLvl="100" fgClr="00FCE8B2" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -12298,7 +12295,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1582733427" type="1" fgLvl="100" fgClr="00FCE8B2" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1583539609" type="1" fgLvl="100" fgClr="00FCE8B2" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -12309,7 +12306,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1582733427" type="1" fgLvl="100" fgClr="00FCE8B2" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1583539609" type="1" fgLvl="100" fgClr="00FCE8B2" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -12320,7 +12317,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1582733427" type="1" fgLvl="100" fgClr="00DCE6F1" bgLvl="100" bgClr="00DCE6F1"/>
+            <pm:shade xmlns:pm="smNativeData" id="1583539609" type="1" fgLvl="100" fgClr="00DCE6F1" bgLvl="100" bgClr="00DCE6F1"/>
           </ext>
         </extLst>
       </patternFill>
@@ -12331,7 +12328,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1582733427" type="1" fgLvl="100" fgClr="004F81BD" bgLvl="100" bgClr="004F81BD"/>
+            <pm:shade xmlns:pm="smNativeData" id="1583539609" type="1" fgLvl="100" fgClr="004F81BD" bgLvl="100" bgClr="004F81BD"/>
           </ext>
         </extLst>
       </patternFill>
@@ -12342,7 +12339,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1582733427" type="1" fgLvl="100" fgClr="00DAEEF3" bgLvl="100" bgClr="00DAEEF3"/>
+            <pm:shade xmlns:pm="smNativeData" id="1583539609" type="1" fgLvl="100" fgClr="00DAEEF3" bgLvl="100" bgClr="00DAEEF3"/>
           </ext>
         </extLst>
       </patternFill>
@@ -12353,7 +12350,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1582733427" type="1" fgLvl="100" fgClr="004BACC6" bgLvl="100" bgClr="004BACC6"/>
+            <pm:shade xmlns:pm="smNativeData" id="1583539609" type="1" fgLvl="100" fgClr="004BACC6" bgLvl="100" bgClr="004BACC6"/>
           </ext>
         </extLst>
       </patternFill>
@@ -12364,7 +12361,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1582733427" type="1" fgLvl="100" fgClr="00FDE9D9" bgLvl="100" bgClr="00FDE9D9"/>
+            <pm:shade xmlns:pm="smNativeData" id="1583539609" type="1" fgLvl="100" fgClr="00FDE9D9" bgLvl="100" bgClr="00FDE9D9"/>
           </ext>
         </extLst>
       </patternFill>
@@ -12375,7 +12372,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1582733427" type="1" fgLvl="100" fgClr="00F79646" bgLvl="100" bgClr="00F79646"/>
+            <pm:shade xmlns:pm="smNativeData" id="1583539609" type="1" fgLvl="100" fgClr="00F79646" bgLvl="100" bgClr="00F79646"/>
           </ext>
         </extLst>
       </patternFill>
@@ -12397,7 +12394,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1582733427"/>
+          <pm:border xmlns:pm="smNativeData" id="1583539609"/>
         </ext>
       </extLst>
     </border>
@@ -12416,7 +12413,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1582733427">
+          <pm:border xmlns:pm="smNativeData" id="1583539609">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -12438,7 +12435,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1582733427">
+          <pm:border xmlns:pm="smNativeData" id="1583539609">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -12460,7 +12457,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1582733427">
+          <pm:border xmlns:pm="smNativeData" id="1583539609">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -12482,7 +12479,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1582733427">
+          <pm:border xmlns:pm="smNativeData" id="1583539609">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -12504,7 +12501,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1582733427">
+          <pm:border xmlns:pm="smNativeData" id="1583539609">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -12526,7 +12523,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1582733427">
+          <pm:border xmlns:pm="smNativeData" id="1583539609">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -12547,7 +12544,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1582733427">
+          <pm:border xmlns:pm="smNativeData" id="1583539609">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -12569,7 +12566,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1582733427">
+          <pm:border xmlns:pm="smNativeData" id="1583539609">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -12591,7 +12588,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1582733427">
+          <pm:border xmlns:pm="smNativeData" id="1583539609">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -12613,7 +12610,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1582733427">
+          <pm:border xmlns:pm="smNativeData" id="1583539609">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -12635,7 +12632,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1582733427">
+          <pm:border xmlns:pm="smNativeData" id="1583539609">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -12657,7 +12654,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1582733427">
+          <pm:border xmlns:pm="smNativeData" id="1583539609">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -12679,7 +12676,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1582733427">
+          <pm:border xmlns:pm="smNativeData" id="1583539609">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -12700,7 +12697,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1582733427">
+          <pm:border xmlns:pm="smNativeData" id="1583539609">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -12721,7 +12718,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1582733427">
+          <pm:border xmlns:pm="smNativeData" id="1583539609">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -12742,7 +12739,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1582733427">
+          <pm:border xmlns:pm="smNativeData" id="1583539609">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -12764,7 +12761,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1582733427"/>
+          <pm:border xmlns:pm="smNativeData" id="1583539609"/>
         </ext>
       </extLst>
     </border>
@@ -12783,7 +12780,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1582733427"/>
+          <pm:border xmlns:pm="smNativeData" id="1583539609"/>
         </ext>
       </extLst>
     </border>
@@ -12802,7 +12799,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1582733427"/>
+          <pm:border xmlns:pm="smNativeData" id="1583539609"/>
         </ext>
       </extLst>
     </border>
@@ -12821,7 +12818,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1582733427"/>
+          <pm:border xmlns:pm="smNativeData" id="1583539609"/>
         </ext>
       </extLst>
     </border>
@@ -12840,7 +12837,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1582733427"/>
+          <pm:border xmlns:pm="smNativeData" id="1583539609"/>
         </ext>
       </extLst>
     </border>
@@ -12859,7 +12856,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1582733427"/>
+          <pm:border xmlns:pm="smNativeData" id="1583539609"/>
         </ext>
       </extLst>
     </border>
@@ -12878,7 +12875,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1582733427"/>
+          <pm:border xmlns:pm="smNativeData" id="1583539609"/>
         </ext>
       </extLst>
     </border>
@@ -12897,7 +12894,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1582733427">
+          <pm:border xmlns:pm="smNativeData" id="1583539609">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="30" dist="20" width2="20" rgb="CCCCCC"/>
             <pm:line position="right" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
@@ -12920,7 +12917,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1582733427">
+          <pm:border xmlns:pm="smNativeData" id="1583539609">
             <pm:line position="left" type="1" style="0" width="30" dist="20" width2="20" rgb="CCCCCC"/>
             <pm:line position="right" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -12942,7 +12939,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1582733427">
+          <pm:border xmlns:pm="smNativeData" id="1583539609">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="30" dist="20" width2="20" rgb="CCCCCC"/>
             <pm:line position="right" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
@@ -12965,7 +12962,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1582733427">
+          <pm:border xmlns:pm="smNativeData" id="1583539609">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
@@ -12988,7 +12985,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1582733427">
+          <pm:border xmlns:pm="smNativeData" id="1583539609">
             <pm:line position="left" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -13010,7 +13007,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1582733427">
+          <pm:border xmlns:pm="smNativeData" id="1583539609">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
@@ -13033,7 +13030,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1582733427">
+          <pm:border xmlns:pm="smNativeData" id="1583539609">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -13055,7 +13052,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1582733427">
+          <pm:border xmlns:pm="smNativeData" id="1583539609">
             <pm:line position="right" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -13076,7 +13073,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1582733427">
+          <pm:border xmlns:pm="smNativeData" id="1583539609">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
@@ -13099,7 +13096,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1582733427">
+          <pm:border xmlns:pm="smNativeData" id="1583539609">
             <pm:line position="left" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -13121,7 +13118,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1582733427">
+          <pm:border xmlns:pm="smNativeData" id="1583539609">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
@@ -13144,7 +13141,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1582733427">
+          <pm:border xmlns:pm="smNativeData" id="1583539609">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
@@ -13167,7 +13164,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1582733427">
+          <pm:border xmlns:pm="smNativeData" id="1583539609">
             <pm:line position="left" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -13189,7 +13186,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1582733427">
+          <pm:border xmlns:pm="smNativeData" id="1583539609">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
@@ -13212,7 +13209,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1582733427">
+          <pm:border xmlns:pm="smNativeData" id="1583539609">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
@@ -13235,7 +13232,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1582733427">
+          <pm:border xmlns:pm="smNativeData" id="1583539609">
             <pm:line position="left" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -13257,7 +13254,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1582733427">
+          <pm:border xmlns:pm="smNativeData" id="1583539609">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
@@ -13280,7 +13277,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1582733427">
+          <pm:border xmlns:pm="smNativeData" id="1583539609">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -13302,7 +13299,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1582733427">
+          <pm:border xmlns:pm="smNativeData" id="1583539609">
             <pm:line position="left" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -13323,7 +13320,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1582733427">
+          <pm:border xmlns:pm="smNativeData" id="1583539609">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -13345,7 +13342,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1582733427">
+          <pm:border xmlns:pm="smNativeData" id="1583539609">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -13366,7 +13363,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1582733427"/>
+          <pm:border xmlns:pm="smNativeData" id="1583539609"/>
         </ext>
       </extLst>
     </border>
@@ -13385,7 +13382,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1582733427">
+          <pm:border xmlns:pm="smNativeData" id="1583539609">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
@@ -13408,7 +13405,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1582733427">
+          <pm:border xmlns:pm="smNativeData" id="1583539609">
             <pm:line position="left" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -13430,7 +13427,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1582733427">
+          <pm:border xmlns:pm="smNativeData" id="1583539609">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
@@ -13453,7 +13450,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1582733427">
+          <pm:border xmlns:pm="smNativeData" id="1583539609">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -13475,7 +13472,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1582733427">
+          <pm:border xmlns:pm="smNativeData" id="1583539609">
             <pm:line position="right" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -13496,7 +13493,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1582733427">
+          <pm:border xmlns:pm="smNativeData" id="1583539609">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
@@ -13519,7 +13516,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1582733427">
+          <pm:border xmlns:pm="smNativeData" id="1583539609">
             <pm:line position="left" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -13541,7 +13538,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1582733427">
+          <pm:border xmlns:pm="smNativeData" id="1583539609">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
@@ -13564,7 +13561,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1582733427"/>
+          <pm:border xmlns:pm="smNativeData" id="1583539609"/>
         </ext>
       </extLst>
     </border>
@@ -13583,7 +13580,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1582733427"/>
+          <pm:border xmlns:pm="smNativeData" id="1583539609"/>
         </ext>
       </extLst>
     </border>
@@ -13602,7 +13599,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1582733427"/>
+          <pm:border xmlns:pm="smNativeData" id="1583539609"/>
         </ext>
       </extLst>
     </border>
@@ -13621,7 +13618,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1582733427"/>
+          <pm:border xmlns:pm="smNativeData" id="1583539609"/>
         </ext>
       </extLst>
     </border>
@@ -13640,7 +13637,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1582733427"/>
+          <pm:border xmlns:pm="smNativeData" id="1583539609"/>
         </ext>
       </extLst>
     </border>
@@ -13659,7 +13656,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1582733427"/>
+          <pm:border xmlns:pm="smNativeData" id="1583539609"/>
         </ext>
       </extLst>
     </border>
@@ -14669,10 +14666,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1582733427" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1583539609" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1582733427" count="37">
+      <pm:colors xmlns:pm="smNativeData" id="1583539609" count="37">
         <pm:color name="Cor 24" rgb="0563C1"/>
         <pm:color name="Cor 25" rgb="444444"/>
         <pm:color name="Cor 26" rgb="A0AEBA"/>
@@ -14719,13 +14716,13 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela4" displayName="Tabela4" ref="A2:Q50" totalsRowShown="0">
   <autoFilter ref="A2:Q50">
-    <filterColumn colId="3">
+    <filterColumn colId="1">
       <filters>
-        <filter val="3/45"/>
+        <filter val="Mephisto"/>
       </filters>
     </filterColumn>
-    <sortState ref="G3:G50">
-      <sortCondition descending="1" ref="G2:G50"/>
+    <sortState ref="N3:N50">
+      <sortCondition ref="N2:N50"/>
     </sortState>
   </autoFilter>
   <tableColumns count="17">
@@ -41438,7 +41435,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1582733427" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1583539609" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -41447,16 +41444,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1582733427" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1582733427" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1582733427" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1582733427" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1583539609" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1583539609" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1583539609" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1583539609" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1582733427" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1583539609" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -41470,8 +41467,8 @@
   <dimension ref="A1:Q50"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="D51" sqref="D51"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.40"/>
@@ -41484,7 +41481,7 @@
     <col min="9" max="9" width="11.428571" hidden="1" customWidth="1" style="57">
       <extLst>
         <ext uri="smNativeData">
-          <pm:columnDef xmlns:pm="smNativeData" id="1582733427" min="9" max="9" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:columnDef xmlns:pm="smNativeData" id="1583539609" min="9" max="9" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </col>
@@ -41560,11 +41557,11 @@
       </c>
     </row>
     <row r="3" spans="1:17" hidden="1">
-      <c r="A3" s="67" t="n">
-        <v>4</v>
+      <c r="A3" s="68" t="n">
+        <v>2</v>
       </c>
       <c r="B3" s="73" t="s">
-        <v>1178</v>
+        <v>130</v>
       </c>
       <c r="C3" s="74" t="n">
         <v>5</v>
@@ -41573,159 +41570,169 @@
         <v>2579</v>
       </c>
       <c r="E3" s="78" t="n">
-        <v>8077</v>
+        <v>7830</v>
       </c>
       <c r="F3" s="78" t="n">
-        <v>20485</v>
+        <v>25387</v>
       </c>
       <c r="G3" s="78" t="n">
-        <v>2115</v>
+        <v>2005</v>
       </c>
       <c r="H3" s="84" t="n">
         <v>0</v>
       </c>
-      <c r="I3" s="75" t="s">
+      <c r="I3" s="83" t="s">
         <v>2580</v>
       </c>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="73" t="s">
+      <c r="J3" s="61"/>
+      <c r="K3" s="61" t="s">
         <v>2581</v>
       </c>
-      <c r="M3" s="76"/>
-      <c r="N3" s="73" t="s">
+      <c r="L3" s="59" t="s">
         <v>2582</v>
       </c>
-      <c r="O3" s="59"/>
-      <c r="P3" s="74" t="n">
+      <c r="M3" s="72"/>
+      <c r="N3" s="59" t="s">
+        <v>2583</v>
+      </c>
+      <c r="O3" s="61"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60" t="n">
         <v>3</v>
-      </c>
-      <c r="Q3" s="74" t="n">
-        <v>8</v>
       </c>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1582733427" r="3" hidden="0" collapsedDB="1" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1583539609" r="3" hidden="0" collapsedDB="1" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
     <row r="4" spans="1:17" hidden="1">
-      <c r="A4" s="68" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" s="73" t="s">
-        <v>130</v>
-      </c>
-      <c r="C4" s="74" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" s="75" t="s">
-        <v>2579</v>
-      </c>
-      <c r="E4" s="78" t="n">
-        <v>7830</v>
-      </c>
-      <c r="F4" s="78" t="n">
-        <v>25387</v>
-      </c>
-      <c r="G4" s="78" t="n">
-        <v>2005</v>
+      <c r="A4" s="65" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="60" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" s="62" t="s">
+        <v>2584</v>
+      </c>
+      <c r="E4" s="77" t="n">
+        <v>6280</v>
+      </c>
+      <c r="F4" s="77" t="n">
+        <v>14807</v>
+      </c>
+      <c r="G4" s="77" t="n">
+        <v>1255</v>
       </c>
       <c r="H4" s="84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="83" t="s">
-        <v>2580</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="I4" s="62"/>
       <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="59" t="s">
+      <c r="K4" s="61" t="s">
         <v>2581</v>
       </c>
-      <c r="M4" s="72"/>
-      <c r="N4" s="59" t="s">
+      <c r="L4" t="s">
+        <v>2585</v>
+      </c>
+      <c r="M4" s="71" t="s">
+        <v>2586</v>
+      </c>
+      <c r="N4" s="73" t="s">
         <v>2583</v>
       </c>
-      <c r="O4" s="61"/>
-      <c r="P4" s="60"/>
-      <c r="Q4" s="60" t="n">
+      <c r="O4" s="71" t="s">
+        <v>2586</v>
+      </c>
+      <c r="P4" s="57" t="n">
         <v>3</v>
+      </c>
+      <c r="Q4" s="57" t="n">
+        <v>1</v>
       </c>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1582733427" r="4" hidden="0" collapsedDB="1" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1583539609" r="4" hidden="0" collapsedDB="1" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
     <row r="5" spans="1:17" hidden="1">
-      <c r="A5" s="64" t="n">
-        <v>0</v>
+      <c r="A5" s="67" t="n">
+        <v>4</v>
       </c>
       <c r="B5" s="73" t="s">
-        <v>643</v>
+        <v>2587</v>
       </c>
       <c r="C5" s="74" t="n">
         <v>5</v>
       </c>
       <c r="D5" s="75" t="s">
-        <v>2579</v>
+        <v>2588</v>
       </c>
       <c r="E5" s="78" t="n">
-        <v>8455</v>
+        <v>5591</v>
       </c>
       <c r="F5" s="78" t="n">
-        <v>20910</v>
+        <v>15524</v>
       </c>
       <c r="G5" s="78" t="n">
-        <v>1932</v>
+        <v>1463</v>
       </c>
       <c r="H5" s="84" t="n">
-        <v>11</v>
-      </c>
-      <c r="I5" s="75"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="75" t="s">
+        <v>2580</v>
+      </c>
       <c r="J5" s="76"/>
       <c r="K5" s="76" t="s">
-        <v>2584</v>
+        <v>2581</v>
       </c>
       <c r="L5" s="73" t="s">
-        <v>2581</v>
+        <v>2582</v>
       </c>
       <c r="M5" s="76"/>
       <c r="N5" s="73" t="s">
-        <v>2582</v>
+        <v>2583</v>
       </c>
       <c r="O5" s="59"/>
       <c r="P5" s="74" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q5" s="74"/>
+        <v>6</v>
+      </c>
+      <c r="Q5" s="74" t="n">
+        <v>9</v>
+      </c>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1582733427" r="5" hidden="0" collapsedDB="1" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1583539609" r="5" hidden="0" collapsedDB="1" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
     <row r="6" spans="1:17" hidden="1">
-      <c r="A6" s="66" t="n">
-        <v>5</v>
+      <c r="A6" s="67" t="n">
+        <v>4</v>
       </c>
       <c r="B6" s="73" t="s">
-        <v>1097</v>
+        <v>2589</v>
       </c>
       <c r="C6" s="74" t="n">
         <v>5</v>
       </c>
       <c r="D6" s="75" t="s">
-        <v>2579</v>
+        <v>2588</v>
       </c>
       <c r="E6" s="78" t="n">
-        <v>7951</v>
+        <v>5968</v>
       </c>
       <c r="F6" s="78" t="n">
-        <v>20378</v>
+        <v>19399</v>
       </c>
       <c r="G6" s="78" t="n">
-        <v>1861</v>
+        <v>1409</v>
       </c>
       <c r="H6" s="84" t="n">
         <v>0</v>
@@ -41733,179 +41740,182 @@
       <c r="I6" s="75" t="s">
         <v>2580</v>
       </c>
-      <c r="J6" s="76"/>
+      <c r="J6" s="76" t="s">
+        <v>2590</v>
+      </c>
       <c r="K6" s="76" t="s">
-        <v>2584</v>
+        <v>2581</v>
       </c>
       <c r="L6" s="73" t="s">
-        <v>2585</v>
-      </c>
-      <c r="M6" s="71" t="s">
-        <v>2586</v>
-      </c>
+        <v>2591</v>
+      </c>
+      <c r="M6" s="76"/>
       <c r="N6" s="73" t="s">
-        <v>2587</v>
+        <v>2583</v>
       </c>
       <c r="O6" s="59"/>
-      <c r="P6" s="74" t="n">
+      <c r="P6" s="74"/>
+      <c r="Q6" s="74" t="n">
         <v>3</v>
       </c>
-      <c r="Q6" s="74"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1582733427" r="6" hidden="0" collapsedDB="1" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1583539609" r="6" hidden="0" collapsedDB="1" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
     <row r="7" spans="1:17" hidden="1">
-      <c r="A7" s="67" t="n">
+      <c r="A7" s="68" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" s="59" t="s">
+        <v>416</v>
+      </c>
+      <c r="C7" s="60" t="n">
         <v>4</v>
       </c>
-      <c r="B7" s="73" t="s">
-        <v>2178</v>
-      </c>
-      <c r="C7" s="74" t="n">
-        <v>5</v>
-      </c>
-      <c r="D7" s="75" t="s">
-        <v>2579</v>
-      </c>
-      <c r="E7" s="78" t="n">
-        <v>7926</v>
-      </c>
-      <c r="F7" s="78" t="n">
-        <v>21976</v>
-      </c>
-      <c r="G7" s="78" t="n">
-        <v>1861</v>
+      <c r="D7" s="62" t="s">
+        <v>2584</v>
+      </c>
+      <c r="E7" s="77" t="n">
+        <v>5953</v>
+      </c>
+      <c r="F7" s="77" t="n">
+        <v>14577</v>
+      </c>
+      <c r="G7" s="77" t="n">
+        <v>1371</v>
       </c>
       <c r="H7" s="84" t="n">
-        <v>80</v>
-      </c>
-      <c r="I7" s="75"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76" t="s">
-        <v>2584</v>
-      </c>
-      <c r="L7" s="73" t="s">
-        <v>2588</v>
-      </c>
-      <c r="M7" s="76"/>
-      <c r="N7" s="73" t="s">
-        <v>2587</v>
+        <v>40</v>
+      </c>
+      <c r="I7" s="81"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="59" t="s">
+        <v>2585</v>
+      </c>
+      <c r="M7" s="72"/>
+      <c r="N7" s="59" t="s">
+        <v>2583</v>
       </c>
       <c r="O7" s="59"/>
-      <c r="P7" s="74"/>
-      <c r="Q7" s="74"/>
+      <c r="P7" s="60" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="60" t="n">
+        <v>1</v>
+      </c>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1582733427" r="7" hidden="0" collapsedDB="1" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1583539609" r="7" hidden="0" collapsedDB="1" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
     <row r="8" spans="1:17" hidden="1">
-      <c r="A8" s="63" t="n">
+      <c r="A8" s="67" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="59" t="s">
+        <v>591</v>
+      </c>
+      <c r="C8" s="60" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" s="62" t="s">
+        <v>2584</v>
+      </c>
+      <c r="E8" s="77" t="n">
+        <v>5920</v>
+      </c>
+      <c r="F8" s="77" t="n">
+        <v>17318</v>
+      </c>
+      <c r="G8" s="77" t="n">
+        <v>1194</v>
+      </c>
+      <c r="H8" s="84" t="n">
+        <v>58</v>
+      </c>
+      <c r="I8" s="62"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="59" t="s">
+        <v>2585</v>
+      </c>
+      <c r="M8" s="61"/>
+      <c r="N8" s="59" t="s">
+        <v>2583</v>
+      </c>
+      <c r="O8" s="71"/>
+      <c r="P8" s="61" t="n">
         <v>1</v>
       </c>
-      <c r="B8" s="73" t="s">
-        <v>2589</v>
-      </c>
-      <c r="C8" s="74" t="n">
-        <v>5</v>
-      </c>
-      <c r="D8" s="75" t="s">
-        <v>2579</v>
-      </c>
-      <c r="E8" s="78" t="n">
-        <v>7854</v>
-      </c>
-      <c r="F8" s="78" t="n">
-        <v>21763</v>
-      </c>
-      <c r="G8" s="78" t="n">
-        <v>1861</v>
-      </c>
-      <c r="H8" s="84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="75" t="s">
-        <v>2580</v>
-      </c>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="73" t="s">
-        <v>2585</v>
-      </c>
-      <c r="M8" s="71" t="s">
-        <v>2586</v>
-      </c>
-      <c r="N8" s="73" t="s">
-        <v>2590</v>
-      </c>
-      <c r="O8" s="59"/>
-      <c r="P8" s="74" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q8" s="74" t="n">
-        <v>5</v>
+      <c r="Q8" s="61" t="n">
+        <v>4</v>
       </c>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1582733427" r="8" hidden="0" collapsedDB="1" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1583539609" r="8" hidden="0" collapsedDB="1" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" hidden="1">
       <c r="A9" s="66" t="n">
         <v>5</v>
       </c>
       <c r="B9" s="73" t="s">
-        <v>2591</v>
+        <v>1006</v>
       </c>
       <c r="C9" s="74" t="n">
         <v>5</v>
       </c>
       <c r="D9" s="75" t="s">
-        <v>2592</v>
+        <v>2588</v>
       </c>
       <c r="E9" s="78" t="n">
-        <v>6270</v>
+        <v>5978</v>
       </c>
       <c r="F9" s="78" t="n">
-        <v>14971</v>
+        <v>17739</v>
       </c>
       <c r="G9" s="78" t="n">
-        <v>1732</v>
+        <v>1342</v>
       </c>
       <c r="H9" s="84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="75" t="s">
-        <v>2580</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="I9" s="75"/>
       <c r="J9" s="76"/>
       <c r="K9" s="76"/>
       <c r="L9" s="73" t="s">
-        <v>2585</v>
+        <v>2591</v>
       </c>
       <c r="M9" s="71"/>
-      <c r="N9" t="s">
-        <v>2590</v>
-      </c>
-      <c r="O9" s="59"/>
+      <c r="N9" s="73" t="s">
+        <v>2583</v>
+      </c>
+      <c r="O9" s="71" t="s">
+        <v>2592</v>
+      </c>
       <c r="P9" s="74" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Q9" s="74" t="n">
-        <v>8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:rowDef xmlns:pm="smNativeData" id="1583539609" r="9" hidden="0" collapsedDB="1" collapsedOL="0"/>
+        </ext>
+      </extLst>
     </row>
     <row r="10" spans="1:17" hidden="1">
-      <c r="A10" s="64" t="n">
-        <v>0</v>
+      <c r="A10" s="67" t="n">
+        <v>4</v>
       </c>
       <c r="B10" s="59" t="s">
-        <v>472</v>
+        <v>375</v>
       </c>
       <c r="C10" s="60" t="n">
         <v>4</v>
@@ -41914,92 +41924,94 @@
         <v>2593</v>
       </c>
       <c r="E10" s="77" t="n">
-        <v>6356</v>
+        <v>4828</v>
       </c>
       <c r="F10" s="77" t="n">
-        <v>14089</v>
+        <v>7876</v>
       </c>
       <c r="G10" s="77" t="n">
-        <v>1315</v>
+        <v>1135</v>
       </c>
       <c r="H10" s="84" t="n">
-        <v>91</v>
-      </c>
-      <c r="I10" s="81"/>
+        <v>51</v>
+      </c>
+      <c r="I10" s="62"/>
       <c r="J10" s="61"/>
       <c r="K10" s="61"/>
       <c r="L10" s="59" t="s">
-        <v>2585</v>
-      </c>
-      <c r="M10" s="72"/>
+        <v>2591</v>
+      </c>
+      <c r="M10" s="61"/>
       <c r="N10" s="59" t="s">
-        <v>2582</v>
-      </c>
-      <c r="O10" s="59"/>
-      <c r="P10" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="60" t="n">
-        <v>10</v>
+        <v>2583</v>
+      </c>
+      <c r="O10" s="71" t="s">
+        <v>2586</v>
+      </c>
+      <c r="P10" s="61" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q10" s="61" t="n">
+        <v>7</v>
       </c>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1582733427" r="10" hidden="0" collapsedDB="1" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1583539609" r="10" hidden="0" collapsedDB="1" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
     <row r="11" spans="1:17" hidden="1">
-      <c r="A11" s="66" t="n">
+      <c r="A11" s="67" t="n">
+        <v>4</v>
+      </c>
+      <c r="B11" s="73" t="s">
+        <v>2594</v>
+      </c>
+      <c r="C11" s="74" t="n">
         <v>5</v>
       </c>
-      <c r="B11" s="59" t="s">
-        <v>276</v>
-      </c>
-      <c r="C11" s="60" t="n">
-        <v>4</v>
-      </c>
-      <c r="D11" s="62" t="s">
-        <v>2593</v>
-      </c>
-      <c r="E11" s="77" t="n">
-        <v>6304</v>
-      </c>
-      <c r="F11" s="77" t="n">
-        <v>12653</v>
-      </c>
-      <c r="G11" s="77" t="n">
-        <v>1194</v>
-      </c>
-      <c r="H11" s="84" t="n">
-        <v>61</v>
-      </c>
-      <c r="I11" s="62"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="61"/>
+      <c r="D11" s="75" t="s">
+        <v>2595</v>
+      </c>
+      <c r="E11" s="78" t="n">
+        <v>2893</v>
+      </c>
+      <c r="F11" s="78" t="n">
+        <v>6876</v>
+      </c>
+      <c r="G11" s="78" t="n">
+        <v>824</v>
+      </c>
+      <c r="H11" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="57" t="s">
+        <v>2580</v>
+      </c>
       <c r="L11" s="59" t="s">
-        <v>2585</v>
-      </c>
-      <c r="M11" s="61"/>
-      <c r="N11" s="59" t="s">
-        <v>2588</v>
-      </c>
-      <c r="O11" s="71"/>
-      <c r="P11" s="61" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q11" s="61"/>
+        <v>2596</v>
+      </c>
+      <c r="N11" s="73" t="s">
+        <v>2583</v>
+      </c>
+      <c r="O11" s="72" t="s">
+        <v>2597</v>
+      </c>
+      <c r="Q11" s="57" t="n">
+        <v>10</v>
+      </c>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1582733427" r="11" hidden="0" collapsedDB="1" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1583539609" r="11" hidden="0" collapsedDB="1" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
     <row r="12" spans="1:17" hidden="1">
-      <c r="A12" s="66" t="n">
-        <v>5</v>
+      <c r="A12" s="64" t="n">
+        <v>0</v>
       </c>
       <c r="B12" s="59" t="s">
-        <v>710</v>
+        <v>728</v>
       </c>
       <c r="C12" s="60" t="n">
         <v>4</v>
@@ -42008,119 +42020,114 @@
         <v>2593</v>
       </c>
       <c r="E12" s="77" t="n">
-        <v>6291</v>
+        <v>4810</v>
       </c>
       <c r="F12" s="77" t="n">
-        <v>14663</v>
+        <v>11100</v>
       </c>
       <c r="G12" s="77" t="n">
-        <v>1255</v>
+        <v>1052</v>
       </c>
       <c r="H12" s="84" t="n">
-        <v>75</v>
-      </c>
-      <c r="I12" s="62"/>
-      <c r="J12" s="61" t="s">
-        <v>2594</v>
-      </c>
-      <c r="K12" s="61" t="s">
-        <v>2595</v>
+        <v>40</v>
       </c>
       <c r="L12" s="59" t="s">
-        <v>2582</v>
+        <v>2585</v>
       </c>
       <c r="M12" s="71" t="s">
         <v>2586</v>
       </c>
-      <c r="N12" s="59" t="s">
-        <v>2590</v>
+      <c r="N12" s="73" t="s">
+        <v>2583</v>
       </c>
       <c r="O12" s="71" t="s">
         <v>2586</v>
       </c>
-      <c r="P12" s="61"/>
-      <c r="Q12" s="61" t="n">
+      <c r="P12" s="57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="57" t="n">
         <v>4</v>
       </c>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1582733427" r="12" hidden="0" collapsedDB="1" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1583539609" r="12" hidden="0" collapsedDB="1" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
     <row r="13" spans="1:17" hidden="1">
-      <c r="A13" s="65" t="n">
-        <v>3</v>
-      </c>
-      <c r="B13" s="59" t="s">
-        <v>92</v>
-      </c>
-      <c r="C13" s="60" t="n">
-        <v>4</v>
-      </c>
-      <c r="D13" s="62" t="s">
-        <v>2593</v>
-      </c>
-      <c r="E13" s="77" t="n">
-        <v>6280</v>
-      </c>
-      <c r="F13" s="77" t="n">
-        <v>14807</v>
-      </c>
-      <c r="G13" s="77" t="n">
-        <v>1255</v>
+      <c r="A13" s="63" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" s="73" t="s">
+        <v>2598</v>
+      </c>
+      <c r="C13" s="74" t="n">
+        <v>5</v>
+      </c>
+      <c r="D13" s="75" t="s">
+        <v>2579</v>
+      </c>
+      <c r="E13" s="78" t="n">
+        <v>7854</v>
+      </c>
+      <c r="F13" s="78" t="n">
+        <v>21763</v>
+      </c>
+      <c r="G13" s="78" t="n">
+        <v>1861</v>
       </c>
       <c r="H13" s="84" t="n">
-        <v>29</v>
-      </c>
-      <c r="I13" s="62"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
-      <c r="L13" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="75" t="s">
+        <v>2580</v>
+      </c>
+      <c r="J13" s="76"/>
+      <c r="K13" s="76"/>
+      <c r="L13" s="73" t="s">
         <v>2585</v>
       </c>
       <c r="M13" s="71" t="s">
         <v>2586</v>
       </c>
       <c r="N13" s="73" t="s">
-        <v>2583</v>
-      </c>
-      <c r="O13" s="71" t="s">
-        <v>2586</v>
-      </c>
-      <c r="P13" s="57" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q13" s="57" t="n">
-        <v>1</v>
+        <v>2599</v>
+      </c>
+      <c r="O13" s="59"/>
+      <c r="P13" s="74" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="74" t="n">
+        <v>5</v>
       </c>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1582733427" r="13" hidden="0" collapsedDB="1" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1583539609" r="13" hidden="0" collapsedDB="1" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="67" t="n">
-        <v>4</v>
+    <row r="14" spans="1:17" hidden="1">
+      <c r="A14" s="66" t="n">
+        <v>5</v>
       </c>
       <c r="B14" s="73" t="s">
-        <v>2596</v>
+        <v>2600</v>
       </c>
       <c r="C14" s="74" t="n">
         <v>5</v>
       </c>
       <c r="D14" s="75" t="s">
-        <v>2592</v>
+        <v>2588</v>
       </c>
       <c r="E14" s="78" t="n">
-        <v>5591</v>
+        <v>6270</v>
       </c>
       <c r="F14" s="78" t="n">
-        <v>15524</v>
+        <v>14971</v>
       </c>
       <c r="G14" s="78" t="n">
-        <v>1463</v>
+        <v>1732</v>
       </c>
       <c r="H14" s="84" t="n">
         <v>0</v>
@@ -42129,495 +42136,511 @@
         <v>2580</v>
       </c>
       <c r="J14" s="76"/>
-      <c r="K14" s="76" t="s">
-        <v>2595</v>
-      </c>
+      <c r="K14" s="76"/>
       <c r="L14" s="73" t="s">
-        <v>2581</v>
-      </c>
-      <c r="M14" s="76"/>
-      <c r="N14" s="73" t="s">
-        <v>2583</v>
+        <v>2585</v>
+      </c>
+      <c r="M14" s="71"/>
+      <c r="N14" t="s">
+        <v>2599</v>
       </c>
       <c r="O14" s="59"/>
       <c r="P14" s="74" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q14" s="74" t="n">
-        <v>9</v>
-      </c>
+        <v>8</v>
+      </c>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:rowDef xmlns:pm="smNativeData" id="1583539609" r="14" hidden="0" collapsedDB="1" collapsedOL="0"/>
+        </ext>
+      </extLst>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="64" t="n">
-        <v>0</v>
-      </c>
-      <c r="B15" s="73" t="s">
-        <v>923</v>
-      </c>
-      <c r="C15" s="74" t="n">
+      <c r="A15" s="66" t="n">
         <v>5</v>
       </c>
-      <c r="D15" s="75" t="s">
-        <v>2592</v>
-      </c>
-      <c r="E15" s="78" t="n">
-        <v>6221</v>
-      </c>
-      <c r="F15" s="78" t="n">
-        <v>14417</v>
-      </c>
-      <c r="G15" s="78" t="n">
-        <v>1436</v>
+      <c r="B15" s="59" t="s">
+        <v>710</v>
+      </c>
+      <c r="C15" s="60" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" s="62" t="s">
+        <v>2584</v>
+      </c>
+      <c r="E15" s="77" t="n">
+        <v>6291</v>
+      </c>
+      <c r="F15" s="77" t="n">
+        <v>14663</v>
+      </c>
+      <c r="G15" s="77" t="n">
+        <v>1255</v>
       </c>
       <c r="H15" s="84" t="n">
-        <v>22</v>
-      </c>
-      <c r="I15" s="75"/>
-      <c r="J15" s="76"/>
-      <c r="K15" s="76"/>
-      <c r="L15" s="73" t="s">
-        <v>2582</v>
-      </c>
-      <c r="M15" s="76"/>
-      <c r="N15" s="73" t="s">
-        <v>2587</v>
-      </c>
-      <c r="O15" s="59"/>
-      <c r="P15" s="74"/>
-      <c r="Q15" s="74"/>
+        <v>75</v>
+      </c>
+      <c r="I15" s="62"/>
+      <c r="J15" s="61" t="s">
+        <v>2590</v>
+      </c>
+      <c r="K15" s="61"/>
+      <c r="L15" s="59" t="s">
+        <v>2591</v>
+      </c>
+      <c r="M15" s="71" t="s">
+        <v>2586</v>
+      </c>
+      <c r="N15" s="59" t="s">
+        <v>2599</v>
+      </c>
+      <c r="O15" s="71" t="s">
+        <v>2586</v>
+      </c>
+      <c r="P15" s="61"/>
+      <c r="Q15" s="61" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="16" spans="1:17" hidden="1">
-      <c r="A16" s="68" t="n">
-        <v>2</v>
+      <c r="A16" s="63" t="n">
+        <v>1</v>
       </c>
       <c r="B16" s="59" t="s">
-        <v>510</v>
+        <v>433</v>
       </c>
       <c r="C16" s="60" t="n">
         <v>4</v>
       </c>
       <c r="D16" s="62" t="s">
-        <v>2593</v>
+        <v>2584</v>
       </c>
       <c r="E16" s="77" t="n">
-        <v>6219</v>
+        <v>6193</v>
       </c>
       <c r="F16" s="77" t="n">
-        <v>15667</v>
+        <v>14017</v>
       </c>
       <c r="G16" s="77" t="n">
-        <v>1145</v>
+        <v>1273</v>
       </c>
       <c r="H16" s="84" t="n">
-        <v>32</v>
-      </c>
-      <c r="I16" s="62"/>
+        <v>33</v>
+      </c>
+      <c r="I16" s="81"/>
       <c r="J16" s="61"/>
       <c r="K16" s="61"/>
       <c r="L16" s="59" t="s">
-        <v>2581</v>
-      </c>
-      <c r="M16" s="61"/>
+        <v>2585</v>
+      </c>
+      <c r="M16" s="72" t="s">
+        <v>2597</v>
+      </c>
       <c r="N16" s="59" t="s">
-        <v>2582</v>
-      </c>
-      <c r="O16" s="71" t="s">
-        <v>2586</v>
-      </c>
-      <c r="P16" s="60" t="n">
-        <v>9</v>
-      </c>
+        <v>2599</v>
+      </c>
+      <c r="O16" s="59"/>
+      <c r="P16" s="60"/>
       <c r="Q16" s="60" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1582733427" r="16" hidden="0" collapsedDB="1" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1583539609" r="16" hidden="0" collapsedDB="1" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
     <row r="17" spans="1:17" hidden="1">
-      <c r="A17" s="63" t="n">
-        <v>1</v>
+      <c r="A17" s="65" t="n">
+        <v>3</v>
       </c>
       <c r="B17" s="59" t="s">
-        <v>433</v>
+        <v>2601</v>
       </c>
       <c r="C17" s="60" t="n">
         <v>4</v>
       </c>
       <c r="D17" s="62" t="s">
-        <v>2593</v>
+        <v>2584</v>
       </c>
       <c r="E17" s="77" t="n">
-        <v>6193</v>
+        <v>6071</v>
       </c>
       <c r="F17" s="77" t="n">
-        <v>14017</v>
+        <v>16241</v>
       </c>
       <c r="G17" s="77" t="n">
-        <v>1273</v>
+        <v>1255</v>
       </c>
       <c r="H17" s="84" t="n">
-        <v>33</v>
-      </c>
-      <c r="I17" s="81"/>
+        <v>64</v>
+      </c>
+      <c r="I17" s="62"/>
       <c r="J17" s="61"/>
       <c r="K17" s="61"/>
       <c r="L17" s="59" t="s">
-        <v>2585</v>
-      </c>
-      <c r="M17" s="72" t="s">
-        <v>2597</v>
-      </c>
+        <v>2582</v>
+      </c>
+      <c r="M17" s="61"/>
       <c r="N17" s="59" t="s">
-        <v>2590</v>
-      </c>
-      <c r="O17" s="59"/>
-      <c r="P17" s="60"/>
-      <c r="Q17" s="60" t="n">
-        <v>1</v>
+        <v>2599</v>
+      </c>
+      <c r="O17" s="71" t="s">
+        <v>2586</v>
+      </c>
+      <c r="P17" s="61" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q17" s="61" t="n">
+        <v>3</v>
       </c>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1582733427" r="17" hidden="0" collapsedDB="1" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1583539609" r="17" hidden="0" collapsedDB="1" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
     <row r="18" spans="1:17" hidden="1">
-      <c r="A18" s="65" t="n">
-        <v>3</v>
+      <c r="A18" s="64" t="n">
+        <v>0</v>
       </c>
       <c r="B18" s="59" t="s">
-        <v>2598</v>
+        <v>1082</v>
       </c>
       <c r="C18" s="60" t="n">
         <v>4</v>
       </c>
       <c r="D18" s="62" t="s">
-        <v>2593</v>
+        <v>2584</v>
       </c>
       <c r="E18" s="77" t="n">
-        <v>6071</v>
+        <v>5984</v>
       </c>
       <c r="F18" s="77" t="n">
-        <v>16241</v>
+        <v>15847</v>
       </c>
       <c r="G18" s="77" t="n">
-        <v>1255</v>
-      </c>
-      <c r="H18" s="84" t="n">
-        <v>64</v>
-      </c>
-      <c r="I18" s="62"/>
+        <v>1206</v>
+      </c>
+      <c r="H18" s="84" t="s">
+        <v>2602</v>
+      </c>
+      <c r="I18" s="81"/>
       <c r="J18" s="61"/>
       <c r="K18" s="61"/>
       <c r="L18" s="59" t="s">
-        <v>2581</v>
-      </c>
-      <c r="M18" s="61"/>
+        <v>2585</v>
+      </c>
+      <c r="M18" s="71" t="s">
+        <v>2586</v>
+      </c>
       <c r="N18" s="59" t="s">
-        <v>2590</v>
+        <v>2599</v>
       </c>
       <c r="O18" s="71" t="s">
         <v>2586</v>
       </c>
-      <c r="P18" s="61" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q18" s="61" t="n">
-        <v>3</v>
+      <c r="P18" s="60" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="60" t="n">
+        <v>5</v>
       </c>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1582733427" r="18" hidden="0" collapsedDB="1" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1583539609" r="18" hidden="0" collapsedDB="1" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
     <row r="19" spans="1:17" hidden="1">
-      <c r="A19" s="64" t="n">
-        <v>0</v>
-      </c>
-      <c r="B19" s="59" t="s">
-        <v>1082</v>
-      </c>
-      <c r="C19" s="60" t="n">
-        <v>4</v>
-      </c>
-      <c r="D19" s="62" t="s">
-        <v>2593</v>
-      </c>
-      <c r="E19" s="77" t="n">
-        <v>5984</v>
-      </c>
-      <c r="F19" s="77" t="n">
-        <v>15847</v>
-      </c>
-      <c r="G19" s="77" t="n">
-        <v>1206</v>
-      </c>
-      <c r="H19" s="84" t="s">
+      <c r="A19" s="63" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" s="73" t="s">
+        <v>782</v>
+      </c>
+      <c r="C19" s="74" t="n">
+        <v>5</v>
+      </c>
+      <c r="D19" s="75" t="s">
+        <v>2588</v>
+      </c>
+      <c r="E19" s="78" t="n">
+        <v>6461</v>
+      </c>
+      <c r="F19" s="78" t="n">
+        <v>16631</v>
+      </c>
+      <c r="G19" s="78" t="n">
+        <v>1422</v>
+      </c>
+      <c r="H19" s="84" t="n">
+        <v>25</v>
+      </c>
+      <c r="I19" s="75"/>
+      <c r="J19" s="76" t="s">
+        <v>2590</v>
+      </c>
+      <c r="K19" s="76"/>
+      <c r="L19" s="73" t="s">
+        <v>2603</v>
+      </c>
+      <c r="M19" s="76"/>
+      <c r="N19" s="73" t="s">
         <v>2599</v>
       </c>
-      <c r="I19" s="81"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="61"/>
-      <c r="L19" s="59" t="s">
-        <v>2585</v>
-      </c>
-      <c r="M19" s="71" t="s">
-        <v>2586</v>
-      </c>
-      <c r="N19" s="59" t="s">
-        <v>2590</v>
-      </c>
-      <c r="O19" s="71" t="s">
-        <v>2586</v>
-      </c>
-      <c r="P19" s="60" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q19" s="60" t="n">
-        <v>5</v>
+      <c r="O19" s="59"/>
+      <c r="P19" s="74"/>
+      <c r="Q19" s="74" t="n">
+        <v>6</v>
       </c>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1582733427" r="19" hidden="0" collapsedDB="1" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1583539609" r="19" hidden="0" collapsedDB="1" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="63" t="n">
-        <v>1</v>
+      <c r="A20" s="66" t="n">
+        <v>5</v>
       </c>
       <c r="B20" s="73" t="s">
-        <v>782</v>
+        <v>710</v>
       </c>
       <c r="C20" s="74" t="n">
         <v>5</v>
       </c>
       <c r="D20" s="75" t="s">
-        <v>2592</v>
+        <v>2588</v>
       </c>
       <c r="E20" s="78" t="n">
-        <v>6461</v>
+        <v>5921</v>
       </c>
       <c r="F20" s="78" t="n">
-        <v>16631</v>
+        <v>1656</v>
       </c>
       <c r="G20" s="78" t="n">
-        <v>1422</v>
+        <v>1382</v>
       </c>
       <c r="H20" s="84" t="n">
-        <v>25</v>
-      </c>
-      <c r="I20" s="75"/>
-      <c r="J20" s="76" t="s">
-        <v>2594</v>
-      </c>
-      <c r="K20" s="76" t="s">
-        <v>2595</v>
-      </c>
-      <c r="L20" s="73" t="s">
-        <v>2588</v>
-      </c>
-      <c r="M20" s="76"/>
-      <c r="N20" s="73" t="s">
-        <v>2590</v>
-      </c>
-      <c r="O20" s="59"/>
-      <c r="P20" s="74"/>
-      <c r="Q20" s="74" t="n">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="I20" s="62" t="s">
+        <v>2580</v>
+      </c>
+      <c r="J20" s="61"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="59" t="s">
+        <v>2591</v>
+      </c>
+      <c r="M20" s="71" t="s">
+        <v>2586</v>
+      </c>
+      <c r="N20" s="59" t="s">
+        <v>2599</v>
+      </c>
+      <c r="O20" s="71" t="s">
+        <v>2586</v>
+      </c>
+      <c r="P20" s="61"/>
+      <c r="Q20" s="61" t="n">
+        <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="67" t="n">
-        <v>4</v>
+    <row r="21" spans="1:17" hidden="1">
+      <c r="A21" s="66" t="n">
+        <v>5</v>
       </c>
       <c r="B21" s="73" t="s">
-        <v>2600</v>
+        <v>1920</v>
       </c>
       <c r="C21" s="74" t="n">
         <v>5</v>
       </c>
       <c r="D21" s="75" t="s">
-        <v>2592</v>
+        <v>2604</v>
       </c>
       <c r="E21" s="78" t="n">
-        <v>5968</v>
+        <v>3793</v>
       </c>
       <c r="F21" s="78" t="n">
-        <v>19399</v>
+        <v>10320</v>
       </c>
       <c r="G21" s="78" t="n">
-        <v>1409</v>
-      </c>
-      <c r="H21" s="84" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H21" s="57" t="n">
         <v>0</v>
       </c>
-      <c r="I21" s="75" t="s">
+      <c r="I21" s="57" t="s">
         <v>2580</v>
       </c>
-      <c r="J21" s="76" t="s">
-        <v>2594</v>
-      </c>
-      <c r="K21" s="76" t="s">
-        <v>2595</v>
-      </c>
-      <c r="L21" s="73" t="s">
+      <c r="L21" t="s">
         <v>2582</v>
       </c>
-      <c r="M21" s="76"/>
-      <c r="N21" s="73" t="s">
-        <v>2583</v>
-      </c>
-      <c r="O21" s="59"/>
-      <c r="P21" s="74"/>
-      <c r="Q21" s="74" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" hidden="1">
-      <c r="A22" s="68" t="n">
-        <v>2</v>
-      </c>
-      <c r="B22" s="59" t="s">
-        <v>416</v>
-      </c>
-      <c r="C22" s="60" t="n">
-        <v>4</v>
-      </c>
-      <c r="D22" s="62" t="s">
-        <v>2593</v>
-      </c>
-      <c r="E22" s="77" t="n">
-        <v>5953</v>
-      </c>
-      <c r="F22" s="77" t="n">
-        <v>14577</v>
-      </c>
-      <c r="G22" s="77" t="n">
-        <v>1371</v>
-      </c>
-      <c r="H22" s="84" t="n">
-        <v>40</v>
-      </c>
-      <c r="I22" s="81"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="61"/>
-      <c r="L22" s="59" t="s">
-        <v>2585</v>
-      </c>
-      <c r="M22" s="72"/>
-      <c r="N22" s="59" t="s">
-        <v>2583</v>
-      </c>
-      <c r="O22" s="59"/>
-      <c r="P22" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="60" t="n">
-        <v>1</v>
+      <c r="N21" t="s">
+        <v>2599</v>
+      </c>
+      <c r="O21" s="71" t="s">
+        <v>2586</v>
+      </c>
+      <c r="P21" s="57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="57" t="n">
+        <v>7</v>
       </c>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1582733427" r="22" hidden="0" collapsedDB="1" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1583539609" r="21" hidden="0" collapsedDB="1" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="66" t="n">
+    <row r="22" spans="1:17" hidden="1">
+      <c r="A22" s="67" t="n">
+        <v>4</v>
+      </c>
+      <c r="B22" s="73" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C22" s="74" t="n">
         <v>5</v>
       </c>
+      <c r="D22" s="75" t="s">
+        <v>2579</v>
+      </c>
+      <c r="E22" s="78" t="n">
+        <v>8077</v>
+      </c>
+      <c r="F22" s="78" t="n">
+        <v>20485</v>
+      </c>
+      <c r="G22" s="78" t="n">
+        <v>2115</v>
+      </c>
+      <c r="H22" s="84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="75" t="s">
+        <v>2580</v>
+      </c>
+      <c r="J22" s="76"/>
+      <c r="K22" s="76"/>
+      <c r="L22" s="73" t="s">
+        <v>2582</v>
+      </c>
+      <c r="M22" s="76"/>
+      <c r="N22" s="73" t="s">
+        <v>2591</v>
+      </c>
+      <c r="O22" s="59"/>
+      <c r="P22" s="74" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="74" t="n">
+        <v>8</v>
+      </c>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:rowDef xmlns:pm="smNativeData" id="1583539609" r="22" hidden="0" collapsedDB="1" collapsedOL="0"/>
+        </ext>
+      </extLst>
+    </row>
+    <row r="23" spans="1:17" hidden="1">
+      <c r="A23" s="64" t="n">
+        <v>0</v>
+      </c>
       <c r="B23" s="73" t="s">
-        <v>710</v>
+        <v>643</v>
       </c>
       <c r="C23" s="74" t="n">
         <v>5</v>
       </c>
       <c r="D23" s="75" t="s">
-        <v>2592</v>
+        <v>2579</v>
       </c>
       <c r="E23" s="78" t="n">
-        <v>5921</v>
+        <v>8455</v>
       </c>
       <c r="F23" s="78" t="n">
-        <v>1656</v>
+        <v>20910</v>
       </c>
       <c r="G23" s="78" t="n">
-        <v>1382</v>
+        <v>1932</v>
       </c>
       <c r="H23" s="84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" s="62" t="s">
-        <v>2580</v>
-      </c>
-      <c r="J23" s="61"/>
-      <c r="K23" s="61"/>
-      <c r="L23" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" s="75"/>
+      <c r="J23" s="76"/>
+      <c r="K23" s="76" t="s">
+        <v>2605</v>
+      </c>
+      <c r="L23" s="73" t="s">
         <v>2582</v>
       </c>
-      <c r="M23" s="71" t="s">
-        <v>2586</v>
-      </c>
-      <c r="N23" s="59" t="s">
-        <v>2590</v>
-      </c>
-      <c r="O23" s="71" t="s">
-        <v>2586</v>
-      </c>
-      <c r="P23" s="61"/>
-      <c r="Q23" s="61" t="n">
-        <v>4</v>
-      </c>
+      <c r="M23" s="76"/>
+      <c r="N23" s="73" t="s">
+        <v>2591</v>
+      </c>
+      <c r="O23" s="59"/>
+      <c r="P23" s="74" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q23" s="74"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:rowDef xmlns:pm="smNativeData" id="1583539609" r="23" hidden="0" collapsedDB="1" collapsedOL="0"/>
+        </ext>
+      </extLst>
     </row>
     <row r="24" spans="1:17" hidden="1">
-      <c r="A24" s="67" t="n">
-        <v>4</v>
+      <c r="A24" s="64" t="n">
+        <v>0</v>
       </c>
       <c r="B24" s="59" t="s">
-        <v>591</v>
+        <v>472</v>
       </c>
       <c r="C24" s="60" t="n">
         <v>4</v>
       </c>
       <c r="D24" s="62" t="s">
-        <v>2593</v>
+        <v>2584</v>
       </c>
       <c r="E24" s="77" t="n">
-        <v>5920</v>
+        <v>6356</v>
       </c>
       <c r="F24" s="77" t="n">
-        <v>17318</v>
+        <v>14089</v>
       </c>
       <c r="G24" s="77" t="n">
-        <v>1194</v>
+        <v>1315</v>
       </c>
       <c r="H24" s="84" t="n">
-        <v>58</v>
-      </c>
-      <c r="I24" s="62"/>
+        <v>91</v>
+      </c>
+      <c r="I24" s="81"/>
       <c r="J24" s="61"/>
       <c r="K24" s="61"/>
       <c r="L24" s="59" t="s">
         <v>2585</v>
       </c>
-      <c r="M24" s="61"/>
+      <c r="M24" s="72"/>
       <c r="N24" s="59" t="s">
-        <v>2583</v>
-      </c>
-      <c r="O24" s="71"/>
-      <c r="P24" s="61" t="n">
+        <v>2591</v>
+      </c>
+      <c r="O24" s="59"/>
+      <c r="P24" s="60" t="n">
         <v>1</v>
       </c>
-      <c r="Q24" s="61" t="n">
-        <v>4</v>
+      <c r="Q24" s="60" t="n">
+        <v>10</v>
       </c>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1582733427" r="24" hidden="0" collapsedDB="1" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1583539609" r="24" hidden="0" collapsedDB="1" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -42626,114 +42649,119 @@
         <v>2</v>
       </c>
       <c r="B25" s="59" t="s">
-        <v>975</v>
+        <v>510</v>
       </c>
       <c r="C25" s="60" t="n">
         <v>4</v>
       </c>
       <c r="D25" s="62" t="s">
-        <v>2593</v>
+        <v>2584</v>
       </c>
       <c r="E25" s="77" t="n">
-        <v>5861</v>
+        <v>6219</v>
       </c>
       <c r="F25" s="77" t="n">
-        <v>14699</v>
+        <v>15667</v>
       </c>
       <c r="G25" s="77" t="n">
-        <v>1255</v>
+        <v>1145</v>
       </c>
       <c r="H25" s="84" t="n">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="I25" s="62"/>
       <c r="J25" s="61"/>
       <c r="K25" s="61"/>
       <c r="L25" s="59" t="s">
-        <v>2585</v>
-      </c>
-      <c r="M25" s="71" t="s">
+        <v>2582</v>
+      </c>
+      <c r="M25" s="61"/>
+      <c r="N25" s="59" t="s">
+        <v>2591</v>
+      </c>
+      <c r="O25" s="71" t="s">
         <v>2586</v>
       </c>
-      <c r="N25" s="59" t="s">
-        <v>2588</v>
-      </c>
-      <c r="O25" s="59"/>
       <c r="P25" s="60" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q25" s="60"/>
+        <v>9</v>
+      </c>
+      <c r="Q25" s="60" t="n">
+        <v>5</v>
+      </c>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1582733427" r="25" hidden="0" collapsedDB="1" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1583539609" r="25" hidden="0" collapsedDB="1" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
-    <row r="26" spans="1:16">
-      <c r="A26" s="68" t="n">
-        <v>2</v>
-      </c>
-      <c r="B26" s="73" t="s">
-        <v>975</v>
-      </c>
-      <c r="C26" s="74" t="n">
-        <v>5</v>
-      </c>
-      <c r="D26" s="75" t="s">
-        <v>2592</v>
-      </c>
-      <c r="E26" s="78" t="n">
-        <v>5845</v>
-      </c>
-      <c r="F26" s="78" t="n">
-        <v>16196</v>
-      </c>
-      <c r="G26" s="78" t="n">
-        <v>1382</v>
+    <row r="26" spans="1:17" hidden="1">
+      <c r="A26" s="65" t="n">
+        <v>3</v>
+      </c>
+      <c r="B26" s="59" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C26" s="60" t="n">
+        <v>4</v>
+      </c>
+      <c r="D26" s="62" t="s">
+        <v>2584</v>
+      </c>
+      <c r="E26" s="77" t="n">
+        <v>5813</v>
+      </c>
+      <c r="F26" s="77" t="n">
+        <v>15954</v>
+      </c>
+      <c r="G26" s="77" t="n">
+        <v>1285</v>
       </c>
       <c r="H26" s="84" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="I26" s="62"/>
       <c r="J26" s="61"/>
       <c r="K26" s="61"/>
       <c r="L26" s="59" t="s">
-        <v>2585</v>
-      </c>
-      <c r="M26" s="71" t="s">
-        <v>2586</v>
-      </c>
-      <c r="N26" t="s">
-        <v>2588</v>
-      </c>
-      <c r="P26" s="57" t="n">
-        <v>3</v>
-      </c>
+        <v>2591</v>
+      </c>
+      <c r="M26" s="61"/>
+      <c r="N26" s="59" t="s">
+        <v>2591</v>
+      </c>
+      <c r="O26" s="59"/>
+      <c r="P26" s="61"/>
+      <c r="Q26" s="61"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:rowDef xmlns:pm="smNativeData" id="1583539609" r="26" hidden="0" collapsedDB="1" collapsedOL="0"/>
+        </ext>
+      </extLst>
     </row>
     <row r="27" spans="1:17" hidden="1">
       <c r="A27" s="65" t="n">
         <v>3</v>
       </c>
       <c r="B27" s="59" t="s">
-        <v>1342</v>
+        <v>1816</v>
       </c>
       <c r="C27" s="60" t="n">
         <v>4</v>
       </c>
       <c r="D27" s="62" t="s">
-        <v>2593</v>
+        <v>2584</v>
       </c>
       <c r="E27" s="77" t="n">
-        <v>5813</v>
+        <v>5692</v>
       </c>
       <c r="F27" s="77" t="n">
-        <v>15954</v>
+        <v>13802</v>
       </c>
       <c r="G27" s="77" t="n">
-        <v>1285</v>
+        <v>1329</v>
       </c>
       <c r="H27" s="84" t="n">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="I27" s="62"/>
       <c r="J27" s="61"/>
@@ -42741,561 +42769,514 @@
       <c r="L27" s="59" t="s">
         <v>2582</v>
       </c>
-      <c r="M27" s="61"/>
+      <c r="M27" s="72" t="s">
+        <v>2592</v>
+      </c>
       <c r="N27" s="59" t="s">
-        <v>2582</v>
-      </c>
-      <c r="O27" s="59"/>
+        <v>2591</v>
+      </c>
+      <c r="O27" s="71" t="s">
+        <v>2586</v>
+      </c>
       <c r="P27" s="61"/>
-      <c r="Q27" s="61"/>
+      <c r="Q27" s="71"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1582733427" r="27" hidden="0" collapsedDB="1" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1583539609" r="27" hidden="0" collapsedDB="1" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
     <row r="28" spans="1:17" hidden="1">
-      <c r="A28" s="65" t="n">
-        <v>3</v>
+      <c r="A28" s="64" t="n">
+        <v>0</v>
       </c>
       <c r="B28" s="59" t="s">
-        <v>1816</v>
+        <v>2606</v>
       </c>
       <c r="C28" s="60" t="n">
         <v>4</v>
       </c>
       <c r="D28" s="62" t="s">
-        <v>2593</v>
+        <v>2584</v>
       </c>
       <c r="E28" s="77" t="n">
-        <v>5692</v>
+        <v>5470</v>
       </c>
       <c r="F28" s="77" t="n">
-        <v>13802</v>
+        <v>12079</v>
       </c>
       <c r="G28" s="77" t="n">
-        <v>1329</v>
+        <v>1438</v>
       </c>
       <c r="H28" s="84" t="n">
-        <v>86</v>
-      </c>
-      <c r="I28" s="62"/>
-      <c r="J28" s="61"/>
+        <v>99</v>
+      </c>
+      <c r="I28" s="81"/>
+      <c r="J28" s="61" t="s">
+        <v>2590</v>
+      </c>
       <c r="K28" s="61"/>
       <c r="L28" s="59" t="s">
-        <v>2581</v>
-      </c>
-      <c r="M28" s="72" t="s">
-        <v>2601</v>
+        <v>2591</v>
+      </c>
+      <c r="M28" s="82" t="s">
+        <v>2607</v>
       </c>
       <c r="N28" s="59" t="s">
-        <v>2582</v>
-      </c>
-      <c r="O28" s="71" t="s">
-        <v>2586</v>
-      </c>
-      <c r="P28" s="61"/>
-      <c r="Q28" s="71"/>
+        <v>2591</v>
+      </c>
+      <c r="O28" s="59"/>
+      <c r="P28" s="60"/>
+      <c r="Q28" s="60"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1582733427" r="28" hidden="0" collapsedDB="1" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1583539609" r="28" hidden="0" collapsedDB="1" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
     <row r="29" spans="1:17" hidden="1">
-      <c r="A29" s="66" t="n">
+      <c r="A29" s="67" t="n">
+        <v>4</v>
+      </c>
+      <c r="B29" s="73" t="s">
+        <v>575</v>
+      </c>
+      <c r="C29" s="74" t="n">
         <v>5</v>
       </c>
-      <c r="B29" s="59" t="s">
-        <v>1567</v>
-      </c>
-      <c r="C29" s="60" t="n">
-        <v>4</v>
-      </c>
-      <c r="D29" s="62" t="s">
-        <v>2593</v>
-      </c>
-      <c r="E29" s="77" t="n">
-        <v>5625</v>
-      </c>
-      <c r="F29" s="77" t="n">
-        <v>13659</v>
-      </c>
-      <c r="G29" s="77" t="n">
-        <v>1329</v>
-      </c>
-      <c r="H29" s="84" t="s">
-        <v>2599</v>
-      </c>
-      <c r="I29" s="62"/>
-      <c r="J29" s="61" t="s">
-        <v>2594</v>
-      </c>
-      <c r="K29" s="61"/>
-      <c r="L29" s="59" t="s">
+      <c r="D29" s="75" t="s">
+        <v>2604</v>
+      </c>
+      <c r="E29" s="78" t="n">
+        <v>4243</v>
+      </c>
+      <c r="F29" s="78" t="n">
+        <v>1258</v>
+      </c>
+      <c r="G29" s="78" t="n">
+        <v>1058</v>
+      </c>
+      <c r="H29" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="57" t="s">
+        <v>2580</v>
+      </c>
+      <c r="L29" t="s">
         <v>2582</v>
       </c>
-      <c r="M29" s="61"/>
-      <c r="N29" s="59" t="s">
-        <v>2587</v>
-      </c>
-      <c r="O29" s="71"/>
-      <c r="P29" s="61"/>
-      <c r="Q29" s="61"/>
+      <c r="N29" t="s">
+        <v>2591</v>
+      </c>
+      <c r="O29"/>
+      <c r="P29" s="57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="57" t="n">
+        <v>6</v>
+      </c>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1582733427" r="29" hidden="0" collapsedDB="1" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1583539609" r="29" hidden="0" collapsedDB="1" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
-    <row r="30" spans="1:17">
-      <c r="A30" s="66" t="n">
-        <v>5</v>
+    <row r="30" spans="1:17" hidden="1">
+      <c r="A30" s="68" t="n">
+        <v>2</v>
       </c>
       <c r="B30" s="73" t="s">
-        <v>1006</v>
+        <v>525</v>
       </c>
       <c r="C30" s="74" t="n">
         <v>5</v>
       </c>
       <c r="D30" s="75" t="s">
-        <v>2592</v>
+        <v>2595</v>
       </c>
       <c r="E30" s="78" t="n">
-        <v>5978</v>
+        <v>3229</v>
       </c>
       <c r="F30" s="78" t="n">
-        <v>17739</v>
+        <v>9145</v>
       </c>
       <c r="G30" s="78" t="n">
-        <v>1342</v>
-      </c>
-      <c r="H30" s="84" t="n">
-        <v>29</v>
-      </c>
-      <c r="I30" s="75"/>
-      <c r="J30" s="76"/>
-      <c r="K30" s="76" t="s">
-        <v>2595</v>
-      </c>
-      <c r="L30" s="73" t="s">
-        <v>2582</v>
-      </c>
-      <c r="M30" s="71"/>
-      <c r="N30" s="73" t="s">
-        <v>2583</v>
-      </c>
-      <c r="O30" s="71" t="s">
-        <v>2601</v>
-      </c>
-      <c r="P30" s="74" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q30" s="74" t="n">
-        <v>1</v>
-      </c>
+        <v>777</v>
+      </c>
+      <c r="H30" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" s="57" t="s">
+        <v>2580</v>
+      </c>
+      <c r="L30" s="59" t="s">
+        <v>2591</v>
+      </c>
+      <c r="N30" t="s">
+        <v>2591</v>
+      </c>
+      <c r="O30"/>
+      <c r="Q30" s="57" t="n">
+        <v>9</v>
+      </c>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:rowDef xmlns:pm="smNativeData" id="1583539609" r="30" hidden="0" collapsedDB="1" collapsedOL="0"/>
+        </ext>
+      </extLst>
     </row>
     <row r="31" spans="1:17" hidden="1">
       <c r="A31" s="64" t="n">
         <v>0</v>
       </c>
-      <c r="B31" s="59" t="s">
-        <v>2602</v>
-      </c>
-      <c r="C31" s="60" t="n">
-        <v>4</v>
-      </c>
-      <c r="D31" s="62" t="s">
-        <v>2593</v>
-      </c>
-      <c r="E31" s="77" t="n">
-        <v>5470</v>
-      </c>
-      <c r="F31" s="77" t="n">
-        <v>12079</v>
-      </c>
-      <c r="G31" s="77" t="n">
-        <v>1438</v>
-      </c>
+      <c r="B31" s="73" t="s">
+        <v>332</v>
+      </c>
+      <c r="C31" s="74" t="n">
+        <v>5</v>
+      </c>
+      <c r="D31" s="75" t="s">
+        <v>2595</v>
+      </c>
+      <c r="E31" s="78"/>
+      <c r="F31" s="78"/>
+      <c r="G31" s="78"/>
       <c r="H31" s="84" t="n">
-        <v>99</v>
-      </c>
-      <c r="I31" s="81"/>
-      <c r="J31" s="61" t="s">
-        <v>2594</v>
-      </c>
-      <c r="K31" s="61"/>
-      <c r="L31" s="59" t="s">
-        <v>2582</v>
-      </c>
-      <c r="M31" s="82" t="s">
-        <v>2603</v>
-      </c>
-      <c r="N31" s="59" t="s">
-        <v>2582</v>
+        <v>0</v>
+      </c>
+      <c r="I31" s="75" t="s">
+        <v>2580</v>
+      </c>
+      <c r="J31" s="76"/>
+      <c r="K31" s="76"/>
+      <c r="L31" s="73" t="s">
+        <v>2591</v>
+      </c>
+      <c r="M31" s="76"/>
+      <c r="N31" s="73" t="s">
+        <v>2591</v>
       </c>
       <c r="O31" s="59"/>
-      <c r="P31" s="60"/>
-      <c r="Q31" s="60"/>
+      <c r="P31" s="74"/>
+      <c r="Q31" s="74" t="n">
+        <v>9</v>
+      </c>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1582733427" r="31" hidden="0" collapsedDB="1" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1583539609" r="31" hidden="0" collapsedDB="1" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
     <row r="32" spans="1:17" hidden="1">
-      <c r="A32" s="63" t="n">
-        <v>1</v>
-      </c>
-      <c r="B32" s="59" t="s">
-        <v>2002</v>
-      </c>
-      <c r="C32" s="60" t="n">
+      <c r="A32" s="67" t="n">
         <v>4</v>
       </c>
-      <c r="D32" s="62" t="s">
-        <v>2593</v>
-      </c>
-      <c r="E32" s="77" t="n">
-        <v>5353</v>
-      </c>
-      <c r="F32" s="77" t="n">
-        <v>14807</v>
-      </c>
-      <c r="G32" s="77" t="n">
-        <v>1255</v>
-      </c>
+      <c r="B32" s="73" t="s">
+        <v>2048</v>
+      </c>
+      <c r="C32" s="74" t="n">
+        <v>5</v>
+      </c>
+      <c r="D32" s="75" t="s">
+        <v>2595</v>
+      </c>
+      <c r="E32" s="78"/>
+      <c r="F32" s="78"/>
+      <c r="G32" s="78"/>
       <c r="H32" s="84" t="n">
-        <v>76</v>
-      </c>
-      <c r="I32" s="81"/>
-      <c r="J32" s="61"/>
-      <c r="K32" s="61"/>
-      <c r="L32" s="59" t="s">
-        <v>2585</v>
-      </c>
-      <c r="M32" s="71" t="s">
-        <v>2586</v>
-      </c>
-      <c r="N32" s="59" t="s">
-        <v>2587</v>
+        <v>0</v>
+      </c>
+      <c r="I32" s="75" t="s">
+        <v>2580</v>
+      </c>
+      <c r="J32" s="76"/>
+      <c r="K32" s="76"/>
+      <c r="L32" s="73" t="s">
+        <v>2608</v>
+      </c>
+      <c r="M32" s="76"/>
+      <c r="N32" s="73" t="s">
+        <v>2591</v>
       </c>
       <c r="O32" s="59"/>
-      <c r="P32" s="60" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q32" s="60"/>
+      <c r="P32" s="74"/>
+      <c r="Q32" s="74"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1582733427" r="32" hidden="0" collapsedDB="1" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1583539609" r="32" hidden="0" collapsedDB="1" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
     <row r="33" spans="1:17" hidden="1">
-      <c r="A33" s="63" t="n">
-        <v>1</v>
-      </c>
-      <c r="B33" s="59" t="s">
-        <v>1972</v>
-      </c>
-      <c r="C33" s="60" t="n">
-        <v>4</v>
-      </c>
-      <c r="D33" s="62" t="s">
-        <v>2593</v>
-      </c>
-      <c r="E33" s="77" t="n">
-        <v>5286</v>
-      </c>
-      <c r="F33" s="77" t="n">
-        <v>14807</v>
-      </c>
-      <c r="G33" s="77" t="n">
-        <v>1255</v>
-      </c>
-      <c r="H33" s="84" t="n">
-        <v>95</v>
-      </c>
-      <c r="I33" s="81"/>
-      <c r="J33" s="61"/>
-      <c r="K33" s="61"/>
+      <c r="A33" s="65" t="n">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>747</v>
+      </c>
+      <c r="C33" s="57" t="n">
+        <v>5</v>
+      </c>
+      <c r="D33" s="75" t="s">
+        <v>2595</v>
+      </c>
       <c r="L33" s="59" t="s">
-        <v>2581</v>
-      </c>
-      <c r="M33" s="71" t="s">
-        <v>2586</v>
-      </c>
-      <c r="N33" s="59" t="s">
-        <v>2587</v>
-      </c>
-      <c r="O33" s="59"/>
-      <c r="P33" s="60" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q33" s="60"/>
+        <v>2603</v>
+      </c>
+      <c r="N33" s="73" t="s">
+        <v>2591</v>
+      </c>
+      <c r="O33"/>
+      <c r="Q33" s="57" t="n">
+        <v>5</v>
+      </c>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1582733427" r="33" hidden="0" collapsedDB="1" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1583539609" r="33" hidden="0" collapsedDB="1" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
     <row r="34" spans="1:17" hidden="1">
-      <c r="A34" s="68" t="n">
-        <v>2</v>
+      <c r="A34" s="66" t="n">
+        <v>5</v>
       </c>
       <c r="B34" s="59" t="s">
-        <v>1947</v>
+        <v>276</v>
       </c>
       <c r="C34" s="60" t="n">
         <v>4</v>
       </c>
       <c r="D34" s="62" t="s">
-        <v>2593</v>
+        <v>2584</v>
       </c>
       <c r="E34" s="77" t="n">
-        <v>5095</v>
+        <v>6304</v>
       </c>
       <c r="F34" s="77" t="n">
-        <v>12510</v>
+        <v>12653</v>
       </c>
       <c r="G34" s="77" t="n">
-        <v>1145</v>
-      </c>
-      <c r="H34" s="84" t="s">
-        <v>2599</v>
+        <v>1194</v>
+      </c>
+      <c r="H34" s="84" t="n">
+        <v>61</v>
       </c>
       <c r="I34" s="62"/>
       <c r="J34" s="61"/>
       <c r="K34" s="61"/>
       <c r="L34" s="59" t="s">
-        <v>2581</v>
-      </c>
-      <c r="M34" s="71" t="s">
-        <v>2586</v>
-      </c>
+        <v>2585</v>
+      </c>
+      <c r="M34" s="61"/>
       <c r="N34" s="59" t="s">
-        <v>2587</v>
-      </c>
-      <c r="O34" s="59"/>
-      <c r="P34" s="60"/>
-      <c r="Q34" s="60"/>
+        <v>2603</v>
+      </c>
+      <c r="O34" s="71"/>
+      <c r="P34" s="61" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q34" s="61"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1582733427" r="34" hidden="0" collapsedDB="1" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1583539609" r="34" hidden="0" collapsedDB="1" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
     <row r="35" spans="1:17" hidden="1">
-      <c r="A35" s="67" t="n">
-        <v>4</v>
+      <c r="A35" s="68" t="n">
+        <v>2</v>
       </c>
       <c r="B35" s="59" t="s">
-        <v>375</v>
+        <v>975</v>
       </c>
       <c r="C35" s="60" t="n">
         <v>4</v>
       </c>
       <c r="D35" s="62" t="s">
-        <v>2604</v>
+        <v>2584</v>
       </c>
       <c r="E35" s="77" t="n">
-        <v>4828</v>
+        <v>5861</v>
       </c>
       <c r="F35" s="77" t="n">
-        <v>7876</v>
+        <v>14699</v>
       </c>
       <c r="G35" s="77" t="n">
-        <v>1135</v>
+        <v>1255</v>
       </c>
       <c r="H35" s="84" t="n">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="I35" s="62"/>
       <c r="J35" s="61"/>
       <c r="K35" s="61"/>
       <c r="L35" s="59" t="s">
-        <v>2582</v>
-      </c>
-      <c r="M35" s="61"/>
+        <v>2585</v>
+      </c>
+      <c r="M35" s="71" t="s">
+        <v>2586</v>
+      </c>
       <c r="N35" s="59" t="s">
-        <v>2583</v>
-      </c>
-      <c r="O35" s="71" t="s">
-        <v>2586</v>
-      </c>
-      <c r="P35" s="61" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q35" s="61" t="n">
-        <v>7</v>
-      </c>
+        <v>2603</v>
+      </c>
+      <c r="O35" s="59"/>
+      <c r="P35" s="60" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="60"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1582733427" r="35" hidden="0" collapsedDB="1" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1583539609" r="35" hidden="0" collapsedDB="1" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
-    <row r="36" spans="1:17" hidden="1">
-      <c r="A36" s="63" t="n">
-        <v>1</v>
-      </c>
-      <c r="B36" s="59" t="s">
-        <v>362</v>
-      </c>
-      <c r="C36" s="60" t="n">
-        <v>4</v>
-      </c>
-      <c r="D36" s="62" t="s">
-        <v>2604</v>
-      </c>
-      <c r="E36" s="77" t="n">
-        <v>3975</v>
-      </c>
-      <c r="F36" s="79"/>
-      <c r="G36" s="79"/>
+    <row r="36" spans="1:16" hidden="1">
+      <c r="A36" s="68" t="n">
+        <v>2</v>
+      </c>
+      <c r="B36" s="73" t="s">
+        <v>975</v>
+      </c>
+      <c r="C36" s="74" t="n">
+        <v>5</v>
+      </c>
+      <c r="D36" s="75" t="s">
+        <v>2588</v>
+      </c>
+      <c r="E36" s="78" t="n">
+        <v>5845</v>
+      </c>
+      <c r="F36" s="78" t="n">
+        <v>16196</v>
+      </c>
+      <c r="G36" s="78" t="n">
+        <v>1382</v>
+      </c>
       <c r="H36" s="84" t="n">
         <v>0</v>
       </c>
-      <c r="I36" s="81" t="s">
-        <v>2580</v>
-      </c>
+      <c r="I36" s="62"/>
       <c r="J36" s="61"/>
       <c r="K36" s="61"/>
       <c r="L36" s="59" t="s">
         <v>2585</v>
       </c>
-      <c r="M36" s="72"/>
-      <c r="N36" s="59" t="s">
-        <v>2588</v>
-      </c>
-      <c r="O36" s="59"/>
-      <c r="P36" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q36" s="60"/>
+      <c r="M36" s="71" t="s">
+        <v>2586</v>
+      </c>
+      <c r="N36" t="s">
+        <v>2603</v>
+      </c>
+      <c r="O36"/>
+      <c r="P36" s="57" t="n">
+        <v>3</v>
+      </c>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1582733427" r="36" hidden="0" collapsedDB="1" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1583539609" r="36" hidden="0" collapsedDB="1" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
     <row r="37" spans="1:17" hidden="1">
-      <c r="A37" s="67" t="n">
+      <c r="A37" s="63" t="n">
+        <v>1</v>
+      </c>
+      <c r="B37" s="59" t="s">
+        <v>362</v>
+      </c>
+      <c r="C37" s="60" t="n">
         <v>4</v>
       </c>
-      <c r="B37" s="73" t="s">
-        <v>575</v>
-      </c>
-      <c r="C37" s="74" t="n">
-        <v>5</v>
-      </c>
-      <c r="D37" s="75" t="s">
-        <v>2605</v>
-      </c>
-      <c r="E37" s="78" t="n">
-        <v>4243</v>
-      </c>
-      <c r="F37" s="78" t="n">
-        <v>1258</v>
-      </c>
-      <c r="G37" s="78" t="n">
-        <v>1058</v>
-      </c>
-      <c r="H37" s="57" t="n">
+      <c r="D37" s="62" t="s">
+        <v>2593</v>
+      </c>
+      <c r="E37" s="77" t="n">
+        <v>3975</v>
+      </c>
+      <c r="F37" s="79"/>
+      <c r="G37" s="79"/>
+      <c r="H37" s="84" t="n">
         <v>0</v>
       </c>
-      <c r="I37" s="57" t="s">
+      <c r="I37" s="81" t="s">
         <v>2580</v>
       </c>
-      <c r="L37" t="s">
-        <v>2581</v>
-      </c>
-      <c r="N37" t="s">
-        <v>2582</v>
-      </c>
-      <c r="P37" s="57" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q37" s="57" t="n">
-        <v>6</v>
-      </c>
+      <c r="J37" s="61"/>
+      <c r="K37" s="61"/>
+      <c r="L37" s="59" t="s">
+        <v>2585</v>
+      </c>
+      <c r="M37" s="72"/>
+      <c r="N37" s="59" t="s">
+        <v>2603</v>
+      </c>
+      <c r="O37" s="59"/>
+      <c r="P37" s="60" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="60"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1582733427" r="37" hidden="0" collapsedDB="1" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1583539609" r="37" hidden="0" collapsedDB="1" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
     <row r="38" spans="1:17" hidden="1">
-      <c r="A38" s="66" t="n">
-        <v>5</v>
+      <c r="A38" s="64" t="n">
+        <v>0</v>
       </c>
       <c r="B38" s="73" t="s">
-        <v>1920</v>
+        <v>1051</v>
       </c>
       <c r="C38" s="74" t="n">
         <v>5</v>
       </c>
       <c r="D38" s="75" t="s">
-        <v>2605</v>
-      </c>
-      <c r="E38" s="78" t="n">
-        <v>3793</v>
-      </c>
-      <c r="F38" s="78" t="n">
-        <v>10320</v>
-      </c>
-      <c r="G38" s="78" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H38" s="57" t="n">
+        <v>2595</v>
+      </c>
+      <c r="E38" s="78"/>
+      <c r="F38" s="78"/>
+      <c r="G38" s="78"/>
+      <c r="H38" s="84" t="n">
         <v>0</v>
       </c>
-      <c r="I38" s="57" t="s">
+      <c r="I38" s="75" t="s">
         <v>2580</v>
       </c>
-      <c r="L38" t="s">
-        <v>2581</v>
-      </c>
-      <c r="N38" t="s">
-        <v>2590</v>
-      </c>
-      <c r="O38" s="71" t="s">
-        <v>2586</v>
-      </c>
-      <c r="P38" s="57" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q38" s="57" t="n">
-        <v>7</v>
-      </c>
+      <c r="J38" s="76"/>
+      <c r="K38" s="76"/>
+      <c r="L38" s="73" t="s">
+        <v>2608</v>
+      </c>
+      <c r="M38" s="76"/>
+      <c r="N38" s="73" t="s">
+        <v>2603</v>
+      </c>
+      <c r="O38" s="59"/>
+      <c r="P38" s="74"/>
+      <c r="Q38" s="74"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1582733427" r="38" hidden="0" collapsedDB="1" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1583539609" r="38" hidden="0" collapsedDB="1" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
     <row r="39" spans="1:17" hidden="1">
-      <c r="A39" s="66" t="n">
-        <v>5</v>
+      <c r="A39" s="63" t="n">
+        <v>1</v>
       </c>
       <c r="B39" s="73" t="s">
-        <v>2606</v>
+        <v>1867</v>
       </c>
       <c r="C39" s="74" t="n">
         <v>5</v>
       </c>
       <c r="D39" s="75" t="s">
-        <v>2605</v>
-      </c>
-      <c r="E39" s="78" t="n">
-        <v>3963</v>
-      </c>
-      <c r="F39" s="78" t="n">
-        <v>12016</v>
-      </c>
-      <c r="G39" s="78" t="n">
-        <v>990</v>
-      </c>
+        <v>2595</v>
+      </c>
+      <c r="E39" s="78"/>
+      <c r="F39" s="78"/>
+      <c r="G39" s="78"/>
       <c r="H39" s="84" t="n">
         <v>0</v>
       </c>
@@ -43305,157 +43286,151 @@
       <c r="J39" s="76"/>
       <c r="K39" s="76"/>
       <c r="L39" s="73" t="s">
-        <v>2607</v>
-      </c>
-      <c r="M39" s="71" t="s">
-        <v>2586</v>
-      </c>
+        <v>2608</v>
+      </c>
+      <c r="M39" s="76"/>
       <c r="N39" s="73" t="s">
-        <v>2587</v>
+        <v>2603</v>
       </c>
       <c r="O39" s="59"/>
       <c r="P39" s="74"/>
       <c r="Q39" s="74"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1582733427" r="39" hidden="0" collapsedDB="1" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1583539609" r="39" hidden="0" collapsedDB="1" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
-    <row r="40" spans="1:17" hidden="1">
-      <c r="A40" s="65" t="n">
-        <v>3</v>
+    <row r="40" spans="1:15" hidden="1">
+      <c r="A40" s="66" t="n">
+        <v>5</v>
       </c>
       <c r="B40" s="73" t="s">
-        <v>2608</v>
+        <v>166</v>
       </c>
       <c r="C40" s="74" t="n">
         <v>5</v>
       </c>
       <c r="D40" s="75" t="s">
-        <v>2605</v>
-      </c>
-      <c r="E40" s="78" t="n">
-        <v>3774</v>
-      </c>
-      <c r="F40" s="78" t="n">
-        <v>11677</v>
-      </c>
-      <c r="G40" s="78" t="n">
-        <v>990</v>
-      </c>
-      <c r="H40" s="84" t="n">
+        <v>2595</v>
+      </c>
+      <c r="E40" s="78"/>
+      <c r="F40" s="78"/>
+      <c r="G40" s="78"/>
+      <c r="H40" s="57" t="n">
         <v>0</v>
       </c>
-      <c r="I40" s="75" t="s">
+      <c r="I40" s="57" t="s">
         <v>2580</v>
       </c>
-      <c r="J40" s="76"/>
-      <c r="K40" s="76"/>
-      <c r="L40" s="73" t="s">
-        <v>2607</v>
-      </c>
-      <c r="M40" s="71" t="s">
-        <v>2586</v>
-      </c>
-      <c r="N40" s="73" t="s">
-        <v>2587</v>
-      </c>
-      <c r="O40" s="59"/>
-      <c r="P40" s="76"/>
-      <c r="Q40" s="61"/>
+      <c r="L40" s="59" t="s">
+        <v>2591</v>
+      </c>
+      <c r="N40" t="s">
+        <v>2603</v>
+      </c>
+      <c r="O40"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1582733427" r="40" hidden="0" collapsedDB="1" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1583539609" r="40" hidden="0" collapsedDB="1" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
     <row r="41" spans="1:17" hidden="1">
-      <c r="A41" s="67" t="n">
-        <v>4</v>
+      <c r="A41" s="66" t="n">
+        <v>5</v>
       </c>
       <c r="B41" s="73" t="s">
-        <v>2609</v>
+        <v>1097</v>
       </c>
       <c r="C41" s="74" t="n">
         <v>5</v>
       </c>
       <c r="D41" s="75" t="s">
-        <v>2610</v>
+        <v>2579</v>
       </c>
       <c r="E41" s="78" t="n">
-        <v>2893</v>
+        <v>7951</v>
       </c>
       <c r="F41" s="78" t="n">
-        <v>6876</v>
+        <v>20378</v>
       </c>
       <c r="G41" s="78" t="n">
-        <v>824</v>
-      </c>
-      <c r="H41" s="57" t="n">
+        <v>1861</v>
+      </c>
+      <c r="H41" s="84" t="n">
         <v>0</v>
       </c>
-      <c r="I41" s="57" t="s">
+      <c r="I41" s="75" t="s">
         <v>2580</v>
       </c>
-      <c r="L41" s="59" t="s">
-        <v>2607</v>
+      <c r="J41" s="76"/>
+      <c r="K41" s="76" t="s">
+        <v>2605</v>
+      </c>
+      <c r="L41" s="73" t="s">
+        <v>2585</v>
+      </c>
+      <c r="M41" s="71" t="s">
+        <v>2586</v>
       </c>
       <c r="N41" s="73" t="s">
-        <v>2583</v>
-      </c>
-      <c r="O41" s="72" t="s">
-        <v>2597</v>
-      </c>
-      <c r="Q41" s="57" t="n">
-        <v>10</v>
-      </c>
+        <v>2609</v>
+      </c>
+      <c r="O41" s="59"/>
+      <c r="P41" s="74" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q41" s="74"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1582733427" r="41" hidden="0" collapsedDB="1" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1583539609" r="41" hidden="0" collapsedDB="1" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
     <row r="42" spans="1:17" hidden="1">
-      <c r="A42" s="68" t="n">
-        <v>2</v>
+      <c r="A42" s="67" t="n">
+        <v>4</v>
       </c>
       <c r="B42" s="73" t="s">
-        <v>525</v>
+        <v>2178</v>
       </c>
       <c r="C42" s="74" t="n">
         <v>5</v>
       </c>
       <c r="D42" s="75" t="s">
-        <v>2610</v>
+        <v>2579</v>
       </c>
       <c r="E42" s="78" t="n">
-        <v>3229</v>
+        <v>7926</v>
       </c>
       <c r="F42" s="78" t="n">
-        <v>9145</v>
+        <v>21976</v>
       </c>
       <c r="G42" s="78" t="n">
-        <v>777</v>
-      </c>
-      <c r="H42" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" s="57" t="s">
-        <v>2580</v>
-      </c>
-      <c r="L42" s="59" t="s">
-        <v>2582</v>
-      </c>
-      <c r="N42" t="s">
-        <v>2582</v>
-      </c>
-      <c r="Q42" s="57" t="n">
-        <v>9</v>
-      </c>
+        <v>1861</v>
+      </c>
+      <c r="H42" s="84" t="n">
+        <v>80</v>
+      </c>
+      <c r="I42" s="75"/>
+      <c r="J42" s="76"/>
+      <c r="K42" s="76" t="s">
+        <v>2605</v>
+      </c>
+      <c r="L42" s="73" t="s">
+        <v>2603</v>
+      </c>
+      <c r="M42" s="76"/>
+      <c r="N42" s="73" t="s">
+        <v>2609</v>
+      </c>
+      <c r="O42" s="59"/>
+      <c r="P42" s="74"/>
+      <c r="Q42" s="74"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1582733427" r="42" hidden="0" collapsedDB="1" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1583539609" r="42" hidden="0" collapsedDB="1" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -43464,228 +43439,255 @@
         <v>0</v>
       </c>
       <c r="B43" s="73" t="s">
-        <v>1051</v>
+        <v>923</v>
       </c>
       <c r="C43" s="74" t="n">
         <v>5</v>
       </c>
       <c r="D43" s="75" t="s">
-        <v>2610</v>
-      </c>
-      <c r="E43" s="78"/>
-      <c r="F43" s="78"/>
-      <c r="G43" s="78"/>
+        <v>2588</v>
+      </c>
+      <c r="E43" s="78" t="n">
+        <v>6221</v>
+      </c>
+      <c r="F43" s="78" t="n">
+        <v>14417</v>
+      </c>
+      <c r="G43" s="78" t="n">
+        <v>1436</v>
+      </c>
       <c r="H43" s="84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" s="75" t="s">
-        <v>2580</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="I43" s="75"/>
       <c r="J43" s="76"/>
       <c r="K43" s="76"/>
       <c r="L43" s="73" t="s">
-        <v>2611</v>
+        <v>2591</v>
       </c>
       <c r="M43" s="76"/>
       <c r="N43" s="73" t="s">
-        <v>2588</v>
+        <v>2609</v>
       </c>
       <c r="O43" s="59"/>
       <c r="P43" s="74"/>
       <c r="Q43" s="74"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1582733427" r="43" hidden="0" collapsedDB="1" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1583539609" r="43" hidden="0" collapsedDB="1" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
     <row r="44" spans="1:17" hidden="1">
-      <c r="A44" s="64" t="n">
-        <v>0</v>
+      <c r="A44" s="66" t="n">
+        <v>5</v>
       </c>
       <c r="B44" s="59" t="s">
-        <v>728</v>
+        <v>1567</v>
       </c>
       <c r="C44" s="60" t="n">
         <v>4</v>
       </c>
       <c r="D44" s="62" t="s">
-        <v>2604</v>
+        <v>2584</v>
       </c>
       <c r="E44" s="77" t="n">
-        <v>4810</v>
+        <v>5625</v>
       </c>
       <c r="F44" s="77" t="n">
-        <v>11100</v>
+        <v>13659</v>
       </c>
       <c r="G44" s="77" t="n">
-        <v>1052</v>
-      </c>
-      <c r="H44" s="84" t="n">
-        <v>40</v>
-      </c>
+        <v>1329</v>
+      </c>
+      <c r="H44" s="84" t="s">
+        <v>2602</v>
+      </c>
+      <c r="I44" s="62"/>
+      <c r="J44" s="61" t="s">
+        <v>2590</v>
+      </c>
+      <c r="K44" s="61"/>
       <c r="L44" s="59" t="s">
-        <v>2585</v>
-      </c>
-      <c r="M44" s="71" t="s">
-        <v>2586</v>
-      </c>
-      <c r="N44" s="73" t="s">
-        <v>2583</v>
-      </c>
-      <c r="O44" s="71" t="s">
-        <v>2586</v>
-      </c>
-      <c r="P44" s="57" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q44" s="57" t="n">
-        <v>4</v>
-      </c>
+        <v>2591</v>
+      </c>
+      <c r="M44" s="61"/>
+      <c r="N44" s="59" t="s">
+        <v>2609</v>
+      </c>
+      <c r="O44" s="71"/>
+      <c r="P44" s="61"/>
+      <c r="Q44" s="61"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1582733427" r="44" hidden="0" collapsedDB="1" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1583539609" r="44" hidden="0" collapsedDB="1" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
     <row r="45" spans="1:17" hidden="1">
-      <c r="A45" s="64" t="n">
-        <v>0</v>
-      </c>
-      <c r="B45" s="73" t="s">
-        <v>332</v>
-      </c>
-      <c r="C45" s="74" t="n">
+      <c r="A45" s="63" t="n">
+        <v>1</v>
+      </c>
+      <c r="B45" s="59" t="s">
+        <v>2002</v>
+      </c>
+      <c r="C45" s="60" t="n">
+        <v>4</v>
+      </c>
+      <c r="D45" s="62" t="s">
+        <v>2584</v>
+      </c>
+      <c r="E45" s="77" t="n">
+        <v>5353</v>
+      </c>
+      <c r="F45" s="77" t="n">
+        <v>14807</v>
+      </c>
+      <c r="G45" s="77" t="n">
+        <v>1255</v>
+      </c>
+      <c r="H45" s="84" t="n">
+        <v>76</v>
+      </c>
+      <c r="I45" s="81"/>
+      <c r="J45" s="61"/>
+      <c r="K45" s="61"/>
+      <c r="L45" s="59" t="s">
+        <v>2585</v>
+      </c>
+      <c r="M45" s="71" t="s">
+        <v>2586</v>
+      </c>
+      <c r="N45" s="59" t="s">
+        <v>2609</v>
+      </c>
+      <c r="O45" s="59"/>
+      <c r="P45" s="60" t="n">
         <v>5</v>
       </c>
-      <c r="D45" s="75" t="s">
-        <v>2610</v>
-      </c>
-      <c r="E45" s="78"/>
-      <c r="F45" s="78"/>
-      <c r="G45" s="78"/>
-      <c r="H45" s="84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" s="75" t="s">
-        <v>2580</v>
-      </c>
-      <c r="J45" s="76"/>
-      <c r="K45" s="76"/>
-      <c r="L45" s="73" t="s">
-        <v>2582</v>
-      </c>
-      <c r="M45" s="76"/>
-      <c r="N45" s="73" t="s">
-        <v>2582</v>
-      </c>
-      <c r="O45" s="59"/>
-      <c r="P45" s="74"/>
-      <c r="Q45" s="74" t="n">
-        <v>9</v>
-      </c>
+      <c r="Q45" s="60"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1582733427" r="45" hidden="0" collapsedDB="1" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1583539609" r="45" hidden="0" collapsedDB="1" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
     <row r="46" spans="1:17" hidden="1">
-      <c r="A46" s="67" t="n">
+      <c r="A46" s="63" t="n">
+        <v>1</v>
+      </c>
+      <c r="B46" s="59" t="s">
+        <v>1972</v>
+      </c>
+      <c r="C46" s="60" t="n">
         <v>4</v>
       </c>
-      <c r="B46" s="73" t="s">
-        <v>2048</v>
-      </c>
-      <c r="C46" s="74" t="n">
-        <v>5</v>
-      </c>
-      <c r="D46" s="75" t="s">
-        <v>2610</v>
-      </c>
-      <c r="E46" s="78"/>
-      <c r="F46" s="78"/>
-      <c r="G46" s="78"/>
+      <c r="D46" s="62" t="s">
+        <v>2584</v>
+      </c>
+      <c r="E46" s="77" t="n">
+        <v>5286</v>
+      </c>
+      <c r="F46" s="77" t="n">
+        <v>14807</v>
+      </c>
+      <c r="G46" s="77" t="n">
+        <v>1255</v>
+      </c>
       <c r="H46" s="84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" s="75" t="s">
-        <v>2580</v>
-      </c>
-      <c r="J46" s="76"/>
-      <c r="K46" s="76"/>
-      <c r="L46" s="73" t="s">
-        <v>2611</v>
-      </c>
-      <c r="M46" s="76"/>
-      <c r="N46" s="73" t="s">
+        <v>95</v>
+      </c>
+      <c r="I46" s="81"/>
+      <c r="J46" s="61"/>
+      <c r="K46" s="61"/>
+      <c r="L46" s="59" t="s">
         <v>2582</v>
       </c>
+      <c r="M46" s="71" t="s">
+        <v>2586</v>
+      </c>
+      <c r="N46" s="59" t="s">
+        <v>2609</v>
+      </c>
       <c r="O46" s="59"/>
-      <c r="P46" s="74"/>
-      <c r="Q46" s="74"/>
+      <c r="P46" s="60" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q46" s="60"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1582733427" r="46" hidden="0" collapsedDB="1" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1583539609" r="46" hidden="0" collapsedDB="1" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
     <row r="47" spans="1:17" hidden="1">
-      <c r="A47" s="63" t="n">
-        <v>1</v>
-      </c>
-      <c r="B47" s="73" t="s">
-        <v>1867</v>
-      </c>
-      <c r="C47" s="74" t="n">
-        <v>5</v>
-      </c>
-      <c r="D47" s="75" t="s">
-        <v>2610</v>
-      </c>
-      <c r="E47" s="78"/>
-      <c r="F47" s="78"/>
-      <c r="G47" s="78"/>
-      <c r="H47" s="84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" s="75" t="s">
-        <v>2580</v>
-      </c>
-      <c r="J47" s="76"/>
-      <c r="K47" s="76"/>
-      <c r="L47" s="73" t="s">
-        <v>2611</v>
-      </c>
-      <c r="M47" s="76"/>
-      <c r="N47" s="73" t="s">
-        <v>2588</v>
+      <c r="A47" s="68" t="n">
+        <v>2</v>
+      </c>
+      <c r="B47" s="59" t="s">
+        <v>1947</v>
+      </c>
+      <c r="C47" s="60" t="n">
+        <v>4</v>
+      </c>
+      <c r="D47" s="62" t="s">
+        <v>2584</v>
+      </c>
+      <c r="E47" s="77" t="n">
+        <v>5095</v>
+      </c>
+      <c r="F47" s="77" t="n">
+        <v>12510</v>
+      </c>
+      <c r="G47" s="77" t="n">
+        <v>1145</v>
+      </c>
+      <c r="H47" s="84" t="s">
+        <v>2602</v>
+      </c>
+      <c r="I47" s="62"/>
+      <c r="J47" s="61"/>
+      <c r="K47" s="61"/>
+      <c r="L47" s="59" t="s">
+        <v>2582</v>
+      </c>
+      <c r="M47" s="71" t="s">
+        <v>2586</v>
+      </c>
+      <c r="N47" s="59" t="s">
+        <v>2609</v>
       </c>
       <c r="O47" s="59"/>
-      <c r="P47" s="74"/>
-      <c r="Q47" s="74"/>
+      <c r="P47" s="60"/>
+      <c r="Q47" s="60"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1582733427" r="47" hidden="0" collapsedDB="1" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1583539609" r="47" hidden="0" collapsedDB="1" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
     <row r="48" spans="1:17" hidden="1">
-      <c r="A48" s="64" t="n">
-        <v>0</v>
+      <c r="A48" s="66" t="n">
+        <v>5</v>
       </c>
       <c r="B48" s="73" t="s">
-        <v>2036</v>
+        <v>2610</v>
       </c>
       <c r="C48" s="74" t="n">
         <v>5</v>
       </c>
       <c r="D48" s="75" t="s">
-        <v>2610</v>
-      </c>
-      <c r="E48" s="78"/>
-      <c r="F48" s="78"/>
-      <c r="G48" s="78"/>
+        <v>2604</v>
+      </c>
+      <c r="E48" s="78" t="n">
+        <v>3963</v>
+      </c>
+      <c r="F48" s="78" t="n">
+        <v>12016</v>
+      </c>
+      <c r="G48" s="78" t="n">
+        <v>990</v>
+      </c>
       <c r="H48" s="84" t="n">
         <v>0</v>
       </c>
@@ -43695,80 +43697,108 @@
       <c r="J48" s="76"/>
       <c r="K48" s="76"/>
       <c r="L48" s="73" t="s">
-        <v>2607</v>
-      </c>
-      <c r="M48" s="76"/>
+        <v>2596</v>
+      </c>
+      <c r="M48" s="71" t="s">
+        <v>2586</v>
+      </c>
       <c r="N48" s="73" t="s">
-        <v>2587</v>
+        <v>2609</v>
       </c>
       <c r="O48" s="59"/>
       <c r="P48" s="74"/>
       <c r="Q48" s="74"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1582733427" r="48" hidden="0" collapsedDB="1" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1583539609" r="48" hidden="0" collapsedDB="1" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
-    <row r="49" spans="1:14" hidden="1">
-      <c r="A49" s="66" t="n">
-        <v>5</v>
+    <row r="49" spans="1:17" hidden="1">
+      <c r="A49" s="65" t="n">
+        <v>3</v>
       </c>
       <c r="B49" s="73" t="s">
-        <v>166</v>
+        <v>2611</v>
       </c>
       <c r="C49" s="74" t="n">
         <v>5</v>
       </c>
       <c r="D49" s="75" t="s">
-        <v>2610</v>
-      </c>
-      <c r="E49" s="78"/>
-      <c r="F49" s="78"/>
-      <c r="G49" s="78"/>
-      <c r="H49" s="57" t="n">
+        <v>2604</v>
+      </c>
+      <c r="E49" s="78" t="n">
+        <v>3774</v>
+      </c>
+      <c r="F49" s="78" t="n">
+        <v>11677</v>
+      </c>
+      <c r="G49" s="78" t="n">
+        <v>990</v>
+      </c>
+      <c r="H49" s="84" t="n">
         <v>0</v>
       </c>
-      <c r="I49" s="57" t="s">
+      <c r="I49" s="75" t="s">
         <v>2580</v>
       </c>
-      <c r="L49" s="59" t="s">
-        <v>2582</v>
-      </c>
-      <c r="N49" t="s">
-        <v>2588</v>
-      </c>
+      <c r="J49" s="76"/>
+      <c r="K49" s="76"/>
+      <c r="L49" s="73" t="s">
+        <v>2596</v>
+      </c>
+      <c r="M49" s="71" t="s">
+        <v>2586</v>
+      </c>
+      <c r="N49" s="73" t="s">
+        <v>2609</v>
+      </c>
+      <c r="O49" s="59"/>
+      <c r="P49" s="76"/>
+      <c r="Q49" s="61"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1582733427" r="49" hidden="0" collapsedDB="1" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1583539609" r="49" hidden="0" collapsedDB="1" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
     <row r="50" spans="1:17" hidden="1">
-      <c r="A50" s="65" t="n">
-        <v>3</v>
-      </c>
-      <c r="B50" t="s">
-        <v>747</v>
-      </c>
-      <c r="C50" s="57" t="n">
+      <c r="A50" s="64" t="n">
+        <v>0</v>
+      </c>
+      <c r="B50" s="73" t="s">
+        <v>2036</v>
+      </c>
+      <c r="C50" s="74" t="n">
         <v>5</v>
       </c>
       <c r="D50" s="75" t="s">
-        <v>2610</v>
-      </c>
-      <c r="L50" s="59" t="s">
-        <v>2588</v>
-      </c>
+        <v>2595</v>
+      </c>
+      <c r="E50" s="78"/>
+      <c r="F50" s="78"/>
+      <c r="G50" s="78"/>
+      <c r="H50" s="84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" s="75" t="s">
+        <v>2580</v>
+      </c>
+      <c r="J50" s="76"/>
+      <c r="K50" s="76"/>
+      <c r="L50" s="73" t="s">
+        <v>2596</v>
+      </c>
+      <c r="M50" s="76"/>
       <c r="N50" s="73" t="s">
-        <v>2582</v>
-      </c>
-      <c r="Q50" s="57" t="n">
-        <v>5</v>
-      </c>
+        <v>2609</v>
+      </c>
+      <c r="O50" s="59"/>
+      <c r="P50" s="74"/>
+      <c r="Q50" s="74"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1582733427" r="50" hidden="0" collapsedDB="1" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1583539609" r="50" hidden="0" collapsedDB="1" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -43830,7 +43860,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1582733427" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1583539609" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -43839,10 +43869,10 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1582733427" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1582733427" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1582733427" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1582733427" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1583539609" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1583539609" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1583539609" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1583539609" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
@@ -43852,7 +43882,7 @@
   </tableParts>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1582733427" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1583539609" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -43893,39 +43923,39 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>2581</v>
+        <v>2582</v>
       </c>
       <c r="C4" t="s">
-        <v>2590</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>2582</v>
+        <v>2591</v>
       </c>
       <c r="C5" t="s">
-        <v>2582</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>2588</v>
+        <v>2603</v>
       </c>
       <c r="C6" t="s">
-        <v>2588</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>2607</v>
+        <v>2596</v>
       </c>
       <c r="C7" t="s">
-        <v>2587</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>2611</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -43978,7 +44008,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1582733427" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1583539609" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -43987,10 +44017,10 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1582733427" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1582733427" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1582733427" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1582733427" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1583539609" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1583539609" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1583539609" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1583539609" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
@@ -44000,7 +44030,7 @@
   </tableParts>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1582733427" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1583539609" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
